--- a/Копия РАБОТЫ 2019.xlsx
+++ b/Копия РАБОТЫ 2019.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20880" windowHeight="8160" tabRatio="812"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20880" windowHeight="8160" tabRatio="812" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="XML" sheetId="15" r:id="rId1"/>
@@ -2492,6 +2492,60 @@
     <xf numFmtId="0" fontId="7" fillId="11" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="19" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2501,15 +2555,6 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2519,50 +2564,140 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="19" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2570,12 +2705,6 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="7" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2585,9 +2714,6 @@
     <xf numFmtId="49" fontId="6" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2597,119 +2723,53 @@
     <xf numFmtId="49" fontId="6" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2738,54 +2798,6 @@
     <xf numFmtId="49" fontId="14" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2795,6 +2807,63 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2822,9 +2891,6 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -2840,60 +2906,6 @@
     <xf numFmtId="49" fontId="2" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2914,18 +2926,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -4357,8 +4357,8 @@
   <sheetPr codeName="Лист1"/>
   <dimension ref="A2:AE18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E1:AE2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D24" sqref="D23:D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5729,7 +5729,7 @@
   </sheetPr>
   <dimension ref="A1:IT20"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="C14" sqref="C14:C19"/>
     </sheetView>
   </sheetViews>
@@ -5758,23 +5758,23 @@
     <row r="1" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="54"/>
       <c r="B1" s="54"/>
-      <c r="C1" s="308" t="s">
+      <c r="C1" s="353" t="s">
         <v>242</v>
       </c>
-      <c r="D1" s="309"/>
-      <c r="E1" s="309"/>
-      <c r="F1" s="309"/>
-      <c r="G1" s="309"/>
-      <c r="H1" s="309"/>
-      <c r="I1" s="309"/>
-      <c r="J1" s="309"/>
-      <c r="K1" s="309"/>
-      <c r="L1" s="309"/>
-      <c r="M1" s="309"/>
-      <c r="N1" s="309"/>
-      <c r="O1" s="309"/>
-      <c r="P1" s="309"/>
-      <c r="Q1" s="309"/>
+      <c r="D1" s="354"/>
+      <c r="E1" s="354"/>
+      <c r="F1" s="354"/>
+      <c r="G1" s="354"/>
+      <c r="H1" s="354"/>
+      <c r="I1" s="354"/>
+      <c r="J1" s="354"/>
+      <c r="K1" s="354"/>
+      <c r="L1" s="354"/>
+      <c r="M1" s="354"/>
+      <c r="N1" s="354"/>
+      <c r="O1" s="354"/>
+      <c r="P1" s="354"/>
+      <c r="Q1" s="354"/>
       <c r="R1" s="54"/>
       <c r="S1" s="54"/>
       <c r="T1" s="54"/>
@@ -5785,25 +5785,25 @@
       <c r="C2" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="421" t="s">
+      <c r="D2" s="425" t="s">
         <v>51</v>
       </c>
-      <c r="E2" s="421"/>
-      <c r="F2" s="421"/>
-      <c r="G2" s="422"/>
-      <c r="H2" s="422"/>
-      <c r="I2" s="422"/>
-      <c r="J2" s="422"/>
-      <c r="K2" s="422"/>
-      <c r="L2" s="422"/>
-      <c r="M2" s="422"/>
-      <c r="N2" s="422"/>
-      <c r="O2" s="422"/>
-      <c r="P2" s="422"/>
-      <c r="Q2" s="422"/>
-      <c r="R2" s="422"/>
-      <c r="S2" s="422"/>
-      <c r="T2" s="422"/>
+      <c r="E2" s="425"/>
+      <c r="F2" s="425"/>
+      <c r="G2" s="426"/>
+      <c r="H2" s="426"/>
+      <c r="I2" s="426"/>
+      <c r="J2" s="426"/>
+      <c r="K2" s="426"/>
+      <c r="L2" s="426"/>
+      <c r="M2" s="426"/>
+      <c r="N2" s="426"/>
+      <c r="O2" s="426"/>
+      <c r="P2" s="426"/>
+      <c r="Q2" s="426"/>
+      <c r="R2" s="426"/>
+      <c r="S2" s="426"/>
+      <c r="T2" s="426"/>
     </row>
     <row r="3" spans="1:21" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="54"/>
@@ -5828,41 +5828,41 @@
       <c r="T3" s="57"/>
     </row>
     <row r="4" spans="1:21" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="401" t="s">
+      <c r="A4" s="390" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="401" t="s">
+      <c r="B4" s="390" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="401" t="s">
+      <c r="C4" s="390" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="402" t="s">
+      <c r="D4" s="391" t="s">
         <v>55</v>
       </c>
-      <c r="E4" s="402"/>
-      <c r="F4" s="402"/>
-      <c r="G4" s="402"/>
-      <c r="H4" s="402"/>
-      <c r="I4" s="402"/>
-      <c r="J4" s="402"/>
-      <c r="K4" s="402"/>
-      <c r="L4" s="402"/>
-      <c r="M4" s="402"/>
-      <c r="N4" s="402"/>
-      <c r="O4" s="402"/>
-      <c r="P4" s="402"/>
-      <c r="Q4" s="402"/>
-      <c r="R4" s="402"/>
-      <c r="S4" s="402"/>
-      <c r="T4" s="400" t="s">
+      <c r="E4" s="391"/>
+      <c r="F4" s="391"/>
+      <c r="G4" s="391"/>
+      <c r="H4" s="391"/>
+      <c r="I4" s="391"/>
+      <c r="J4" s="391"/>
+      <c r="K4" s="391"/>
+      <c r="L4" s="391"/>
+      <c r="M4" s="391"/>
+      <c r="N4" s="391"/>
+      <c r="O4" s="391"/>
+      <c r="P4" s="391"/>
+      <c r="Q4" s="391"/>
+      <c r="R4" s="391"/>
+      <c r="S4" s="391"/>
+      <c r="T4" s="389" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="401"/>
-      <c r="B5" s="401"/>
-      <c r="C5" s="401"/>
+      <c r="A5" s="390"/>
+      <c r="B5" s="390"/>
+      <c r="C5" s="390"/>
       <c r="D5" s="263" t="s">
         <v>28</v>
       </c>
@@ -5911,47 +5911,47 @@
       <c r="S5" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="T5" s="400"/>
+      <c r="T5" s="389"/>
     </row>
     <row r="6" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="415" t="s">
+      <c r="A6" s="405" t="s">
         <v>81</v>
       </c>
-      <c r="B6" s="416"/>
-      <c r="C6" s="416"/>
-      <c r="D6" s="416"/>
-      <c r="E6" s="416"/>
-      <c r="F6" s="416"/>
-      <c r="G6" s="416"/>
-      <c r="H6" s="416"/>
-      <c r="I6" s="416"/>
-      <c r="J6" s="416"/>
-      <c r="K6" s="416"/>
-      <c r="L6" s="416"/>
-      <c r="M6" s="416"/>
-      <c r="N6" s="416"/>
-      <c r="O6" s="416"/>
-      <c r="P6" s="416"/>
-      <c r="Q6" s="416"/>
-      <c r="R6" s="416"/>
-      <c r="S6" s="416"/>
-      <c r="T6" s="417"/>
+      <c r="B6" s="406"/>
+      <c r="C6" s="406"/>
+      <c r="D6" s="406"/>
+      <c r="E6" s="406"/>
+      <c r="F6" s="406"/>
+      <c r="G6" s="406"/>
+      <c r="H6" s="406"/>
+      <c r="I6" s="406"/>
+      <c r="J6" s="406"/>
+      <c r="K6" s="406"/>
+      <c r="L6" s="406"/>
+      <c r="M6" s="406"/>
+      <c r="N6" s="406"/>
+      <c r="O6" s="406"/>
+      <c r="P6" s="406"/>
+      <c r="Q6" s="406"/>
+      <c r="R6" s="406"/>
+      <c r="S6" s="406"/>
+      <c r="T6" s="407"/>
     </row>
     <row r="7" spans="1:21" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="420" t="s">
+      <c r="A7" s="424" t="s">
         <v>47</v>
       </c>
-      <c r="B7" s="420" t="s">
+      <c r="B7" s="424" t="s">
         <v>114</v>
       </c>
       <c r="C7" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="D7" s="385" t="s">
+      <c r="D7" s="408" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="386"/>
-      <c r="F7" s="387"/>
+      <c r="E7" s="409"/>
+      <c r="F7" s="410"/>
       <c r="G7" s="24">
         <f>Лист1!F15</f>
         <v>1325.2</v>
@@ -6007,9 +6007,9 @@
       <c r="T7" s="176"/>
     </row>
     <row r="8" spans="1:21" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="420"/>
-      <c r="B8" s="420"/>
-      <c r="C8" s="409" t="s">
+      <c r="A8" s="424"/>
+      <c r="B8" s="424"/>
+      <c r="C8" s="398" t="s">
         <v>49</v>
       </c>
       <c r="D8" s="166">
@@ -6072,9 +6072,9 @@
       <c r="T8" s="85"/>
     </row>
     <row r="9" spans="1:21" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="420"/>
-      <c r="B9" s="420"/>
-      <c r="C9" s="410"/>
+      <c r="A9" s="424"/>
+      <c r="B9" s="424"/>
+      <c r="C9" s="399"/>
       <c r="D9" s="166"/>
       <c r="E9" s="166">
         <v>97089</v>
@@ -6135,9 +6135,9 @@
       <c r="T9" s="85"/>
     </row>
     <row r="10" spans="1:21" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="420"/>
-      <c r="B10" s="420"/>
-      <c r="C10" s="411"/>
+      <c r="A10" s="424"/>
+      <c r="B10" s="424"/>
+      <c r="C10" s="400"/>
       <c r="D10" s="166"/>
       <c r="E10" s="166"/>
       <c r="F10" s="166">
@@ -6198,16 +6198,16 @@
       <c r="T10" s="85"/>
     </row>
     <row r="11" spans="1:21" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="388" t="s">
+      <c r="A11" s="411" t="s">
         <v>91</v>
       </c>
-      <c r="B11" s="389"/>
-      <c r="C11" s="394" t="s">
+      <c r="B11" s="412"/>
+      <c r="C11" s="401" t="s">
         <v>66</v>
       </c>
-      <c r="D11" s="394"/>
-      <c r="E11" s="394"/>
-      <c r="F11" s="394"/>
+      <c r="D11" s="401"/>
+      <c r="E11" s="401"/>
+      <c r="F11" s="401"/>
       <c r="G11" s="39">
         <f t="shared" ref="G11:R13" si="4">G8</f>
         <v>126690.4</v>
@@ -6263,14 +6263,14 @@
       <c r="T11" s="85"/>
     </row>
     <row r="12" spans="1:21" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="390"/>
-      <c r="B12" s="391"/>
-      <c r="C12" s="394" t="s">
+      <c r="A12" s="413"/>
+      <c r="B12" s="414"/>
+      <c r="C12" s="401" t="s">
         <v>67</v>
       </c>
-      <c r="D12" s="394"/>
-      <c r="E12" s="394"/>
-      <c r="F12" s="394"/>
+      <c r="D12" s="401"/>
+      <c r="E12" s="401"/>
+      <c r="F12" s="401"/>
       <c r="G12" s="39">
         <f>G9</f>
         <v>128662.3</v>
@@ -6326,14 +6326,14 @@
       <c r="T12" s="85"/>
     </row>
     <row r="13" spans="1:21" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="390"/>
-      <c r="B13" s="391"/>
-      <c r="C13" s="394" t="s">
+      <c r="A13" s="413"/>
+      <c r="B13" s="414"/>
+      <c r="C13" s="401" t="s">
         <v>238</v>
       </c>
-      <c r="D13" s="394"/>
-      <c r="E13" s="394"/>
-      <c r="F13" s="394"/>
+      <c r="D13" s="401"/>
+      <c r="E13" s="401"/>
+      <c r="F13" s="401"/>
       <c r="G13" s="39">
         <f>G10</f>
         <v>128662.3</v>
@@ -6389,16 +6389,16 @@
       <c r="T13" s="85"/>
     </row>
     <row r="14" spans="1:21" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="390"/>
-      <c r="B14" s="391"/>
-      <c r="C14" s="313" t="s">
+      <c r="A14" s="413"/>
+      <c r="B14" s="414"/>
+      <c r="C14" s="356" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="395" t="s">
+      <c r="D14" s="417" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="395"/>
-      <c r="F14" s="395"/>
+      <c r="E14" s="417"/>
+      <c r="F14" s="417"/>
       <c r="G14" s="130">
         <f>ROUND(G$11*$T15,1)</f>
         <v>113966.8</v>
@@ -6457,14 +6457,14 @@
       </c>
     </row>
     <row r="15" spans="1:21" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="390"/>
-      <c r="B15" s="391"/>
-      <c r="C15" s="313"/>
-      <c r="D15" s="396" t="s">
+      <c r="A15" s="413"/>
+      <c r="B15" s="414"/>
+      <c r="C15" s="356"/>
+      <c r="D15" s="418" t="s">
         <v>21</v>
       </c>
-      <c r="E15" s="396"/>
-      <c r="F15" s="396"/>
+      <c r="E15" s="418"/>
+      <c r="F15" s="418"/>
       <c r="G15" s="31">
         <f t="shared" ref="G15:Q15" si="6">G14-G11</f>
         <v>-12723.599999999991</v>
@@ -6523,16 +6523,16 @@
       </c>
     </row>
     <row r="16" spans="1:21" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="390"/>
-      <c r="B16" s="391"/>
-      <c r="C16" s="314" t="s">
+      <c r="A16" s="413"/>
+      <c r="B16" s="414"/>
+      <c r="C16" s="357" t="s">
         <v>29</v>
       </c>
-      <c r="D16" s="397" t="s">
+      <c r="D16" s="419" t="s">
         <v>20</v>
       </c>
-      <c r="E16" s="397"/>
-      <c r="F16" s="397"/>
+      <c r="E16" s="419"/>
+      <c r="F16" s="419"/>
       <c r="G16" s="86">
         <f>ROUND(G$12*$T17,1)</f>
         <v>115947.8</v>
@@ -6591,14 +6591,14 @@
       </c>
     </row>
     <row r="17" spans="1:21" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="390"/>
-      <c r="B17" s="391"/>
-      <c r="C17" s="314"/>
-      <c r="D17" s="398" t="s">
+      <c r="A17" s="413"/>
+      <c r="B17" s="414"/>
+      <c r="C17" s="357"/>
+      <c r="D17" s="420" t="s">
         <v>21</v>
       </c>
-      <c r="E17" s="398"/>
-      <c r="F17" s="398"/>
+      <c r="E17" s="420"/>
+      <c r="F17" s="420"/>
       <c r="G17" s="86">
         <f>G16-G12</f>
         <v>-12714.5</v>
@@ -6657,16 +6657,16 @@
       </c>
     </row>
     <row r="18" spans="1:21" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="390"/>
-      <c r="B18" s="391"/>
-      <c r="C18" s="315" t="s">
+      <c r="A18" s="413"/>
+      <c r="B18" s="414"/>
+      <c r="C18" s="345" t="s">
         <v>241</v>
       </c>
-      <c r="D18" s="399" t="s">
+      <c r="D18" s="421" t="s">
         <v>20</v>
       </c>
-      <c r="E18" s="399"/>
-      <c r="F18" s="399"/>
+      <c r="E18" s="421"/>
+      <c r="F18" s="421"/>
       <c r="G18" s="89">
         <f>ROUND(G$13*$T19,1)</f>
         <v>117783</v>
@@ -6725,14 +6725,14 @@
       </c>
     </row>
     <row r="19" spans="1:21" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="392"/>
-      <c r="B19" s="393"/>
-      <c r="C19" s="315"/>
-      <c r="D19" s="414" t="s">
+      <c r="A19" s="415"/>
+      <c r="B19" s="416"/>
+      <c r="C19" s="345"/>
+      <c r="D19" s="404" t="s">
         <v>21</v>
       </c>
-      <c r="E19" s="414"/>
-      <c r="F19" s="414"/>
+      <c r="E19" s="404"/>
+      <c r="F19" s="404"/>
       <c r="G19" s="89">
         <f>G18-G13</f>
         <v>-10879.300000000003</v>
@@ -6797,6 +6797,19 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="C1:Q1"/>
+    <mergeCell ref="D2:T2"/>
+    <mergeCell ref="T4:T5"/>
+    <mergeCell ref="A6:T6"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="G4:S4"/>
+    <mergeCell ref="C8:C10"/>
     <mergeCell ref="C14:C15"/>
     <mergeCell ref="A11:B19"/>
     <mergeCell ref="C11:F11"/>
@@ -6810,19 +6823,6 @@
     <mergeCell ref="C18:C19"/>
     <mergeCell ref="C12:F12"/>
     <mergeCell ref="C13:F13"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="C1:Q1"/>
-    <mergeCell ref="D2:T2"/>
-    <mergeCell ref="T4:T5"/>
-    <mergeCell ref="A6:T6"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="G4:S4"/>
-    <mergeCell ref="C8:C10"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="42" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -6866,23 +6866,23 @@
     <row r="1" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="46"/>
       <c r="B1" s="46"/>
-      <c r="C1" s="308" t="s">
+      <c r="C1" s="353" t="s">
         <v>242</v>
       </c>
-      <c r="D1" s="309"/>
-      <c r="E1" s="309"/>
-      <c r="F1" s="309"/>
-      <c r="G1" s="309"/>
-      <c r="H1" s="309"/>
-      <c r="I1" s="309"/>
-      <c r="J1" s="309"/>
-      <c r="K1" s="309"/>
-      <c r="L1" s="309"/>
-      <c r="M1" s="309"/>
-      <c r="N1" s="309"/>
-      <c r="O1" s="309"/>
-      <c r="P1" s="309"/>
-      <c r="Q1" s="309"/>
+      <c r="D1" s="354"/>
+      <c r="E1" s="354"/>
+      <c r="F1" s="354"/>
+      <c r="G1" s="354"/>
+      <c r="H1" s="354"/>
+      <c r="I1" s="354"/>
+      <c r="J1" s="354"/>
+      <c r="K1" s="354"/>
+      <c r="L1" s="354"/>
+      <c r="M1" s="354"/>
+      <c r="N1" s="354"/>
+      <c r="O1" s="354"/>
+      <c r="P1" s="354"/>
+      <c r="Q1" s="354"/>
       <c r="R1" s="46"/>
       <c r="S1" s="46"/>
       <c r="T1" s="46"/>
@@ -6893,25 +6893,25 @@
       <c r="C2" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="418" t="s">
+      <c r="D2" s="422" t="s">
         <v>52</v>
       </c>
-      <c r="E2" s="418"/>
-      <c r="F2" s="418"/>
-      <c r="G2" s="419"/>
-      <c r="H2" s="419"/>
-      <c r="I2" s="419"/>
-      <c r="J2" s="419"/>
-      <c r="K2" s="419"/>
-      <c r="L2" s="419"/>
-      <c r="M2" s="419"/>
-      <c r="N2" s="419"/>
-      <c r="O2" s="419"/>
-      <c r="P2" s="419"/>
-      <c r="Q2" s="419"/>
-      <c r="R2" s="419"/>
-      <c r="S2" s="419"/>
-      <c r="T2" s="419"/>
+      <c r="E2" s="422"/>
+      <c r="F2" s="422"/>
+      <c r="G2" s="423"/>
+      <c r="H2" s="423"/>
+      <c r="I2" s="423"/>
+      <c r="J2" s="423"/>
+      <c r="K2" s="423"/>
+      <c r="L2" s="423"/>
+      <c r="M2" s="423"/>
+      <c r="N2" s="423"/>
+      <c r="O2" s="423"/>
+      <c r="P2" s="423"/>
+      <c r="Q2" s="423"/>
+      <c r="R2" s="423"/>
+      <c r="S2" s="423"/>
+      <c r="T2" s="423"/>
     </row>
     <row r="3" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="46"/>
@@ -6936,41 +6936,41 @@
       <c r="T3" s="49"/>
     </row>
     <row r="4" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="401" t="s">
+      <c r="A4" s="390" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="401" t="s">
+      <c r="B4" s="390" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="401" t="s">
+      <c r="C4" s="390" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="402" t="s">
+      <c r="D4" s="391" t="s">
         <v>55</v>
       </c>
-      <c r="E4" s="402"/>
-      <c r="F4" s="402"/>
-      <c r="G4" s="402"/>
-      <c r="H4" s="402"/>
-      <c r="I4" s="402"/>
-      <c r="J4" s="402"/>
-      <c r="K4" s="402"/>
-      <c r="L4" s="402"/>
-      <c r="M4" s="402"/>
-      <c r="N4" s="402"/>
-      <c r="O4" s="402"/>
-      <c r="P4" s="402"/>
-      <c r="Q4" s="402"/>
-      <c r="R4" s="402"/>
-      <c r="S4" s="402"/>
-      <c r="T4" s="400" t="s">
+      <c r="E4" s="391"/>
+      <c r="F4" s="391"/>
+      <c r="G4" s="391"/>
+      <c r="H4" s="391"/>
+      <c r="I4" s="391"/>
+      <c r="J4" s="391"/>
+      <c r="K4" s="391"/>
+      <c r="L4" s="391"/>
+      <c r="M4" s="391"/>
+      <c r="N4" s="391"/>
+      <c r="O4" s="391"/>
+      <c r="P4" s="391"/>
+      <c r="Q4" s="391"/>
+      <c r="R4" s="391"/>
+      <c r="S4" s="391"/>
+      <c r="T4" s="389" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="401"/>
-      <c r="B5" s="401"/>
-      <c r="C5" s="401"/>
+      <c r="A5" s="390"/>
+      <c r="B5" s="390"/>
+      <c r="C5" s="390"/>
       <c r="D5" s="263" t="s">
         <v>28</v>
       </c>
@@ -7019,47 +7019,47 @@
       <c r="S5" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="T5" s="400"/>
+      <c r="T5" s="389"/>
     </row>
     <row r="6" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="415" t="s">
+      <c r="A6" s="405" t="s">
         <v>81</v>
       </c>
-      <c r="B6" s="416"/>
-      <c r="C6" s="416"/>
-      <c r="D6" s="416"/>
-      <c r="E6" s="416"/>
-      <c r="F6" s="416"/>
-      <c r="G6" s="416"/>
-      <c r="H6" s="416"/>
-      <c r="I6" s="416"/>
-      <c r="J6" s="416"/>
-      <c r="K6" s="416"/>
-      <c r="L6" s="416"/>
-      <c r="M6" s="416"/>
-      <c r="N6" s="416"/>
-      <c r="O6" s="416"/>
-      <c r="P6" s="416"/>
-      <c r="Q6" s="416"/>
-      <c r="R6" s="416"/>
-      <c r="S6" s="416"/>
-      <c r="T6" s="417"/>
+      <c r="B6" s="406"/>
+      <c r="C6" s="406"/>
+      <c r="D6" s="406"/>
+      <c r="E6" s="406"/>
+      <c r="F6" s="406"/>
+      <c r="G6" s="406"/>
+      <c r="H6" s="406"/>
+      <c r="I6" s="406"/>
+      <c r="J6" s="406"/>
+      <c r="K6" s="406"/>
+      <c r="L6" s="406"/>
+      <c r="M6" s="406"/>
+      <c r="N6" s="406"/>
+      <c r="O6" s="406"/>
+      <c r="P6" s="406"/>
+      <c r="Q6" s="406"/>
+      <c r="R6" s="406"/>
+      <c r="S6" s="406"/>
+      <c r="T6" s="407"/>
     </row>
     <row r="7" spans="1:21" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="420" t="s">
+      <c r="A7" s="424" t="s">
         <v>47</v>
       </c>
-      <c r="B7" s="420" t="s">
+      <c r="B7" s="424" t="s">
         <v>114</v>
       </c>
       <c r="C7" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="D7" s="385" t="s">
+      <c r="D7" s="408" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="386"/>
-      <c r="F7" s="387"/>
+      <c r="E7" s="409"/>
+      <c r="F7" s="410"/>
       <c r="G7" s="24">
         <f>Лист1!F15</f>
         <v>1325.2</v>
@@ -7115,9 +7115,9 @@
       <c r="T7" s="176"/>
     </row>
     <row r="8" spans="1:21" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="420"/>
-      <c r="B8" s="420"/>
-      <c r="C8" s="409" t="s">
+      <c r="A8" s="424"/>
+      <c r="B8" s="424"/>
+      <c r="C8" s="398" t="s">
         <v>49</v>
       </c>
       <c r="D8" s="44">
@@ -7180,9 +7180,9 @@
       <c r="T8" s="85"/>
     </row>
     <row r="9" spans="1:21" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="420"/>
-      <c r="B9" s="420"/>
-      <c r="C9" s="410"/>
+      <c r="A9" s="424"/>
+      <c r="B9" s="424"/>
+      <c r="C9" s="399"/>
       <c r="D9" s="44"/>
       <c r="E9" s="44">
         <v>16535</v>
@@ -7243,9 +7243,9 @@
       <c r="T9" s="85"/>
     </row>
     <row r="10" spans="1:21" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="420"/>
-      <c r="B10" s="420"/>
-      <c r="C10" s="411"/>
+      <c r="A10" s="424"/>
+      <c r="B10" s="424"/>
+      <c r="C10" s="400"/>
       <c r="D10" s="44"/>
       <c r="E10" s="44"/>
       <c r="F10" s="44">
@@ -7306,16 +7306,16 @@
       <c r="T10" s="85"/>
     </row>
     <row r="11" spans="1:21" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="388" t="s">
+      <c r="A11" s="411" t="s">
         <v>91</v>
       </c>
-      <c r="B11" s="389"/>
-      <c r="C11" s="394" t="s">
+      <c r="B11" s="412"/>
+      <c r="C11" s="401" t="s">
         <v>66</v>
       </c>
-      <c r="D11" s="394"/>
-      <c r="E11" s="394"/>
-      <c r="F11" s="394"/>
+      <c r="D11" s="401"/>
+      <c r="E11" s="401"/>
+      <c r="F11" s="401"/>
       <c r="G11" s="39">
         <f t="shared" ref="G11:R13" si="4">G8</f>
         <v>21686.9</v>
@@ -7371,14 +7371,14 @@
       <c r="T11" s="85"/>
     </row>
     <row r="12" spans="1:21" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="390"/>
-      <c r="B12" s="391"/>
-      <c r="C12" s="394" t="s">
+      <c r="A12" s="413"/>
+      <c r="B12" s="414"/>
+      <c r="C12" s="401" t="s">
         <v>67</v>
       </c>
-      <c r="D12" s="394"/>
-      <c r="E12" s="394"/>
-      <c r="F12" s="394"/>
+      <c r="D12" s="401"/>
+      <c r="E12" s="401"/>
+      <c r="F12" s="401"/>
       <c r="G12" s="39">
         <f>G9</f>
         <v>21912.2</v>
@@ -7434,14 +7434,14 @@
       <c r="T12" s="85"/>
     </row>
     <row r="13" spans="1:21" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="390"/>
-      <c r="B13" s="391"/>
-      <c r="C13" s="394" t="s">
+      <c r="A13" s="413"/>
+      <c r="B13" s="414"/>
+      <c r="C13" s="401" t="s">
         <v>238</v>
       </c>
-      <c r="D13" s="394"/>
-      <c r="E13" s="394"/>
-      <c r="F13" s="394"/>
+      <c r="D13" s="401"/>
+      <c r="E13" s="401"/>
+      <c r="F13" s="401"/>
       <c r="G13" s="39">
         <f>G10</f>
         <v>21912.2</v>
@@ -7497,16 +7497,16 @@
       <c r="T13" s="85"/>
     </row>
     <row r="14" spans="1:21" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="390"/>
-      <c r="B14" s="391"/>
-      <c r="C14" s="313" t="s">
+      <c r="A14" s="413"/>
+      <c r="B14" s="414"/>
+      <c r="C14" s="356" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="395" t="s">
+      <c r="D14" s="417" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="395"/>
-      <c r="F14" s="395"/>
+      <c r="E14" s="417"/>
+      <c r="F14" s="417"/>
       <c r="G14" s="130">
         <f>ROUND(G$11*$T15,1)</f>
         <v>19505.099999999999</v>
@@ -7565,14 +7565,14 @@
       </c>
     </row>
     <row r="15" spans="1:21" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="390"/>
-      <c r="B15" s="391"/>
-      <c r="C15" s="313"/>
-      <c r="D15" s="396" t="s">
+      <c r="A15" s="413"/>
+      <c r="B15" s="414"/>
+      <c r="C15" s="356"/>
+      <c r="D15" s="418" t="s">
         <v>21</v>
       </c>
-      <c r="E15" s="396"/>
-      <c r="F15" s="396"/>
+      <c r="E15" s="418"/>
+      <c r="F15" s="418"/>
       <c r="G15" s="31">
         <f t="shared" ref="G15:Q15" si="6">G14-G11</f>
         <v>-2181.8000000000029</v>
@@ -7631,16 +7631,16 @@
       </c>
     </row>
     <row r="16" spans="1:21" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="390"/>
-      <c r="B16" s="391"/>
-      <c r="C16" s="314" t="s">
+      <c r="A16" s="413"/>
+      <c r="B16" s="414"/>
+      <c r="C16" s="357" t="s">
         <v>29</v>
       </c>
-      <c r="D16" s="397" t="s">
+      <c r="D16" s="419" t="s">
         <v>20</v>
       </c>
-      <c r="E16" s="397"/>
-      <c r="F16" s="397"/>
+      <c r="E16" s="419"/>
+      <c r="F16" s="419"/>
       <c r="G16" s="86">
         <f>ROUND(G$12*$T17,1)</f>
         <v>19730.900000000001</v>
@@ -7699,14 +7699,14 @@
       </c>
     </row>
     <row r="17" spans="1:21" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="390"/>
-      <c r="B17" s="391"/>
-      <c r="C17" s="314"/>
-      <c r="D17" s="398" t="s">
+      <c r="A17" s="413"/>
+      <c r="B17" s="414"/>
+      <c r="C17" s="357"/>
+      <c r="D17" s="420" t="s">
         <v>21</v>
       </c>
-      <c r="E17" s="398"/>
-      <c r="F17" s="398"/>
+      <c r="E17" s="420"/>
+      <c r="F17" s="420"/>
       <c r="G17" s="86">
         <f>G16-G12</f>
         <v>-2181.2999999999993</v>
@@ -7765,16 +7765,16 @@
       </c>
     </row>
     <row r="18" spans="1:21" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="390"/>
-      <c r="B18" s="391"/>
-      <c r="C18" s="315" t="s">
+      <c r="A18" s="413"/>
+      <c r="B18" s="414"/>
+      <c r="C18" s="345" t="s">
         <v>241</v>
       </c>
-      <c r="D18" s="399" t="s">
+      <c r="D18" s="421" t="s">
         <v>20</v>
       </c>
-      <c r="E18" s="399"/>
-      <c r="F18" s="399"/>
+      <c r="E18" s="421"/>
+      <c r="F18" s="421"/>
       <c r="G18" s="89">
         <f>ROUND(G$13*$T19,1)</f>
         <v>19940.099999999999</v>
@@ -7833,14 +7833,14 @@
       </c>
     </row>
     <row r="19" spans="1:21" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="392"/>
-      <c r="B19" s="393"/>
-      <c r="C19" s="315"/>
-      <c r="D19" s="414" t="s">
+      <c r="A19" s="415"/>
+      <c r="B19" s="416"/>
+      <c r="C19" s="345"/>
+      <c r="D19" s="404" t="s">
         <v>21</v>
       </c>
-      <c r="E19" s="414"/>
-      <c r="F19" s="414"/>
+      <c r="E19" s="404"/>
+      <c r="F19" s="404"/>
       <c r="G19" s="89">
         <f>G18-G13</f>
         <v>-1972.1000000000022</v>
@@ -7905,6 +7905,19 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="C1:Q1"/>
+    <mergeCell ref="D2:T2"/>
+    <mergeCell ref="G4:S4"/>
+    <mergeCell ref="T4:T5"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="A6:T6"/>
+    <mergeCell ref="D7:F7"/>
     <mergeCell ref="A11:B19"/>
     <mergeCell ref="C11:F11"/>
     <mergeCell ref="D14:F14"/>
@@ -7918,19 +7931,6 @@
     <mergeCell ref="C18:C19"/>
     <mergeCell ref="C12:F12"/>
     <mergeCell ref="C13:F13"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="C1:Q1"/>
-    <mergeCell ref="D2:T2"/>
-    <mergeCell ref="G4:S4"/>
-    <mergeCell ref="T4:T5"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="A6:T6"/>
-    <mergeCell ref="D7:F7"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="42" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -7973,23 +7973,23 @@
     <row r="1" spans="1:254" s="61" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="308" t="s">
+      <c r="C1" s="353" t="s">
         <v>242</v>
       </c>
-      <c r="D1" s="309"/>
-      <c r="E1" s="309"/>
-      <c r="F1" s="309"/>
-      <c r="G1" s="309"/>
-      <c r="H1" s="309"/>
-      <c r="I1" s="309"/>
-      <c r="J1" s="309"/>
-      <c r="K1" s="309"/>
-      <c r="L1" s="309"/>
-      <c r="M1" s="309"/>
-      <c r="N1" s="309"/>
-      <c r="O1" s="309"/>
-      <c r="P1" s="309"/>
-      <c r="Q1" s="309"/>
+      <c r="D1" s="354"/>
+      <c r="E1" s="354"/>
+      <c r="F1" s="354"/>
+      <c r="G1" s="354"/>
+      <c r="H1" s="354"/>
+      <c r="I1" s="354"/>
+      <c r="J1" s="354"/>
+      <c r="K1" s="354"/>
+      <c r="L1" s="354"/>
+      <c r="M1" s="354"/>
+      <c r="N1" s="354"/>
+      <c r="O1" s="354"/>
+      <c r="P1" s="354"/>
+      <c r="Q1" s="354"/>
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
       <c r="T1" s="62"/>
@@ -8234,25 +8234,25 @@
       <c r="C2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="423" t="s">
+      <c r="D2" s="427" t="s">
         <v>53</v>
       </c>
-      <c r="E2" s="423"/>
-      <c r="F2" s="423"/>
-      <c r="G2" s="424"/>
-      <c r="H2" s="424"/>
-      <c r="I2" s="424"/>
-      <c r="J2" s="424"/>
-      <c r="K2" s="424"/>
-      <c r="L2" s="424"/>
-      <c r="M2" s="424"/>
-      <c r="N2" s="424"/>
-      <c r="O2" s="424"/>
-      <c r="P2" s="424"/>
-      <c r="Q2" s="424"/>
-      <c r="R2" s="424"/>
-      <c r="S2" s="424"/>
-      <c r="T2" s="424"/>
+      <c r="E2" s="427"/>
+      <c r="F2" s="427"/>
+      <c r="G2" s="428"/>
+      <c r="H2" s="428"/>
+      <c r="I2" s="428"/>
+      <c r="J2" s="428"/>
+      <c r="K2" s="428"/>
+      <c r="L2" s="428"/>
+      <c r="M2" s="428"/>
+      <c r="N2" s="428"/>
+      <c r="O2" s="428"/>
+      <c r="P2" s="428"/>
+      <c r="Q2" s="428"/>
+      <c r="R2" s="428"/>
+      <c r="S2" s="428"/>
+      <c r="T2" s="428"/>
       <c r="U2" s="60"/>
       <c r="V2" s="60"/>
       <c r="W2" s="60"/>
@@ -8745,34 +8745,34 @@
       <c r="IT3" s="60"/>
     </row>
     <row r="4" spans="1:254" s="61" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="401" t="s">
+      <c r="A4" s="390" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="401" t="s">
+      <c r="B4" s="390" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="401" t="s">
+      <c r="C4" s="390" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="402" t="s">
+      <c r="D4" s="391" t="s">
         <v>55</v>
       </c>
-      <c r="E4" s="402"/>
-      <c r="F4" s="402"/>
-      <c r="G4" s="402"/>
-      <c r="H4" s="402"/>
-      <c r="I4" s="402"/>
-      <c r="J4" s="402"/>
-      <c r="K4" s="402"/>
-      <c r="L4" s="402"/>
-      <c r="M4" s="402"/>
-      <c r="N4" s="402"/>
-      <c r="O4" s="402"/>
-      <c r="P4" s="402"/>
-      <c r="Q4" s="402"/>
-      <c r="R4" s="402"/>
-      <c r="S4" s="402"/>
-      <c r="T4" s="400" t="s">
+      <c r="E4" s="391"/>
+      <c r="F4" s="391"/>
+      <c r="G4" s="391"/>
+      <c r="H4" s="391"/>
+      <c r="I4" s="391"/>
+      <c r="J4" s="391"/>
+      <c r="K4" s="391"/>
+      <c r="L4" s="391"/>
+      <c r="M4" s="391"/>
+      <c r="N4" s="391"/>
+      <c r="O4" s="391"/>
+      <c r="P4" s="391"/>
+      <c r="Q4" s="391"/>
+      <c r="R4" s="391"/>
+      <c r="S4" s="391"/>
+      <c r="T4" s="389" t="s">
         <v>21</v>
       </c>
       <c r="U4" s="60"/>
@@ -9011,9 +9011,9 @@
       <c r="IT4" s="60"/>
     </row>
     <row r="5" spans="1:254" s="61" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="401"/>
-      <c r="B5" s="401"/>
-      <c r="C5" s="401"/>
+      <c r="A5" s="390"/>
+      <c r="B5" s="390"/>
+      <c r="C5" s="390"/>
       <c r="D5" s="263" t="s">
         <v>28</v>
       </c>
@@ -9062,7 +9062,7 @@
       <c r="S5" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="T5" s="400"/>
+      <c r="T5" s="389"/>
       <c r="U5" s="60"/>
       <c r="V5" s="60"/>
       <c r="W5" s="60"/>
@@ -9299,44 +9299,44 @@
       <c r="IT5" s="60"/>
     </row>
     <row r="6" spans="1:254" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="415" t="s">
+      <c r="A6" s="405" t="s">
         <v>81</v>
       </c>
-      <c r="B6" s="416"/>
-      <c r="C6" s="416"/>
-      <c r="D6" s="416"/>
-      <c r="E6" s="416"/>
-      <c r="F6" s="416"/>
-      <c r="G6" s="416"/>
-      <c r="H6" s="416"/>
-      <c r="I6" s="416"/>
-      <c r="J6" s="416"/>
-      <c r="K6" s="416"/>
-      <c r="L6" s="416"/>
-      <c r="M6" s="416"/>
-      <c r="N6" s="416"/>
-      <c r="O6" s="416"/>
-      <c r="P6" s="416"/>
-      <c r="Q6" s="416"/>
-      <c r="R6" s="416"/>
-      <c r="S6" s="416"/>
-      <c r="T6" s="417"/>
+      <c r="B6" s="406"/>
+      <c r="C6" s="406"/>
+      <c r="D6" s="406"/>
+      <c r="E6" s="406"/>
+      <c r="F6" s="406"/>
+      <c r="G6" s="406"/>
+      <c r="H6" s="406"/>
+      <c r="I6" s="406"/>
+      <c r="J6" s="406"/>
+      <c r="K6" s="406"/>
+      <c r="L6" s="406"/>
+      <c r="M6" s="406"/>
+      <c r="N6" s="406"/>
+      <c r="O6" s="406"/>
+      <c r="P6" s="406"/>
+      <c r="Q6" s="406"/>
+      <c r="R6" s="406"/>
+      <c r="S6" s="406"/>
+      <c r="T6" s="407"/>
     </row>
     <row r="7" spans="1:254" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="420" t="s">
+      <c r="A7" s="424" t="s">
         <v>47</v>
       </c>
-      <c r="B7" s="420" t="s">
+      <c r="B7" s="424" t="s">
         <v>114</v>
       </c>
       <c r="C7" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="D7" s="385" t="s">
+      <c r="D7" s="408" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="386"/>
-      <c r="F7" s="387"/>
+      <c r="E7" s="409"/>
+      <c r="F7" s="410"/>
       <c r="G7" s="21">
         <f>Лист1!F15</f>
         <v>1325.2</v>
@@ -9392,9 +9392,9 @@
       <c r="T7" s="53"/>
     </row>
     <row r="8" spans="1:254" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="420"/>
-      <c r="B8" s="420"/>
-      <c r="C8" s="409" t="s">
+      <c r="A8" s="424"/>
+      <c r="B8" s="424"/>
+      <c r="C8" s="398" t="s">
         <v>49</v>
       </c>
       <c r="D8" s="166">
@@ -9457,9 +9457,9 @@
       <c r="T8" s="52"/>
     </row>
     <row r="9" spans="1:254" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="420"/>
-      <c r="B9" s="420"/>
-      <c r="C9" s="410"/>
+      <c r="A9" s="424"/>
+      <c r="B9" s="424"/>
+      <c r="C9" s="399"/>
       <c r="D9" s="166"/>
       <c r="E9" s="166">
         <v>22168</v>
@@ -9520,9 +9520,9 @@
       <c r="T9" s="52"/>
     </row>
     <row r="10" spans="1:254" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="420"/>
-      <c r="B10" s="420"/>
-      <c r="C10" s="411"/>
+      <c r="A10" s="424"/>
+      <c r="B10" s="424"/>
+      <c r="C10" s="400"/>
       <c r="D10" s="166"/>
       <c r="E10" s="166"/>
       <c r="F10" s="166">
@@ -9583,16 +9583,16 @@
       <c r="T10" s="52"/>
     </row>
     <row r="11" spans="1:254" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="388" t="s">
+      <c r="A11" s="411" t="s">
         <v>91</v>
       </c>
-      <c r="B11" s="389"/>
-      <c r="C11" s="394" t="s">
+      <c r="B11" s="412"/>
+      <c r="C11" s="401" t="s">
         <v>66</v>
       </c>
-      <c r="D11" s="394"/>
-      <c r="E11" s="394"/>
-      <c r="F11" s="394"/>
+      <c r="D11" s="401"/>
+      <c r="E11" s="401"/>
+      <c r="F11" s="401"/>
       <c r="G11" s="39">
         <f t="shared" ref="G11:R13" si="4">G8</f>
         <v>28905.3</v>
@@ -9648,14 +9648,14 @@
       <c r="T11" s="52"/>
     </row>
     <row r="12" spans="1:254" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="390"/>
-      <c r="B12" s="391"/>
-      <c r="C12" s="394" t="s">
+      <c r="A12" s="413"/>
+      <c r="B12" s="414"/>
+      <c r="C12" s="401" t="s">
         <v>67</v>
       </c>
-      <c r="D12" s="394"/>
-      <c r="E12" s="394"/>
-      <c r="F12" s="394"/>
+      <c r="D12" s="401"/>
+      <c r="E12" s="401"/>
+      <c r="F12" s="401"/>
       <c r="G12" s="39">
         <f>G9</f>
         <v>29377</v>
@@ -9711,14 +9711,14 @@
       <c r="T12" s="52"/>
     </row>
     <row r="13" spans="1:254" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="390"/>
-      <c r="B13" s="391"/>
-      <c r="C13" s="394" t="s">
+      <c r="A13" s="413"/>
+      <c r="B13" s="414"/>
+      <c r="C13" s="401" t="s">
         <v>238</v>
       </c>
-      <c r="D13" s="394"/>
-      <c r="E13" s="394"/>
-      <c r="F13" s="394"/>
+      <c r="D13" s="401"/>
+      <c r="E13" s="401"/>
+      <c r="F13" s="401"/>
       <c r="G13" s="39">
         <f>G10</f>
         <v>29377</v>
@@ -9774,16 +9774,16 @@
       <c r="T13" s="52"/>
     </row>
     <row r="14" spans="1:254" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="390"/>
-      <c r="B14" s="391"/>
-      <c r="C14" s="313" t="s">
+      <c r="A14" s="413"/>
+      <c r="B14" s="414"/>
+      <c r="C14" s="356" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="395" t="s">
+      <c r="D14" s="417" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="395"/>
-      <c r="F14" s="395"/>
+      <c r="E14" s="417"/>
+      <c r="F14" s="417"/>
       <c r="G14" s="130">
         <f>ROUND(G$11*$T15,1)</f>
         <v>26003.9</v>
@@ -9842,14 +9842,14 @@
       </c>
     </row>
     <row r="15" spans="1:254" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="390"/>
-      <c r="B15" s="391"/>
-      <c r="C15" s="313"/>
-      <c r="D15" s="396" t="s">
+      <c r="A15" s="413"/>
+      <c r="B15" s="414"/>
+      <c r="C15" s="356"/>
+      <c r="D15" s="418" t="s">
         <v>21</v>
       </c>
-      <c r="E15" s="396"/>
-      <c r="F15" s="396"/>
+      <c r="E15" s="418"/>
+      <c r="F15" s="418"/>
       <c r="G15" s="31">
         <f t="shared" ref="G15:Q15" si="6">G14-G11</f>
         <v>-2901.3999999999978</v>
@@ -9908,16 +9908,16 @@
       </c>
     </row>
     <row r="16" spans="1:254" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="390"/>
-      <c r="B16" s="391"/>
-      <c r="C16" s="314" t="s">
+      <c r="A16" s="413"/>
+      <c r="B16" s="414"/>
+      <c r="C16" s="357" t="s">
         <v>29</v>
       </c>
-      <c r="D16" s="397" t="s">
+      <c r="D16" s="419" t="s">
         <v>20</v>
       </c>
-      <c r="E16" s="397"/>
-      <c r="F16" s="397"/>
+      <c r="E16" s="419"/>
+      <c r="F16" s="419"/>
       <c r="G16" s="86">
         <f>ROUND(G$12*$T17,1)</f>
         <v>26478</v>
@@ -9976,14 +9976,14 @@
       </c>
     </row>
     <row r="17" spans="1:21" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="390"/>
-      <c r="B17" s="391"/>
-      <c r="C17" s="314"/>
-      <c r="D17" s="398" t="s">
+      <c r="A17" s="413"/>
+      <c r="B17" s="414"/>
+      <c r="C17" s="357"/>
+      <c r="D17" s="420" t="s">
         <v>21</v>
       </c>
-      <c r="E17" s="398"/>
-      <c r="F17" s="398"/>
+      <c r="E17" s="420"/>
+      <c r="F17" s="420"/>
       <c r="G17" s="86">
         <f>G16-G12</f>
         <v>-2899</v>
@@ -10042,16 +10042,16 @@
       </c>
     </row>
     <row r="18" spans="1:21" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="390"/>
-      <c r="B18" s="391"/>
-      <c r="C18" s="315" t="s">
+      <c r="A18" s="413"/>
+      <c r="B18" s="414"/>
+      <c r="C18" s="345" t="s">
         <v>241</v>
       </c>
-      <c r="D18" s="399" t="s">
+      <c r="D18" s="421" t="s">
         <v>20</v>
       </c>
-      <c r="E18" s="399"/>
-      <c r="F18" s="399"/>
+      <c r="E18" s="421"/>
+      <c r="F18" s="421"/>
       <c r="G18" s="89">
         <f>ROUND(G$13*$T19,1)</f>
         <v>26917.200000000001</v>
@@ -10110,14 +10110,14 @@
       </c>
     </row>
     <row r="19" spans="1:21" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="392"/>
-      <c r="B19" s="393"/>
-      <c r="C19" s="315"/>
-      <c r="D19" s="414" t="s">
+      <c r="A19" s="415"/>
+      <c r="B19" s="416"/>
+      <c r="C19" s="345"/>
+      <c r="D19" s="404" t="s">
         <v>21</v>
       </c>
-      <c r="E19" s="414"/>
-      <c r="F19" s="414"/>
+      <c r="E19" s="404"/>
+      <c r="F19" s="404"/>
       <c r="G19" s="89">
         <f>G18-G13</f>
         <v>-2459.7999999999993</v>
@@ -10182,6 +10182,19 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="C1:Q1"/>
+    <mergeCell ref="D2:T2"/>
+    <mergeCell ref="G4:S4"/>
+    <mergeCell ref="T4:T5"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="A6:T6"/>
+    <mergeCell ref="D7:F7"/>
     <mergeCell ref="A11:B19"/>
     <mergeCell ref="C11:F11"/>
     <mergeCell ref="D14:F14"/>
@@ -10195,19 +10208,6 @@
     <mergeCell ref="C18:C19"/>
     <mergeCell ref="C12:F12"/>
     <mergeCell ref="C13:F13"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="C1:Q1"/>
-    <mergeCell ref="D2:T2"/>
-    <mergeCell ref="G4:S4"/>
-    <mergeCell ref="T4:T5"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="A6:T6"/>
-    <mergeCell ref="D7:F7"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="43" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -17297,26 +17297,26 @@
     <row r="1" spans="1:18" s="203" customFormat="1" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D1" s="204"/>
       <c r="E1" s="205"/>
-      <c r="M1" s="305" t="s">
+      <c r="M1" s="285" t="s">
         <v>124</v>
       </c>
-      <c r="N1" s="305"/>
-      <c r="O1" s="305"/>
-      <c r="P1" s="305"/>
-      <c r="Q1" s="305"/>
-      <c r="R1" s="305"/>
+      <c r="N1" s="285"/>
+      <c r="O1" s="285"/>
+      <c r="P1" s="285"/>
+      <c r="Q1" s="285"/>
+      <c r="R1" s="285"/>
     </row>
     <row r="2" spans="1:18" s="203" customFormat="1" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D2" s="204"/>
       <c r="E2" s="205"/>
-      <c r="M2" s="305" t="s">
+      <c r="M2" s="285" t="s">
         <v>125</v>
       </c>
-      <c r="N2" s="305"/>
-      <c r="O2" s="305"/>
-      <c r="P2" s="305"/>
-      <c r="Q2" s="305"/>
-      <c r="R2" s="305"/>
+      <c r="N2" s="285"/>
+      <c r="O2" s="285"/>
+      <c r="P2" s="285"/>
+      <c r="Q2" s="285"/>
+      <c r="R2" s="285"/>
     </row>
     <row r="3" spans="1:18" s="203" customFormat="1" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D3" s="204"/>
@@ -17333,26 +17333,26 @@
       <c r="E4" s="205"/>
       <c r="M4" s="206"/>
       <c r="N4" s="206"/>
-      <c r="O4" s="306" t="s">
+      <c r="O4" s="286" t="s">
         <v>126</v>
       </c>
-      <c r="P4" s="306"/>
-      <c r="Q4" s="306"/>
-      <c r="R4" s="306"/>
+      <c r="P4" s="286"/>
+      <c r="Q4" s="286"/>
+      <c r="R4" s="286"/>
     </row>
     <row r="5" spans="1:18" s="203" customFormat="1" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D5" s="204"/>
       <c r="E5" s="205"/>
-      <c r="M5" s="307" t="s">
+      <c r="M5" s="287" t="s">
         <v>127</v>
       </c>
-      <c r="N5" s="307"/>
-      <c r="O5" s="307" t="s">
+      <c r="N5" s="287"/>
+      <c r="O5" s="287" t="s">
         <v>128</v>
       </c>
-      <c r="P5" s="307"/>
-      <c r="Q5" s="307"/>
-      <c r="R5" s="307"/>
+      <c r="P5" s="287"/>
+      <c r="Q5" s="287"/>
+      <c r="R5" s="287"/>
     </row>
     <row r="6" spans="1:18" s="203" customFormat="1" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D6" s="204"/>
@@ -17371,72 +17371,72 @@
     <row r="8" spans="1:18" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:18" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:18" s="212" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="304" t="s">
+      <c r="B10" s="284" t="s">
         <v>132</v>
       </c>
-      <c r="C10" s="304"/>
-      <c r="D10" s="304"/>
-      <c r="E10" s="304"/>
-      <c r="F10" s="304"/>
-      <c r="G10" s="304"/>
-      <c r="H10" s="304"/>
-      <c r="I10" s="304"/>
-      <c r="J10" s="304"/>
-      <c r="K10" s="304"/>
-      <c r="L10" s="304"/>
-      <c r="M10" s="304"/>
-      <c r="N10" s="304"/>
-      <c r="O10" s="304"/>
-      <c r="P10" s="304"/>
-      <c r="Q10" s="304"/>
-      <c r="R10" s="304"/>
+      <c r="C10" s="284"/>
+      <c r="D10" s="284"/>
+      <c r="E10" s="284"/>
+      <c r="F10" s="284"/>
+      <c r="G10" s="284"/>
+      <c r="H10" s="284"/>
+      <c r="I10" s="284"/>
+      <c r="J10" s="284"/>
+      <c r="K10" s="284"/>
+      <c r="L10" s="284"/>
+      <c r="M10" s="284"/>
+      <c r="N10" s="284"/>
+      <c r="O10" s="284"/>
+      <c r="P10" s="284"/>
+      <c r="Q10" s="284"/>
+      <c r="R10" s="284"/>
     </row>
     <row r="11" spans="1:18" s="212" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D11" s="213"/>
       <c r="E11" s="214"/>
     </row>
     <row r="12" spans="1:18" s="212" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="293" t="s">
+      <c r="A12" s="289" t="s">
         <v>133</v>
       </c>
-      <c r="B12" s="293" t="s">
+      <c r="B12" s="289" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="293" t="s">
+      <c r="C12" s="289" t="s">
         <v>54</v>
       </c>
-      <c r="D12" s="302" t="s">
+      <c r="D12" s="297" t="s">
         <v>3</v>
       </c>
-      <c r="E12" s="293" t="s">
+      <c r="E12" s="289" t="s">
         <v>134</v>
       </c>
-      <c r="F12" s="293" t="s">
+      <c r="F12" s="289" t="s">
         <v>135</v>
       </c>
-      <c r="G12" s="293"/>
-      <c r="H12" s="293"/>
-      <c r="I12" s="293"/>
-      <c r="J12" s="298" t="s">
+      <c r="G12" s="289"/>
+      <c r="H12" s="289"/>
+      <c r="I12" s="289"/>
+      <c r="J12" s="288" t="s">
         <v>136</v>
       </c>
-      <c r="K12" s="298"/>
-      <c r="L12" s="298"/>
-      <c r="M12" s="298"/>
-      <c r="N12" s="298"/>
-      <c r="O12" s="298"/>
-      <c r="P12" s="298"/>
-      <c r="Q12" s="298"/>
-      <c r="R12" s="293" t="s">
+      <c r="K12" s="288"/>
+      <c r="L12" s="288"/>
+      <c r="M12" s="288"/>
+      <c r="N12" s="288"/>
+      <c r="O12" s="288"/>
+      <c r="P12" s="288"/>
+      <c r="Q12" s="288"/>
+      <c r="R12" s="289" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="13" spans="1:18" s="214" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="293"/>
-      <c r="B13" s="293"/>
-      <c r="C13" s="293"/>
-      <c r="D13" s="303"/>
-      <c r="E13" s="293"/>
+      <c r="A13" s="289"/>
+      <c r="B13" s="289"/>
+      <c r="C13" s="289"/>
+      <c r="D13" s="298"/>
+      <c r="E13" s="289"/>
       <c r="F13" s="215" t="s">
         <v>4</v>
       </c>
@@ -17473,7 +17473,7 @@
       <c r="Q13" s="215" t="s">
         <v>14</v>
       </c>
-      <c r="R13" s="293"/>
+      <c r="R13" s="289"/>
     </row>
     <row r="14" spans="1:18" s="214" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A14" s="215" t="s">
@@ -17530,13 +17530,13 @@
       </c>
     </row>
     <row r="15" spans="1:18" s="212" customFormat="1" ht="87" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="294">
+      <c r="A15" s="290">
         <v>1</v>
       </c>
-      <c r="B15" s="294" t="s">
+      <c r="B15" s="290" t="s">
         <v>139</v>
       </c>
-      <c r="C15" s="287" t="s">
+      <c r="C15" s="292" t="s">
         <v>140</v>
       </c>
       <c r="D15" s="216" t="s">
@@ -17587,9 +17587,9 @@
       </c>
     </row>
     <row r="16" spans="1:18" s="212" customFormat="1" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="295"/>
-      <c r="B16" s="295"/>
-      <c r="C16" s="288"/>
+      <c r="A16" s="291"/>
+      <c r="B16" s="291"/>
+      <c r="C16" s="293"/>
       <c r="D16" s="216" t="s">
         <v>108</v>
       </c>
@@ -17638,9 +17638,9 @@
       </c>
     </row>
     <row r="17" spans="1:18" s="212" customFormat="1" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="295"/>
-      <c r="B17" s="295"/>
-      <c r="C17" s="288"/>
+      <c r="A17" s="291"/>
+      <c r="B17" s="291"/>
+      <c r="C17" s="293"/>
       <c r="D17" s="216" t="s">
         <v>109</v>
       </c>
@@ -17689,9 +17689,9 @@
       </c>
     </row>
     <row r="18" spans="1:18" s="212" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="295"/>
-      <c r="B18" s="295"/>
-      <c r="C18" s="288"/>
+      <c r="A18" s="291"/>
+      <c r="B18" s="291"/>
+      <c r="C18" s="293"/>
       <c r="D18" s="221" t="s">
         <v>110</v>
       </c>
@@ -17740,13 +17740,13 @@
       </c>
     </row>
     <row r="19" spans="1:18" s="212" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="295"/>
-      <c r="B19" s="295"/>
-      <c r="C19" s="288"/>
+      <c r="A19" s="291"/>
+      <c r="B19" s="291"/>
+      <c r="C19" s="293"/>
       <c r="D19" s="221" t="s">
         <v>144</v>
       </c>
-      <c r="E19" s="299" t="s">
+      <c r="E19" s="294" t="s">
         <v>145</v>
       </c>
       <c r="F19" s="222" t="s">
@@ -17790,13 +17790,13 @@
       </c>
     </row>
     <row r="20" spans="1:18" s="212" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="295"/>
-      <c r="B20" s="295"/>
-      <c r="C20" s="288"/>
+      <c r="A20" s="291"/>
+      <c r="B20" s="291"/>
+      <c r="C20" s="293"/>
       <c r="D20" s="223" t="s">
         <v>146</v>
       </c>
-      <c r="E20" s="300"/>
+      <c r="E20" s="295"/>
       <c r="F20" s="222" t="s">
         <v>140</v>
       </c>
@@ -17838,13 +17838,13 @@
       </c>
     </row>
     <row r="21" spans="1:18" s="212" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="295"/>
-      <c r="B21" s="295"/>
-      <c r="C21" s="288"/>
+      <c r="A21" s="291"/>
+      <c r="B21" s="291"/>
+      <c r="C21" s="293"/>
       <c r="D21" s="224" t="s">
         <v>147</v>
       </c>
-      <c r="E21" s="300"/>
+      <c r="E21" s="295"/>
       <c r="F21" s="222" t="s">
         <v>140</v>
       </c>
@@ -17886,13 +17886,13 @@
       </c>
     </row>
     <row r="22" spans="1:18" s="212" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="295"/>
-      <c r="B22" s="295"/>
-      <c r="C22" s="288"/>
+      <c r="A22" s="291"/>
+      <c r="B22" s="291"/>
+      <c r="C22" s="293"/>
       <c r="D22" s="225" t="s">
         <v>148</v>
       </c>
-      <c r="E22" s="300"/>
+      <c r="E22" s="295"/>
       <c r="F22" s="220">
         <v>0</v>
       </c>
@@ -17935,13 +17935,13 @@
       </c>
     </row>
     <row r="23" spans="1:18" s="212" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="295"/>
-      <c r="B23" s="295"/>
-      <c r="C23" s="288"/>
+      <c r="A23" s="291"/>
+      <c r="B23" s="291"/>
+      <c r="C23" s="293"/>
       <c r="D23" s="225" t="s">
         <v>149</v>
       </c>
-      <c r="E23" s="300"/>
+      <c r="E23" s="295"/>
       <c r="F23" s="220">
         <v>0</v>
       </c>
@@ -17984,13 +17984,13 @@
       </c>
     </row>
     <row r="24" spans="1:18" s="212" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="295"/>
-      <c r="B24" s="295"/>
-      <c r="C24" s="288"/>
+      <c r="A24" s="291"/>
+      <c r="B24" s="291"/>
+      <c r="C24" s="293"/>
       <c r="D24" s="225" t="s">
         <v>150</v>
       </c>
-      <c r="E24" s="300"/>
+      <c r="E24" s="295"/>
       <c r="F24" s="220">
         <v>0</v>
       </c>
@@ -18033,13 +18033,13 @@
       </c>
     </row>
     <row r="25" spans="1:18" s="212" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="295"/>
-      <c r="B25" s="295"/>
-      <c r="C25" s="288"/>
+      <c r="A25" s="291"/>
+      <c r="B25" s="291"/>
+      <c r="C25" s="293"/>
       <c r="D25" s="225" t="s">
         <v>151</v>
       </c>
-      <c r="E25" s="300"/>
+      <c r="E25" s="295"/>
       <c r="F25" s="220">
         <v>0</v>
       </c>
@@ -18082,13 +18082,13 @@
       </c>
     </row>
     <row r="26" spans="1:18" s="212" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="295"/>
-      <c r="B26" s="295"/>
-      <c r="C26" s="288"/>
+      <c r="A26" s="291"/>
+      <c r="B26" s="291"/>
+      <c r="C26" s="293"/>
       <c r="D26" s="225" t="s">
         <v>152</v>
       </c>
-      <c r="E26" s="300"/>
+      <c r="E26" s="295"/>
       <c r="F26" s="220">
         <v>0</v>
       </c>
@@ -18131,13 +18131,13 @@
       </c>
     </row>
     <row r="27" spans="1:18" s="212" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="295"/>
-      <c r="B27" s="295"/>
-      <c r="C27" s="288"/>
+      <c r="A27" s="291"/>
+      <c r="B27" s="291"/>
+      <c r="C27" s="293"/>
       <c r="D27" s="228" t="s">
         <v>153</v>
       </c>
-      <c r="E27" s="300"/>
+      <c r="E27" s="295"/>
       <c r="F27" s="220">
         <v>0</v>
       </c>
@@ -18180,13 +18180,13 @@
       </c>
     </row>
     <row r="28" spans="1:18" s="212" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="295"/>
-      <c r="B28" s="295"/>
-      <c r="C28" s="288"/>
+      <c r="A28" s="291"/>
+      <c r="B28" s="291"/>
+      <c r="C28" s="293"/>
       <c r="D28" s="225" t="s">
         <v>118</v>
       </c>
-      <c r="E28" s="300"/>
+      <c r="E28" s="295"/>
       <c r="F28" s="220">
         <v>0</v>
       </c>
@@ -18229,13 +18229,13 @@
       </c>
     </row>
     <row r="29" spans="1:18" s="212" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="295"/>
-      <c r="B29" s="295"/>
-      <c r="C29" s="288"/>
+      <c r="A29" s="291"/>
+      <c r="B29" s="291"/>
+      <c r="C29" s="293"/>
       <c r="D29" s="230" t="s">
         <v>154</v>
       </c>
-      <c r="E29" s="300"/>
+      <c r="E29" s="295"/>
       <c r="F29" s="220">
         <v>0</v>
       </c>
@@ -18278,13 +18278,13 @@
       </c>
     </row>
     <row r="30" spans="1:18" s="212" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="295"/>
-      <c r="B30" s="295"/>
-      <c r="C30" s="288"/>
+      <c r="A30" s="291"/>
+      <c r="B30" s="291"/>
+      <c r="C30" s="293"/>
       <c r="D30" s="225" t="s">
         <v>155</v>
       </c>
-      <c r="E30" s="300"/>
+      <c r="E30" s="295"/>
       <c r="F30" s="220">
         <v>0</v>
       </c>
@@ -18327,13 +18327,13 @@
       </c>
     </row>
     <row r="31" spans="1:18" s="212" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="295"/>
-      <c r="B31" s="295"/>
-      <c r="C31" s="288"/>
+      <c r="A31" s="291"/>
+      <c r="B31" s="291"/>
+      <c r="C31" s="293"/>
       <c r="D31" s="225" t="s">
         <v>156</v>
       </c>
-      <c r="E31" s="300"/>
+      <c r="E31" s="295"/>
       <c r="F31" s="220">
         <v>0</v>
       </c>
@@ -18376,13 +18376,13 @@
       </c>
     </row>
     <row r="32" spans="1:18" s="212" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="295"/>
-      <c r="B32" s="295"/>
-      <c r="C32" s="288"/>
+      <c r="A32" s="291"/>
+      <c r="B32" s="291"/>
+      <c r="C32" s="293"/>
       <c r="D32" s="230" t="s">
         <v>157</v>
       </c>
-      <c r="E32" s="300"/>
+      <c r="E32" s="295"/>
       <c r="F32" s="220">
         <v>0</v>
       </c>
@@ -18425,13 +18425,13 @@
       </c>
     </row>
     <row r="33" spans="1:18" s="212" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="295"/>
-      <c r="B33" s="295"/>
-      <c r="C33" s="288"/>
+      <c r="A33" s="291"/>
+      <c r="B33" s="291"/>
+      <c r="C33" s="293"/>
       <c r="D33" s="230" t="s">
         <v>158</v>
       </c>
-      <c r="E33" s="300"/>
+      <c r="E33" s="295"/>
       <c r="F33" s="220">
         <v>0</v>
       </c>
@@ -18474,13 +18474,13 @@
       </c>
     </row>
     <row r="34" spans="1:18" s="212" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="295"/>
-      <c r="B34" s="295"/>
-      <c r="C34" s="288"/>
+      <c r="A34" s="291"/>
+      <c r="B34" s="291"/>
+      <c r="C34" s="293"/>
       <c r="D34" s="230" t="s">
         <v>159</v>
       </c>
-      <c r="E34" s="300"/>
+      <c r="E34" s="295"/>
       <c r="F34" s="220">
         <v>0</v>
       </c>
@@ -18523,13 +18523,13 @@
       </c>
     </row>
     <row r="35" spans="1:18" s="212" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="295"/>
-      <c r="B35" s="295"/>
-      <c r="C35" s="288"/>
+      <c r="A35" s="291"/>
+      <c r="B35" s="291"/>
+      <c r="C35" s="293"/>
       <c r="D35" s="230" t="s">
         <v>160</v>
       </c>
-      <c r="E35" s="300"/>
+      <c r="E35" s="295"/>
       <c r="F35" s="220">
         <v>0</v>
       </c>
@@ -18572,13 +18572,13 @@
       </c>
     </row>
     <row r="36" spans="1:18" s="212" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="295"/>
-      <c r="B36" s="295"/>
-      <c r="C36" s="288"/>
+      <c r="A36" s="291"/>
+      <c r="B36" s="291"/>
+      <c r="C36" s="293"/>
       <c r="D36" s="230" t="s">
         <v>161</v>
       </c>
-      <c r="E36" s="300"/>
+      <c r="E36" s="295"/>
       <c r="F36" s="220">
         <v>0</v>
       </c>
@@ -18621,13 +18621,13 @@
       </c>
     </row>
     <row r="37" spans="1:18" s="212" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="295"/>
-      <c r="B37" s="295"/>
-      <c r="C37" s="288"/>
+      <c r="A37" s="291"/>
+      <c r="B37" s="291"/>
+      <c r="C37" s="293"/>
       <c r="D37" s="228" t="s">
         <v>162</v>
       </c>
-      <c r="E37" s="300"/>
+      <c r="E37" s="295"/>
       <c r="F37" s="220">
         <v>0</v>
       </c>
@@ -18670,13 +18670,13 @@
       </c>
     </row>
     <row r="38" spans="1:18" s="212" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="295"/>
-      <c r="B38" s="295"/>
-      <c r="C38" s="288"/>
+      <c r="A38" s="291"/>
+      <c r="B38" s="291"/>
+      <c r="C38" s="293"/>
       <c r="D38" s="230" t="s">
         <v>163</v>
       </c>
-      <c r="E38" s="300"/>
+      <c r="E38" s="295"/>
       <c r="F38" s="220">
         <v>0</v>
       </c>
@@ -18719,13 +18719,13 @@
       </c>
     </row>
     <row r="39" spans="1:18" s="212" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A39" s="295"/>
-      <c r="B39" s="295"/>
-      <c r="C39" s="288"/>
+      <c r="A39" s="291"/>
+      <c r="B39" s="291"/>
+      <c r="C39" s="293"/>
       <c r="D39" s="232" t="s">
         <v>164</v>
       </c>
-      <c r="E39" s="300"/>
+      <c r="E39" s="295"/>
       <c r="F39" s="222" t="s">
         <v>140</v>
       </c>
@@ -18767,13 +18767,13 @@
       </c>
     </row>
     <row r="40" spans="1:18" s="212" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="295"/>
-      <c r="B40" s="295"/>
-      <c r="C40" s="288"/>
+      <c r="A40" s="291"/>
+      <c r="B40" s="291"/>
+      <c r="C40" s="293"/>
       <c r="D40" s="233" t="s">
         <v>165</v>
       </c>
-      <c r="E40" s="300"/>
+      <c r="E40" s="295"/>
       <c r="F40" s="220">
         <v>0</v>
       </c>
@@ -18816,13 +18816,13 @@
       </c>
     </row>
     <row r="41" spans="1:18" s="212" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="295"/>
-      <c r="B41" s="295"/>
-      <c r="C41" s="288"/>
+      <c r="A41" s="291"/>
+      <c r="B41" s="291"/>
+      <c r="C41" s="293"/>
       <c r="D41" s="235" t="s">
         <v>166</v>
       </c>
-      <c r="E41" s="300"/>
+      <c r="E41" s="295"/>
       <c r="F41" s="220">
         <v>0</v>
       </c>
@@ -18865,13 +18865,13 @@
       </c>
     </row>
     <row r="42" spans="1:18" s="212" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="295"/>
-      <c r="B42" s="295"/>
-      <c r="C42" s="288"/>
+      <c r="A42" s="291"/>
+      <c r="B42" s="291"/>
+      <c r="C42" s="293"/>
       <c r="D42" s="235" t="s">
         <v>167</v>
       </c>
-      <c r="E42" s="300"/>
+      <c r="E42" s="295"/>
       <c r="F42" s="220">
         <v>0</v>
       </c>
@@ -18914,13 +18914,13 @@
       </c>
     </row>
     <row r="43" spans="1:18" s="212" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="295"/>
-      <c r="B43" s="295"/>
-      <c r="C43" s="288"/>
+      <c r="A43" s="291"/>
+      <c r="B43" s="291"/>
+      <c r="C43" s="293"/>
       <c r="D43" s="233" t="s">
         <v>168</v>
       </c>
-      <c r="E43" s="300"/>
+      <c r="E43" s="295"/>
       <c r="F43" s="220">
         <v>0</v>
       </c>
@@ -18963,13 +18963,13 @@
       </c>
     </row>
     <row r="44" spans="1:18" s="212" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="295"/>
-      <c r="B44" s="295"/>
-      <c r="C44" s="288"/>
+      <c r="A44" s="291"/>
+      <c r="B44" s="291"/>
+      <c r="C44" s="293"/>
       <c r="D44" s="235" t="s">
         <v>169</v>
       </c>
-      <c r="E44" s="300"/>
+      <c r="E44" s="295"/>
       <c r="F44" s="220">
         <v>0</v>
       </c>
@@ -19012,13 +19012,13 @@
       </c>
     </row>
     <row r="45" spans="1:18" s="212" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="295"/>
-      <c r="B45" s="295"/>
-      <c r="C45" s="288"/>
+      <c r="A45" s="291"/>
+      <c r="B45" s="291"/>
+      <c r="C45" s="293"/>
       <c r="D45" s="235" t="s">
         <v>170</v>
       </c>
-      <c r="E45" s="300"/>
+      <c r="E45" s="295"/>
       <c r="F45" s="220">
         <v>0</v>
       </c>
@@ -19061,13 +19061,13 @@
       </c>
     </row>
     <row r="46" spans="1:18" s="212" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="295"/>
-      <c r="B46" s="295"/>
-      <c r="C46" s="288"/>
+      <c r="A46" s="291"/>
+      <c r="B46" s="291"/>
+      <c r="C46" s="293"/>
       <c r="D46" s="235" t="s">
         <v>171</v>
       </c>
-      <c r="E46" s="300"/>
+      <c r="E46" s="295"/>
       <c r="F46" s="220">
         <v>0</v>
       </c>
@@ -19110,13 +19110,13 @@
       </c>
     </row>
     <row r="47" spans="1:18" s="212" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="295"/>
-      <c r="B47" s="295"/>
-      <c r="C47" s="288"/>
+      <c r="A47" s="291"/>
+      <c r="B47" s="291"/>
+      <c r="C47" s="293"/>
       <c r="D47" s="235" t="s">
         <v>172</v>
       </c>
-      <c r="E47" s="300"/>
+      <c r="E47" s="295"/>
       <c r="F47" s="220">
         <v>0</v>
       </c>
@@ -19159,13 +19159,13 @@
       </c>
     </row>
     <row r="48" spans="1:18" s="212" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="295"/>
-      <c r="B48" s="295"/>
-      <c r="C48" s="288"/>
+      <c r="A48" s="291"/>
+      <c r="B48" s="291"/>
+      <c r="C48" s="293"/>
       <c r="D48" s="235" t="s">
         <v>173</v>
       </c>
-      <c r="E48" s="300"/>
+      <c r="E48" s="295"/>
       <c r="F48" s="220">
         <v>0</v>
       </c>
@@ -19208,13 +19208,13 @@
       </c>
     </row>
     <row r="49" spans="1:18" s="212" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="295"/>
-      <c r="B49" s="295"/>
-      <c r="C49" s="288"/>
+      <c r="A49" s="291"/>
+      <c r="B49" s="291"/>
+      <c r="C49" s="293"/>
       <c r="D49" s="235" t="s">
         <v>174</v>
       </c>
-      <c r="E49" s="300"/>
+      <c r="E49" s="295"/>
       <c r="F49" s="220">
         <v>0</v>
       </c>
@@ -19257,13 +19257,13 @@
       </c>
     </row>
     <row r="50" spans="1:18" s="212" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="295"/>
-      <c r="B50" s="295"/>
-      <c r="C50" s="288"/>
+      <c r="A50" s="291"/>
+      <c r="B50" s="291"/>
+      <c r="C50" s="293"/>
       <c r="D50" s="235" t="s">
         <v>175</v>
       </c>
-      <c r="E50" s="300"/>
+      <c r="E50" s="295"/>
       <c r="F50" s="220">
         <v>0</v>
       </c>
@@ -19306,13 +19306,13 @@
       </c>
     </row>
     <row r="51" spans="1:18" s="212" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="295"/>
-      <c r="B51" s="295"/>
-      <c r="C51" s="288"/>
+      <c r="A51" s="291"/>
+      <c r="B51" s="291"/>
+      <c r="C51" s="293"/>
       <c r="D51" s="233" t="s">
         <v>176</v>
       </c>
-      <c r="E51" s="300"/>
+      <c r="E51" s="295"/>
       <c r="F51" s="220">
         <v>0</v>
       </c>
@@ -19355,13 +19355,13 @@
       </c>
     </row>
     <row r="52" spans="1:18" s="212" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="295"/>
-      <c r="B52" s="295"/>
-      <c r="C52" s="288"/>
+      <c r="A52" s="291"/>
+      <c r="B52" s="291"/>
+      <c r="C52" s="293"/>
       <c r="D52" s="235" t="s">
         <v>177</v>
       </c>
-      <c r="E52" s="300"/>
+      <c r="E52" s="295"/>
       <c r="F52" s="220">
         <v>0</v>
       </c>
@@ -19404,13 +19404,13 @@
       </c>
     </row>
     <row r="53" spans="1:18" s="212" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="295"/>
-      <c r="B53" s="295"/>
-      <c r="C53" s="288"/>
+      <c r="A53" s="291"/>
+      <c r="B53" s="291"/>
+      <c r="C53" s="293"/>
       <c r="D53" s="235" t="s">
         <v>178</v>
       </c>
-      <c r="E53" s="300"/>
+      <c r="E53" s="295"/>
       <c r="F53" s="220">
         <v>0</v>
       </c>
@@ -19453,13 +19453,13 @@
       </c>
     </row>
     <row r="54" spans="1:18" s="212" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="295"/>
-      <c r="B54" s="295"/>
-      <c r="C54" s="288"/>
+      <c r="A54" s="291"/>
+      <c r="B54" s="291"/>
+      <c r="C54" s="293"/>
       <c r="D54" s="235" t="s">
         <v>117</v>
       </c>
-      <c r="E54" s="300"/>
+      <c r="E54" s="295"/>
       <c r="F54" s="220">
         <v>0</v>
       </c>
@@ -19502,13 +19502,13 @@
       </c>
     </row>
     <row r="55" spans="1:18" s="212" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="295"/>
-      <c r="B55" s="295"/>
-      <c r="C55" s="288"/>
+      <c r="A55" s="291"/>
+      <c r="B55" s="291"/>
+      <c r="C55" s="293"/>
       <c r="D55" s="235" t="s">
         <v>179</v>
       </c>
-      <c r="E55" s="300"/>
+      <c r="E55" s="295"/>
       <c r="F55" s="220">
         <v>0</v>
       </c>
@@ -19551,13 +19551,13 @@
       </c>
     </row>
     <row r="56" spans="1:18" s="212" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="295"/>
-      <c r="B56" s="295"/>
-      <c r="C56" s="288"/>
+      <c r="A56" s="291"/>
+      <c r="B56" s="291"/>
+      <c r="C56" s="293"/>
       <c r="D56" s="235" t="s">
         <v>180</v>
       </c>
-      <c r="E56" s="300"/>
+      <c r="E56" s="295"/>
       <c r="F56" s="220">
         <v>0</v>
       </c>
@@ -19600,13 +19600,13 @@
       </c>
     </row>
     <row r="57" spans="1:18" s="212" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="295"/>
-      <c r="B57" s="295"/>
-      <c r="C57" s="288"/>
+      <c r="A57" s="291"/>
+      <c r="B57" s="291"/>
+      <c r="C57" s="293"/>
       <c r="D57" s="236" t="s">
         <v>181</v>
       </c>
-      <c r="E57" s="300"/>
+      <c r="E57" s="295"/>
       <c r="F57" s="220">
         <v>0</v>
       </c>
@@ -19649,13 +19649,13 @@
       </c>
     </row>
     <row r="58" spans="1:18" s="212" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="295"/>
-      <c r="B58" s="295"/>
-      <c r="C58" s="288"/>
+      <c r="A58" s="291"/>
+      <c r="B58" s="291"/>
+      <c r="C58" s="293"/>
       <c r="D58" s="233" t="s">
         <v>116</v>
       </c>
-      <c r="E58" s="300"/>
+      <c r="E58" s="295"/>
       <c r="F58" s="220">
         <v>0</v>
       </c>
@@ -19698,13 +19698,13 @@
       </c>
     </row>
     <row r="59" spans="1:18" s="212" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="295"/>
-      <c r="B59" s="295"/>
-      <c r="C59" s="288"/>
+      <c r="A59" s="291"/>
+      <c r="B59" s="291"/>
+      <c r="C59" s="293"/>
       <c r="D59" s="233" t="s">
         <v>182</v>
       </c>
-      <c r="E59" s="300"/>
+      <c r="E59" s="295"/>
       <c r="F59" s="220">
         <v>0</v>
       </c>
@@ -19747,13 +19747,13 @@
       </c>
     </row>
     <row r="60" spans="1:18" s="212" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="295"/>
-      <c r="B60" s="295"/>
-      <c r="C60" s="288"/>
+      <c r="A60" s="291"/>
+      <c r="B60" s="291"/>
+      <c r="C60" s="293"/>
       <c r="D60" s="233" t="s">
         <v>183</v>
       </c>
-      <c r="E60" s="301"/>
+      <c r="E60" s="296"/>
       <c r="F60" s="220">
         <v>0</v>
       </c>
@@ -19795,14 +19795,14 @@
         <v>15200530.666666651</v>
       </c>
     </row>
-    <row r="61" spans="1:18" s="212" customFormat="1" ht="63" x14ac:dyDescent="0.25">
-      <c r="A61" s="295"/>
-      <c r="B61" s="295"/>
-      <c r="C61" s="288"/>
+    <row r="61" spans="1:18" s="212" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A61" s="291"/>
+      <c r="B61" s="291"/>
+      <c r="C61" s="293"/>
       <c r="D61" s="237" t="s">
         <v>107</v>
       </c>
-      <c r="E61" s="299" t="s">
+      <c r="E61" s="294" t="s">
         <v>145</v>
       </c>
       <c r="F61" s="222" t="s">
@@ -19852,7 +19852,7 @@
       <c r="D62" s="240" t="s">
         <v>146</v>
       </c>
-      <c r="E62" s="300"/>
+      <c r="E62" s="295"/>
       <c r="F62" s="222" t="s">
         <v>140</v>
       </c>
@@ -19900,7 +19900,7 @@
       <c r="D63" s="241" t="s">
         <v>147</v>
       </c>
-      <c r="E63" s="300"/>
+      <c r="E63" s="295"/>
       <c r="F63" s="222" t="s">
         <v>140</v>
       </c>
@@ -19948,7 +19948,7 @@
       <c r="D64" s="235" t="s">
         <v>148</v>
       </c>
-      <c r="E64" s="300"/>
+      <c r="E64" s="295"/>
       <c r="F64" s="220">
         <v>0</v>
       </c>
@@ -19997,7 +19997,7 @@
       <c r="D65" s="235" t="s">
         <v>149</v>
       </c>
-      <c r="E65" s="300"/>
+      <c r="E65" s="295"/>
       <c r="F65" s="220">
         <v>0</v>
       </c>
@@ -20046,7 +20046,7 @@
       <c r="D66" s="235" t="s">
         <v>150</v>
       </c>
-      <c r="E66" s="300"/>
+      <c r="E66" s="295"/>
       <c r="F66" s="220">
         <v>0</v>
       </c>
@@ -20095,7 +20095,7 @@
       <c r="D67" s="235" t="s">
         <v>151</v>
       </c>
-      <c r="E67" s="300"/>
+      <c r="E67" s="295"/>
       <c r="F67" s="220">
         <v>0</v>
       </c>
@@ -20144,7 +20144,7 @@
       <c r="D68" s="235" t="s">
         <v>184</v>
       </c>
-      <c r="E68" s="300"/>
+      <c r="E68" s="295"/>
       <c r="F68" s="220">
         <v>0</v>
       </c>
@@ -20193,7 +20193,7 @@
       <c r="D69" s="235" t="s">
         <v>153</v>
       </c>
-      <c r="E69" s="300"/>
+      <c r="E69" s="295"/>
       <c r="F69" s="220">
         <v>0</v>
       </c>
@@ -20242,7 +20242,7 @@
       <c r="D70" s="235" t="s">
         <v>118</v>
       </c>
-      <c r="E70" s="300"/>
+      <c r="E70" s="295"/>
       <c r="F70" s="220">
         <v>0</v>
       </c>
@@ -20291,7 +20291,7 @@
       <c r="D71" s="233" t="s">
         <v>154</v>
       </c>
-      <c r="E71" s="300"/>
+      <c r="E71" s="295"/>
       <c r="F71" s="220">
         <v>0</v>
       </c>
@@ -20340,7 +20340,7 @@
       <c r="D72" s="235" t="s">
         <v>155</v>
       </c>
-      <c r="E72" s="300"/>
+      <c r="E72" s="295"/>
       <c r="F72" s="220">
         <v>0</v>
       </c>
@@ -20389,7 +20389,7 @@
       <c r="D73" s="235" t="s">
         <v>156</v>
       </c>
-      <c r="E73" s="300"/>
+      <c r="E73" s="295"/>
       <c r="F73" s="220">
         <v>0</v>
       </c>
@@ -20438,7 +20438,7 @@
       <c r="D74" s="233" t="s">
         <v>185</v>
       </c>
-      <c r="E74" s="300"/>
+      <c r="E74" s="295"/>
       <c r="F74" s="220">
         <v>0</v>
       </c>
@@ -20487,7 +20487,7 @@
       <c r="D75" s="233" t="s">
         <v>157</v>
       </c>
-      <c r="E75" s="300"/>
+      <c r="E75" s="295"/>
       <c r="F75" s="220">
         <v>0</v>
       </c>
@@ -20536,7 +20536,7 @@
       <c r="D76" s="233" t="s">
         <v>158</v>
       </c>
-      <c r="E76" s="300"/>
+      <c r="E76" s="295"/>
       <c r="F76" s="220">
         <v>0</v>
       </c>
@@ -20585,7 +20585,7 @@
       <c r="D77" s="233" t="s">
         <v>159</v>
       </c>
-      <c r="E77" s="300"/>
+      <c r="E77" s="295"/>
       <c r="F77" s="220">
         <v>0</v>
       </c>
@@ -20634,7 +20634,7 @@
       <c r="D78" s="233" t="s">
         <v>160</v>
       </c>
-      <c r="E78" s="300"/>
+      <c r="E78" s="295"/>
       <c r="F78" s="220">
         <v>0</v>
       </c>
@@ -20683,7 +20683,7 @@
       <c r="D79" s="233" t="s">
         <v>161</v>
       </c>
-      <c r="E79" s="300"/>
+      <c r="E79" s="295"/>
       <c r="F79" s="220">
         <v>0</v>
       </c>
@@ -20732,7 +20732,7 @@
       <c r="D80" s="242" t="s">
         <v>162</v>
       </c>
-      <c r="E80" s="300"/>
+      <c r="E80" s="295"/>
       <c r="F80" s="220">
         <v>0</v>
       </c>
@@ -20781,7 +20781,7 @@
       <c r="D81" s="233" t="s">
         <v>163</v>
       </c>
-      <c r="E81" s="300"/>
+      <c r="E81" s="295"/>
       <c r="F81" s="220">
         <v>0</v>
       </c>
@@ -20830,7 +20830,7 @@
       <c r="D82" s="232" t="s">
         <v>164</v>
       </c>
-      <c r="E82" s="300"/>
+      <c r="E82" s="295"/>
       <c r="F82" s="222" t="s">
         <v>140</v>
       </c>
@@ -20878,7 +20878,7 @@
       <c r="D83" s="235" t="s">
         <v>186</v>
       </c>
-      <c r="E83" s="300"/>
+      <c r="E83" s="295"/>
       <c r="F83" s="220">
         <v>0</v>
       </c>
@@ -20927,7 +20927,7 @@
       <c r="D84" s="235" t="s">
         <v>166</v>
       </c>
-      <c r="E84" s="300"/>
+      <c r="E84" s="295"/>
       <c r="F84" s="220">
         <v>0</v>
       </c>
@@ -20976,7 +20976,7 @@
       <c r="D85" s="235" t="s">
         <v>167</v>
       </c>
-      <c r="E85" s="300"/>
+      <c r="E85" s="295"/>
       <c r="F85" s="220">
         <v>0</v>
       </c>
@@ -21025,7 +21025,7 @@
       <c r="D86" s="233" t="s">
         <v>168</v>
       </c>
-      <c r="E86" s="300"/>
+      <c r="E86" s="295"/>
       <c r="F86" s="220">
         <v>0</v>
       </c>
@@ -21074,7 +21074,7 @@
       <c r="D87" s="235" t="s">
         <v>169</v>
       </c>
-      <c r="E87" s="300"/>
+      <c r="E87" s="295"/>
       <c r="F87" s="220">
         <v>0</v>
       </c>
@@ -21123,7 +21123,7 @@
       <c r="D88" s="235" t="s">
         <v>170</v>
       </c>
-      <c r="E88" s="300"/>
+      <c r="E88" s="295"/>
       <c r="F88" s="220">
         <v>0</v>
       </c>
@@ -21172,7 +21172,7 @@
       <c r="D89" s="235" t="s">
         <v>187</v>
       </c>
-      <c r="E89" s="300"/>
+      <c r="E89" s="295"/>
       <c r="F89" s="220">
         <v>0</v>
       </c>
@@ -21221,7 +21221,7 @@
       <c r="D90" s="235" t="s">
         <v>172</v>
       </c>
-      <c r="E90" s="300"/>
+      <c r="E90" s="295"/>
       <c r="F90" s="220">
         <v>0</v>
       </c>
@@ -21270,7 +21270,7 @@
       <c r="D91" s="243" t="s">
         <v>173</v>
       </c>
-      <c r="E91" s="300"/>
+      <c r="E91" s="295"/>
       <c r="F91" s="220">
         <v>0</v>
       </c>
@@ -21319,7 +21319,7 @@
       <c r="D92" s="243" t="s">
         <v>174</v>
       </c>
-      <c r="E92" s="300"/>
+      <c r="E92" s="295"/>
       <c r="F92" s="220">
         <v>0</v>
       </c>
@@ -21368,7 +21368,7 @@
       <c r="D93" s="243" t="s">
         <v>175</v>
       </c>
-      <c r="E93" s="300"/>
+      <c r="E93" s="295"/>
       <c r="F93" s="220">
         <v>0</v>
       </c>
@@ -21417,7 +21417,7 @@
       <c r="D94" s="242" t="s">
         <v>176</v>
       </c>
-      <c r="E94" s="300"/>
+      <c r="E94" s="295"/>
       <c r="F94" s="220">
         <v>0</v>
       </c>
@@ -21466,7 +21466,7 @@
       <c r="D95" s="235" t="s">
         <v>177</v>
       </c>
-      <c r="E95" s="300"/>
+      <c r="E95" s="295"/>
       <c r="F95" s="220">
         <v>0</v>
       </c>
@@ -21515,7 +21515,7 @@
       <c r="D96" s="235" t="s">
         <v>178</v>
       </c>
-      <c r="E96" s="300"/>
+      <c r="E96" s="295"/>
       <c r="F96" s="220">
         <v>0</v>
       </c>
@@ -21564,7 +21564,7 @@
       <c r="D97" s="235" t="s">
         <v>117</v>
       </c>
-      <c r="E97" s="300"/>
+      <c r="E97" s="295"/>
       <c r="F97" s="220">
         <v>0</v>
       </c>
@@ -21613,7 +21613,7 @@
       <c r="D98" s="235" t="s">
         <v>179</v>
       </c>
-      <c r="E98" s="300"/>
+      <c r="E98" s="295"/>
       <c r="F98" s="220">
         <v>0</v>
       </c>
@@ -21662,7 +21662,7 @@
       <c r="D99" s="235" t="s">
         <v>180</v>
       </c>
-      <c r="E99" s="300"/>
+      <c r="E99" s="295"/>
       <c r="F99" s="220">
         <v>0</v>
       </c>
@@ -21711,7 +21711,7 @@
       <c r="D100" s="236" t="s">
         <v>181</v>
       </c>
-      <c r="E100" s="300"/>
+      <c r="E100" s="295"/>
       <c r="F100" s="220">
         <v>0</v>
       </c>
@@ -21760,7 +21760,7 @@
       <c r="D101" s="233" t="s">
         <v>116</v>
       </c>
-      <c r="E101" s="300"/>
+      <c r="E101" s="295"/>
       <c r="F101" s="220">
         <v>0</v>
       </c>
@@ -21809,7 +21809,7 @@
       <c r="D102" s="233" t="s">
         <v>182</v>
       </c>
-      <c r="E102" s="300"/>
+      <c r="E102" s="295"/>
       <c r="F102" s="220">
         <v>0</v>
       </c>
@@ -21858,7 +21858,7 @@
       <c r="D103" s="233" t="s">
         <v>183</v>
       </c>
-      <c r="E103" s="301"/>
+      <c r="E103" s="296"/>
       <c r="F103" s="220">
         <v>0</v>
       </c>
@@ -21901,13 +21901,13 @@
       </c>
     </row>
     <row r="104" spans="1:18" s="212" customFormat="1" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="294">
+      <c r="A104" s="290">
         <v>2</v>
       </c>
-      <c r="B104" s="296" t="s">
+      <c r="B104" s="299" t="s">
         <v>188</v>
       </c>
-      <c r="C104" s="294" t="s">
+      <c r="C104" s="290" t="s">
         <v>140</v>
       </c>
       <c r="D104" s="216" t="s">
@@ -21958,9 +21958,9 @@
       </c>
     </row>
     <row r="105" spans="1:18" s="212" customFormat="1" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="295"/>
-      <c r="B105" s="297"/>
-      <c r="C105" s="295"/>
+      <c r="A105" s="291"/>
+      <c r="B105" s="300"/>
+      <c r="C105" s="291"/>
       <c r="D105" s="216" t="s">
         <v>108</v>
       </c>
@@ -22009,9 +22009,9 @@
       </c>
     </row>
     <row r="106" spans="1:18" s="212" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="295"/>
-      <c r="B106" s="297"/>
-      <c r="C106" s="295"/>
+      <c r="A106" s="291"/>
+      <c r="B106" s="300"/>
+      <c r="C106" s="291"/>
       <c r="D106" s="216" t="s">
         <v>109</v>
       </c>
@@ -22060,9 +22060,9 @@
       </c>
     </row>
     <row r="107" spans="1:18" s="212" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="295"/>
-      <c r="B107" s="297"/>
-      <c r="C107" s="295"/>
+      <c r="A107" s="291"/>
+      <c r="B107" s="300"/>
+      <c r="C107" s="291"/>
       <c r="D107" s="221" t="s">
         <v>144</v>
       </c>
@@ -22110,10 +22110,10 @@
         <v>40371750.350000001</v>
       </c>
     </row>
-    <row r="108" spans="1:18" s="212" customFormat="1" ht="63" x14ac:dyDescent="0.25">
-      <c r="A108" s="295"/>
-      <c r="B108" s="297"/>
-      <c r="C108" s="295"/>
+    <row r="108" spans="1:18" s="212" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A108" s="291"/>
+      <c r="B108" s="300"/>
+      <c r="C108" s="291"/>
       <c r="D108" s="221" t="s">
         <v>107</v>
       </c>
@@ -22162,19 +22162,19 @@
       </c>
     </row>
     <row r="109" spans="1:18" s="247" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="287">
+      <c r="A109" s="292">
         <v>3</v>
       </c>
-      <c r="B109" s="284" t="s">
+      <c r="B109" s="302" t="s">
         <v>189</v>
       </c>
-      <c r="C109" s="290" t="s">
+      <c r="C109" s="305" t="s">
         <v>190</v>
       </c>
       <c r="D109" s="245" t="s">
         <v>191</v>
       </c>
-      <c r="E109" s="287" t="s">
+      <c r="E109" s="292" t="s">
         <v>192</v>
       </c>
       <c r="F109" s="246">
@@ -22231,13 +22231,13 @@
       </c>
     </row>
     <row r="110" spans="1:18" s="212" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="288"/>
-      <c r="B110" s="285"/>
-      <c r="C110" s="291"/>
+      <c r="A110" s="293"/>
+      <c r="B110" s="303"/>
+      <c r="C110" s="306"/>
       <c r="D110" s="216" t="s">
         <v>146</v>
       </c>
-      <c r="E110" s="288"/>
+      <c r="E110" s="293"/>
       <c r="F110" s="222" t="s">
         <v>140</v>
       </c>
@@ -22279,13 +22279,13 @@
       </c>
     </row>
     <row r="111" spans="1:18" s="212" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="288"/>
-      <c r="B111" s="285"/>
-      <c r="C111" s="291"/>
+      <c r="A111" s="293"/>
+      <c r="B111" s="303"/>
+      <c r="C111" s="306"/>
       <c r="D111" s="216" t="s">
         <v>193</v>
       </c>
-      <c r="E111" s="288"/>
+      <c r="E111" s="293"/>
       <c r="F111" s="220">
         <v>0</v>
       </c>
@@ -22328,13 +22328,13 @@
       </c>
     </row>
     <row r="112" spans="1:18" s="212" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="288"/>
-      <c r="B112" s="285"/>
-      <c r="C112" s="291"/>
+      <c r="A112" s="293"/>
+      <c r="B112" s="303"/>
+      <c r="C112" s="306"/>
       <c r="D112" s="216" t="s">
         <v>194</v>
       </c>
-      <c r="E112" s="288"/>
+      <c r="E112" s="293"/>
       <c r="F112" s="220">
         <v>0</v>
       </c>
@@ -22377,13 +22377,13 @@
       </c>
     </row>
     <row r="113" spans="1:18" s="212" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="288"/>
-      <c r="B113" s="285"/>
-      <c r="C113" s="291"/>
+      <c r="A113" s="293"/>
+      <c r="B113" s="303"/>
+      <c r="C113" s="306"/>
       <c r="D113" s="216" t="s">
         <v>195</v>
       </c>
-      <c r="E113" s="288"/>
+      <c r="E113" s="293"/>
       <c r="F113" s="220">
         <v>0</v>
       </c>
@@ -22426,13 +22426,13 @@
       </c>
     </row>
     <row r="114" spans="1:18" s="212" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="288"/>
-      <c r="B114" s="285"/>
-      <c r="C114" s="291"/>
+      <c r="A114" s="293"/>
+      <c r="B114" s="303"/>
+      <c r="C114" s="306"/>
       <c r="D114" s="216" t="s">
         <v>196</v>
       </c>
-      <c r="E114" s="288"/>
+      <c r="E114" s="293"/>
       <c r="F114" s="220">
         <v>0</v>
       </c>
@@ -22475,13 +22475,13 @@
       </c>
     </row>
     <row r="115" spans="1:18" s="212" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="288"/>
-      <c r="B115" s="285"/>
-      <c r="C115" s="292"/>
+      <c r="A115" s="293"/>
+      <c r="B115" s="303"/>
+      <c r="C115" s="307"/>
       <c r="D115" s="216" t="s">
         <v>189</v>
       </c>
-      <c r="E115" s="289"/>
+      <c r="E115" s="301"/>
       <c r="F115" s="220">
         <v>10773.104893401014</v>
       </c>
@@ -22524,15 +22524,15 @@
       </c>
     </row>
     <row r="116" spans="1:18" s="212" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="288"/>
-      <c r="B116" s="285"/>
-      <c r="C116" s="290" t="s">
+      <c r="A116" s="293"/>
+      <c r="B116" s="303"/>
+      <c r="C116" s="305" t="s">
         <v>197</v>
       </c>
       <c r="D116" s="245" t="s">
         <v>191</v>
       </c>
-      <c r="E116" s="287" t="s">
+      <c r="E116" s="292" t="s">
         <v>192</v>
       </c>
       <c r="F116" s="246">
@@ -22589,13 +22589,13 @@
       </c>
     </row>
     <row r="117" spans="1:18" s="212" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A117" s="288"/>
-      <c r="B117" s="285"/>
-      <c r="C117" s="291"/>
+      <c r="A117" s="293"/>
+      <c r="B117" s="303"/>
+      <c r="C117" s="306"/>
       <c r="D117" s="216" t="s">
         <v>146</v>
       </c>
-      <c r="E117" s="288"/>
+      <c r="E117" s="293"/>
       <c r="F117" s="222" t="s">
         <v>140</v>
       </c>
@@ -22637,13 +22637,13 @@
       </c>
     </row>
     <row r="118" spans="1:18" s="212" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="288"/>
-      <c r="B118" s="285"/>
-      <c r="C118" s="291"/>
+      <c r="A118" s="293"/>
+      <c r="B118" s="303"/>
+      <c r="C118" s="306"/>
       <c r="D118" s="216" t="s">
         <v>198</v>
       </c>
-      <c r="E118" s="288"/>
+      <c r="E118" s="293"/>
       <c r="F118" s="220">
         <v>0</v>
       </c>
@@ -22687,13 +22687,13 @@
       </c>
     </row>
     <row r="119" spans="1:18" s="212" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="288"/>
-      <c r="B119" s="285"/>
-      <c r="C119" s="291"/>
+      <c r="A119" s="293"/>
+      <c r="B119" s="303"/>
+      <c r="C119" s="306"/>
       <c r="D119" s="216" t="s">
         <v>194</v>
       </c>
-      <c r="E119" s="288"/>
+      <c r="E119" s="293"/>
       <c r="F119" s="220">
         <v>0</v>
       </c>
@@ -22737,13 +22737,13 @@
       </c>
     </row>
     <row r="120" spans="1:18" s="212" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="288"/>
-      <c r="B120" s="285"/>
-      <c r="C120" s="291"/>
+      <c r="A120" s="293"/>
+      <c r="B120" s="303"/>
+      <c r="C120" s="306"/>
       <c r="D120" s="216" t="s">
         <v>195</v>
       </c>
-      <c r="E120" s="288"/>
+      <c r="E120" s="293"/>
       <c r="F120" s="220">
         <v>0</v>
       </c>
@@ -22787,13 +22787,13 @@
       </c>
     </row>
     <row r="121" spans="1:18" s="212" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="288"/>
-      <c r="B121" s="285"/>
-      <c r="C121" s="291"/>
+      <c r="A121" s="293"/>
+      <c r="B121" s="303"/>
+      <c r="C121" s="306"/>
       <c r="D121" s="216" t="s">
         <v>196</v>
       </c>
-      <c r="E121" s="288"/>
+      <c r="E121" s="293"/>
       <c r="F121" s="220">
         <v>0</v>
       </c>
@@ -22837,13 +22837,13 @@
       </c>
     </row>
     <row r="122" spans="1:18" s="212" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="289"/>
-      <c r="B122" s="286"/>
-      <c r="C122" s="292"/>
+      <c r="A122" s="301"/>
+      <c r="B122" s="304"/>
+      <c r="C122" s="307"/>
       <c r="D122" s="216" t="s">
         <v>189</v>
       </c>
-      <c r="E122" s="289"/>
+      <c r="E122" s="301"/>
       <c r="F122" s="220">
         <v>21546.209786802028</v>
       </c>
@@ -22886,19 +22886,19 @@
       </c>
     </row>
     <row r="123" spans="1:18" s="247" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="287">
+      <c r="A123" s="292">
         <v>4</v>
       </c>
-      <c r="B123" s="287" t="s">
+      <c r="B123" s="292" t="s">
         <v>199</v>
       </c>
-      <c r="C123" s="284" t="s">
+      <c r="C123" s="302" t="s">
         <v>111</v>
       </c>
       <c r="D123" s="245" t="s">
         <v>191</v>
       </c>
-      <c r="E123" s="293" t="s">
+      <c r="E123" s="289" t="s">
         <v>192</v>
       </c>
       <c r="F123" s="246">
@@ -22955,13 +22955,13 @@
       </c>
     </row>
     <row r="124" spans="1:18" s="212" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A124" s="288"/>
-      <c r="B124" s="288"/>
-      <c r="C124" s="285"/>
+      <c r="A124" s="293"/>
+      <c r="B124" s="293"/>
+      <c r="C124" s="303"/>
       <c r="D124" s="216" t="s">
         <v>146</v>
       </c>
-      <c r="E124" s="293"/>
+      <c r="E124" s="289"/>
       <c r="F124" s="222" t="s">
         <v>140</v>
       </c>
@@ -23003,13 +23003,13 @@
       </c>
     </row>
     <row r="125" spans="1:18" s="212" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="288"/>
-      <c r="B125" s="288"/>
-      <c r="C125" s="285"/>
+      <c r="A125" s="293"/>
+      <c r="B125" s="293"/>
+      <c r="C125" s="303"/>
       <c r="D125" s="216" t="s">
         <v>200</v>
       </c>
-      <c r="E125" s="293"/>
+      <c r="E125" s="289"/>
       <c r="F125" s="220">
         <v>0</v>
       </c>
@@ -23052,13 +23052,13 @@
       </c>
     </row>
     <row r="126" spans="1:18" s="212" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="288"/>
-      <c r="B126" s="288"/>
-      <c r="C126" s="285"/>
+      <c r="A126" s="293"/>
+      <c r="B126" s="293"/>
+      <c r="C126" s="303"/>
       <c r="D126" s="216" t="s">
         <v>201</v>
       </c>
-      <c r="E126" s="293"/>
+      <c r="E126" s="289"/>
       <c r="F126" s="220">
         <v>0</v>
       </c>
@@ -23101,13 +23101,13 @@
       </c>
     </row>
     <row r="127" spans="1:18" s="212" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="288"/>
-      <c r="B127" s="288"/>
-      <c r="C127" s="285"/>
+      <c r="A127" s="293"/>
+      <c r="B127" s="293"/>
+      <c r="C127" s="303"/>
       <c r="D127" s="216" t="s">
         <v>202</v>
       </c>
-      <c r="E127" s="293"/>
+      <c r="E127" s="289"/>
       <c r="F127" s="220">
         <v>0</v>
       </c>
@@ -23150,13 +23150,13 @@
       </c>
     </row>
     <row r="128" spans="1:18" s="212" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="288"/>
-      <c r="B128" s="288"/>
-      <c r="C128" s="285"/>
+      <c r="A128" s="293"/>
+      <c r="B128" s="293"/>
+      <c r="C128" s="303"/>
       <c r="D128" s="216" t="s">
         <v>203</v>
       </c>
-      <c r="E128" s="293"/>
+      <c r="E128" s="289"/>
       <c r="F128" s="220">
         <v>0</v>
       </c>
@@ -23199,13 +23199,13 @@
       </c>
     </row>
     <row r="129" spans="1:18" s="212" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="288"/>
-      <c r="B129" s="288"/>
-      <c r="C129" s="285"/>
+      <c r="A129" s="293"/>
+      <c r="B129" s="293"/>
+      <c r="C129" s="303"/>
       <c r="D129" s="216" t="s">
         <v>204</v>
       </c>
-      <c r="E129" s="293"/>
+      <c r="E129" s="289"/>
       <c r="F129" s="220">
         <v>0</v>
       </c>
@@ -23248,13 +23248,13 @@
       </c>
     </row>
     <row r="130" spans="1:18" s="212" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="288"/>
-      <c r="B130" s="288"/>
-      <c r="C130" s="285"/>
+      <c r="A130" s="293"/>
+      <c r="B130" s="293"/>
+      <c r="C130" s="303"/>
       <c r="D130" s="216" t="s">
         <v>205</v>
       </c>
-      <c r="E130" s="293"/>
+      <c r="E130" s="289"/>
       <c r="F130" s="220">
         <v>0</v>
       </c>
@@ -23297,13 +23297,13 @@
       </c>
     </row>
     <row r="131" spans="1:18" s="212" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="288"/>
-      <c r="B131" s="288"/>
-      <c r="C131" s="285"/>
+      <c r="A131" s="293"/>
+      <c r="B131" s="293"/>
+      <c r="C131" s="303"/>
       <c r="D131" s="216" t="s">
         <v>206</v>
       </c>
-      <c r="E131" s="293"/>
+      <c r="E131" s="289"/>
       <c r="F131" s="220">
         <v>0</v>
       </c>
@@ -23346,13 +23346,13 @@
       </c>
     </row>
     <row r="132" spans="1:18" s="212" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="288"/>
-      <c r="B132" s="288"/>
-      <c r="C132" s="285"/>
+      <c r="A132" s="293"/>
+      <c r="B132" s="293"/>
+      <c r="C132" s="303"/>
       <c r="D132" s="250" t="s">
         <v>207</v>
       </c>
-      <c r="E132" s="293"/>
+      <c r="E132" s="289"/>
       <c r="F132" s="220">
         <v>0</v>
       </c>
@@ -23395,13 +23395,13 @@
       </c>
     </row>
     <row r="133" spans="1:18" s="212" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="288"/>
-      <c r="B133" s="288"/>
-      <c r="C133" s="285"/>
+      <c r="A133" s="293"/>
+      <c r="B133" s="293"/>
+      <c r="C133" s="303"/>
       <c r="D133" s="250" t="s">
         <v>208</v>
       </c>
-      <c r="E133" s="293"/>
+      <c r="E133" s="289"/>
       <c r="F133" s="220">
         <v>0</v>
       </c>
@@ -23444,13 +23444,13 @@
       </c>
     </row>
     <row r="134" spans="1:18" s="212" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="288"/>
-      <c r="B134" s="288"/>
-      <c r="C134" s="285"/>
+      <c r="A134" s="293"/>
+      <c r="B134" s="293"/>
+      <c r="C134" s="303"/>
       <c r="D134" s="250" t="s">
         <v>209</v>
       </c>
-      <c r="E134" s="293"/>
+      <c r="E134" s="289"/>
       <c r="F134" s="220">
         <v>0</v>
       </c>
@@ -23493,9 +23493,9 @@
       </c>
     </row>
     <row r="135" spans="1:18" s="212" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="288"/>
-      <c r="B135" s="288"/>
-      <c r="C135" s="286"/>
+      <c r="A135" s="293"/>
+      <c r="B135" s="293"/>
+      <c r="C135" s="304"/>
       <c r="D135" s="251" t="s">
         <v>210</v>
       </c>
@@ -23542,15 +23542,15 @@
       </c>
     </row>
     <row r="136" spans="1:18" s="247" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="288"/>
-      <c r="B136" s="288"/>
-      <c r="C136" s="284" t="s">
+      <c r="A136" s="293"/>
+      <c r="B136" s="293"/>
+      <c r="C136" s="302" t="s">
         <v>112</v>
       </c>
       <c r="D136" s="245" t="s">
         <v>191</v>
       </c>
-      <c r="E136" s="293" t="s">
+      <c r="E136" s="289" t="s">
         <v>192</v>
       </c>
       <c r="F136" s="246">
@@ -23607,13 +23607,13 @@
       </c>
     </row>
     <row r="137" spans="1:18" s="212" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="288"/>
-      <c r="B137" s="288"/>
-      <c r="C137" s="285"/>
+      <c r="A137" s="293"/>
+      <c r="B137" s="293"/>
+      <c r="C137" s="303"/>
       <c r="D137" s="216" t="s">
         <v>146</v>
       </c>
-      <c r="E137" s="293"/>
+      <c r="E137" s="289"/>
       <c r="F137" s="222" t="s">
         <v>140</v>
       </c>
@@ -23655,13 +23655,13 @@
       </c>
     </row>
     <row r="138" spans="1:18" s="212" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="288"/>
-      <c r="B138" s="288"/>
-      <c r="C138" s="285"/>
+      <c r="A138" s="293"/>
+      <c r="B138" s="293"/>
+      <c r="C138" s="303"/>
       <c r="D138" s="216" t="s">
         <v>200</v>
       </c>
-      <c r="E138" s="293"/>
+      <c r="E138" s="289"/>
       <c r="F138" s="220">
         <v>0</v>
       </c>
@@ -23704,13 +23704,13 @@
       </c>
     </row>
     <row r="139" spans="1:18" s="212" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="288"/>
-      <c r="B139" s="288"/>
-      <c r="C139" s="285"/>
+      <c r="A139" s="293"/>
+      <c r="B139" s="293"/>
+      <c r="C139" s="303"/>
       <c r="D139" s="216" t="s">
         <v>201</v>
       </c>
-      <c r="E139" s="293"/>
+      <c r="E139" s="289"/>
       <c r="F139" s="220">
         <v>0</v>
       </c>
@@ -23753,13 +23753,13 @@
       </c>
     </row>
     <row r="140" spans="1:18" s="212" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="288"/>
-      <c r="B140" s="288"/>
-      <c r="C140" s="285"/>
+      <c r="A140" s="293"/>
+      <c r="B140" s="293"/>
+      <c r="C140" s="303"/>
       <c r="D140" s="216" t="s">
         <v>211</v>
       </c>
-      <c r="E140" s="293"/>
+      <c r="E140" s="289"/>
       <c r="F140" s="220">
         <v>0</v>
       </c>
@@ -23803,13 +23803,13 @@
       </c>
     </row>
     <row r="141" spans="1:18" s="212" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="288"/>
-      <c r="B141" s="288"/>
-      <c r="C141" s="285"/>
+      <c r="A141" s="293"/>
+      <c r="B141" s="293"/>
+      <c r="C141" s="303"/>
       <c r="D141" s="216" t="s">
         <v>202</v>
       </c>
-      <c r="E141" s="293"/>
+      <c r="E141" s="289"/>
       <c r="F141" s="220">
         <v>0</v>
       </c>
@@ -23852,13 +23852,13 @@
       </c>
     </row>
     <row r="142" spans="1:18" s="212" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="288"/>
-      <c r="B142" s="288"/>
-      <c r="C142" s="285"/>
+      <c r="A142" s="293"/>
+      <c r="B142" s="293"/>
+      <c r="C142" s="303"/>
       <c r="D142" s="216" t="s">
         <v>212</v>
       </c>
-      <c r="E142" s="293"/>
+      <c r="E142" s="289"/>
       <c r="F142" s="220">
         <v>0</v>
       </c>
@@ -23901,13 +23901,13 @@
       </c>
     </row>
     <row r="143" spans="1:18" s="212" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="288"/>
-      <c r="B143" s="288"/>
-      <c r="C143" s="285"/>
+      <c r="A143" s="293"/>
+      <c r="B143" s="293"/>
+      <c r="C143" s="303"/>
       <c r="D143" s="251" t="s">
         <v>204</v>
       </c>
-      <c r="E143" s="293"/>
+      <c r="E143" s="289"/>
       <c r="F143" s="220">
         <v>0</v>
       </c>
@@ -23950,13 +23950,13 @@
       </c>
     </row>
     <row r="144" spans="1:18" s="212" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="288"/>
-      <c r="B144" s="288"/>
-      <c r="C144" s="285"/>
+      <c r="A144" s="293"/>
+      <c r="B144" s="293"/>
+      <c r="C144" s="303"/>
       <c r="D144" s="251" t="s">
         <v>205</v>
       </c>
-      <c r="E144" s="293"/>
+      <c r="E144" s="289"/>
       <c r="F144" s="220">
         <v>0</v>
       </c>
@@ -23999,13 +23999,13 @@
       </c>
     </row>
     <row r="145" spans="1:18" s="212" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="288"/>
-      <c r="B145" s="288"/>
-      <c r="C145" s="285"/>
+      <c r="A145" s="293"/>
+      <c r="B145" s="293"/>
+      <c r="C145" s="303"/>
       <c r="D145" s="251" t="s">
         <v>206</v>
       </c>
-      <c r="E145" s="293"/>
+      <c r="E145" s="289"/>
       <c r="F145" s="220">
         <v>0</v>
       </c>
@@ -24048,13 +24048,13 @@
       </c>
     </row>
     <row r="146" spans="1:18" s="212" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="288"/>
-      <c r="B146" s="288"/>
-      <c r="C146" s="285"/>
+      <c r="A146" s="293"/>
+      <c r="B146" s="293"/>
+      <c r="C146" s="303"/>
       <c r="D146" s="251" t="s">
         <v>207</v>
       </c>
-      <c r="E146" s="293"/>
+      <c r="E146" s="289"/>
       <c r="F146" s="220">
         <v>0</v>
       </c>
@@ -24097,13 +24097,13 @@
       </c>
     </row>
     <row r="147" spans="1:18" s="212" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A147" s="288"/>
-      <c r="B147" s="288"/>
-      <c r="C147" s="285"/>
+      <c r="A147" s="293"/>
+      <c r="B147" s="293"/>
+      <c r="C147" s="303"/>
       <c r="D147" s="216" t="s">
         <v>213</v>
       </c>
-      <c r="E147" s="293"/>
+      <c r="E147" s="289"/>
       <c r="F147" s="220">
         <v>0</v>
       </c>
@@ -24146,13 +24146,13 @@
       </c>
     </row>
     <row r="148" spans="1:18" s="212" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="288"/>
-      <c r="B148" s="288"/>
-      <c r="C148" s="285"/>
+      <c r="A148" s="293"/>
+      <c r="B148" s="293"/>
+      <c r="C148" s="303"/>
       <c r="D148" s="216" t="s">
         <v>214</v>
       </c>
-      <c r="E148" s="293"/>
+      <c r="E148" s="289"/>
       <c r="F148" s="220">
         <v>0</v>
       </c>
@@ -24195,13 +24195,13 @@
       </c>
     </row>
     <row r="149" spans="1:18" s="212" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="288"/>
-      <c r="B149" s="288"/>
-      <c r="C149" s="285"/>
+      <c r="A149" s="293"/>
+      <c r="B149" s="293"/>
+      <c r="C149" s="303"/>
       <c r="D149" s="216" t="s">
         <v>215</v>
       </c>
-      <c r="E149" s="293"/>
+      <c r="E149" s="289"/>
       <c r="F149" s="220">
         <v>0</v>
       </c>
@@ -24244,13 +24244,13 @@
       </c>
     </row>
     <row r="150" spans="1:18" s="212" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="288"/>
-      <c r="B150" s="288"/>
-      <c r="C150" s="285"/>
+      <c r="A150" s="293"/>
+      <c r="B150" s="293"/>
+      <c r="C150" s="303"/>
       <c r="D150" s="216" t="s">
         <v>209</v>
       </c>
-      <c r="E150" s="293"/>
+      <c r="E150" s="289"/>
       <c r="F150" s="220">
         <v>0</v>
       </c>
@@ -24293,9 +24293,9 @@
       </c>
     </row>
     <row r="151" spans="1:18" s="256" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="289"/>
-      <c r="B151" s="289"/>
-      <c r="C151" s="286"/>
+      <c r="A151" s="301"/>
+      <c r="B151" s="301"/>
+      <c r="C151" s="304"/>
       <c r="D151" s="251" t="s">
         <v>210</v>
       </c>
@@ -24342,19 +24342,19 @@
       </c>
     </row>
     <row r="152" spans="1:18" s="247" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="287">
+      <c r="A152" s="292">
         <v>5</v>
       </c>
-      <c r="B152" s="284" t="s">
+      <c r="B152" s="302" t="s">
         <v>216</v>
       </c>
-      <c r="C152" s="284" t="s">
+      <c r="C152" s="302" t="s">
         <v>217</v>
       </c>
       <c r="D152" s="245" t="s">
         <v>191</v>
       </c>
-      <c r="E152" s="287" t="s">
+      <c r="E152" s="292" t="s">
         <v>192</v>
       </c>
       <c r="F152" s="246">
@@ -24411,13 +24411,13 @@
       </c>
     </row>
     <row r="153" spans="1:18" s="212" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A153" s="288"/>
-      <c r="B153" s="285"/>
-      <c r="C153" s="285"/>
+      <c r="A153" s="293"/>
+      <c r="B153" s="303"/>
+      <c r="C153" s="303"/>
       <c r="D153" s="216" t="s">
         <v>146</v>
       </c>
-      <c r="E153" s="288"/>
+      <c r="E153" s="293"/>
       <c r="F153" s="222" t="s">
         <v>140</v>
       </c>
@@ -24459,13 +24459,13 @@
       </c>
     </row>
     <row r="154" spans="1:18" s="212" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="288"/>
-      <c r="B154" s="285"/>
-      <c r="C154" s="285"/>
+      <c r="A154" s="293"/>
+      <c r="B154" s="303"/>
+      <c r="C154" s="303"/>
       <c r="D154" s="216" t="s">
         <v>200</v>
       </c>
-      <c r="E154" s="288"/>
+      <c r="E154" s="293"/>
       <c r="F154" s="220">
         <v>0</v>
       </c>
@@ -24508,13 +24508,13 @@
       </c>
     </row>
     <row r="155" spans="1:18" s="212" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="288"/>
-      <c r="B155" s="285"/>
-      <c r="C155" s="285"/>
+      <c r="A155" s="293"/>
+      <c r="B155" s="303"/>
+      <c r="C155" s="303"/>
       <c r="D155" s="216" t="s">
         <v>201</v>
       </c>
-      <c r="E155" s="288"/>
+      <c r="E155" s="293"/>
       <c r="F155" s="220">
         <v>0</v>
       </c>
@@ -24557,13 +24557,13 @@
       </c>
     </row>
     <row r="156" spans="1:18" s="212" customFormat="1" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="288"/>
-      <c r="B156" s="285"/>
-      <c r="C156" s="285"/>
+      <c r="A156" s="293"/>
+      <c r="B156" s="303"/>
+      <c r="C156" s="303"/>
       <c r="D156" s="216" t="s">
         <v>202</v>
       </c>
-      <c r="E156" s="288"/>
+      <c r="E156" s="293"/>
       <c r="F156" s="220">
         <v>0</v>
       </c>
@@ -24606,13 +24606,13 @@
       </c>
     </row>
     <row r="157" spans="1:18" s="212" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="288"/>
-      <c r="B157" s="285"/>
-      <c r="C157" s="285"/>
+      <c r="A157" s="293"/>
+      <c r="B157" s="303"/>
+      <c r="C157" s="303"/>
       <c r="D157" s="216" t="s">
         <v>218</v>
       </c>
-      <c r="E157" s="288"/>
+      <c r="E157" s="293"/>
       <c r="F157" s="220">
         <v>0</v>
       </c>
@@ -24655,13 +24655,13 @@
       </c>
     </row>
     <row r="158" spans="1:18" s="212" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="288"/>
-      <c r="B158" s="285"/>
-      <c r="C158" s="285"/>
+      <c r="A158" s="293"/>
+      <c r="B158" s="303"/>
+      <c r="C158" s="303"/>
       <c r="D158" s="216" t="s">
         <v>219</v>
       </c>
-      <c r="E158" s="288"/>
+      <c r="E158" s="293"/>
       <c r="F158" s="220">
         <v>0</v>
       </c>
@@ -24704,13 +24704,13 @@
       </c>
     </row>
     <row r="159" spans="1:18" s="212" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="288"/>
-      <c r="B159" s="285"/>
-      <c r="C159" s="285"/>
+      <c r="A159" s="293"/>
+      <c r="B159" s="303"/>
+      <c r="C159" s="303"/>
       <c r="D159" s="216" t="s">
         <v>206</v>
       </c>
-      <c r="E159" s="288"/>
+      <c r="E159" s="293"/>
       <c r="F159" s="220">
         <v>0</v>
       </c>
@@ -24753,13 +24753,13 @@
       </c>
     </row>
     <row r="160" spans="1:18" s="212" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="288"/>
-      <c r="B160" s="285"/>
-      <c r="C160" s="285"/>
+      <c r="A160" s="293"/>
+      <c r="B160" s="303"/>
+      <c r="C160" s="303"/>
       <c r="D160" s="216" t="s">
         <v>207</v>
       </c>
-      <c r="E160" s="288"/>
+      <c r="E160" s="293"/>
       <c r="F160" s="220">
         <v>0</v>
       </c>
@@ -24802,13 +24802,13 @@
       </c>
     </row>
     <row r="161" spans="1:18" s="212" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="288"/>
-      <c r="B161" s="285"/>
-      <c r="C161" s="285"/>
+      <c r="A161" s="293"/>
+      <c r="B161" s="303"/>
+      <c r="C161" s="303"/>
       <c r="D161" s="216" t="s">
         <v>213</v>
       </c>
-      <c r="E161" s="288"/>
+      <c r="E161" s="293"/>
       <c r="F161" s="220">
         <v>0</v>
       </c>
@@ -24851,13 +24851,13 @@
       </c>
     </row>
     <row r="162" spans="1:18" s="212" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="288"/>
-      <c r="B162" s="285"/>
-      <c r="C162" s="285"/>
+      <c r="A162" s="293"/>
+      <c r="B162" s="303"/>
+      <c r="C162" s="303"/>
       <c r="D162" s="216" t="s">
         <v>214</v>
       </c>
-      <c r="E162" s="288"/>
+      <c r="E162" s="293"/>
       <c r="F162" s="220">
         <v>0</v>
       </c>
@@ -24900,13 +24900,13 @@
       </c>
     </row>
     <row r="163" spans="1:18" s="212" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="288"/>
-      <c r="B163" s="285"/>
-      <c r="C163" s="285"/>
+      <c r="A163" s="293"/>
+      <c r="B163" s="303"/>
+      <c r="C163" s="303"/>
       <c r="D163" s="216" t="s">
         <v>220</v>
       </c>
-      <c r="E163" s="288"/>
+      <c r="E163" s="293"/>
       <c r="F163" s="220">
         <v>0</v>
       </c>
@@ -24949,13 +24949,13 @@
       </c>
     </row>
     <row r="164" spans="1:18" s="256" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="288"/>
-      <c r="B164" s="285"/>
-      <c r="C164" s="286"/>
+      <c r="A164" s="293"/>
+      <c r="B164" s="303"/>
+      <c r="C164" s="304"/>
       <c r="D164" s="251" t="s">
         <v>221</v>
       </c>
-      <c r="E164" s="289"/>
+      <c r="E164" s="301"/>
       <c r="F164" s="253">
         <v>253383.42709279183</v>
       </c>
@@ -24998,9 +24998,9 @@
       </c>
     </row>
     <row r="165" spans="1:18" s="247" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="288"/>
-      <c r="B165" s="285"/>
-      <c r="C165" s="284" t="s">
+      <c r="A165" s="293"/>
+      <c r="B165" s="303"/>
+      <c r="C165" s="302" t="s">
         <v>222</v>
       </c>
       <c r="D165" s="245" t="s">
@@ -25063,9 +25063,9 @@
       </c>
     </row>
     <row r="166" spans="1:18" s="212" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A166" s="288"/>
-      <c r="B166" s="285"/>
-      <c r="C166" s="285"/>
+      <c r="A166" s="293"/>
+      <c r="B166" s="303"/>
+      <c r="C166" s="303"/>
       <c r="D166" s="216" t="s">
         <v>146</v>
       </c>
@@ -25111,9 +25111,9 @@
       </c>
     </row>
     <row r="167" spans="1:18" s="212" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="288"/>
-      <c r="B167" s="285"/>
-      <c r="C167" s="285"/>
+      <c r="A167" s="293"/>
+      <c r="B167" s="303"/>
+      <c r="C167" s="303"/>
       <c r="D167" s="216" t="s">
         <v>200</v>
       </c>
@@ -25160,9 +25160,9 @@
       </c>
     </row>
     <row r="168" spans="1:18" s="212" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="288"/>
-      <c r="B168" s="285"/>
-      <c r="C168" s="285"/>
+      <c r="A168" s="293"/>
+      <c r="B168" s="303"/>
+      <c r="C168" s="303"/>
       <c r="D168" s="216" t="s">
         <v>201</v>
       </c>
@@ -25209,9 +25209,9 @@
       </c>
     </row>
     <row r="169" spans="1:18" s="212" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="288"/>
-      <c r="B169" s="285"/>
-      <c r="C169" s="285"/>
+      <c r="A169" s="293"/>
+      <c r="B169" s="303"/>
+      <c r="C169" s="303"/>
       <c r="D169" s="216" t="s">
         <v>223</v>
       </c>
@@ -25258,9 +25258,9 @@
       </c>
     </row>
     <row r="170" spans="1:18" s="212" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="288"/>
-      <c r="B170" s="285"/>
-      <c r="C170" s="285"/>
+      <c r="A170" s="293"/>
+      <c r="B170" s="303"/>
+      <c r="C170" s="303"/>
       <c r="D170" s="216" t="s">
         <v>212</v>
       </c>
@@ -25307,9 +25307,9 @@
       </c>
     </row>
     <row r="171" spans="1:18" s="212" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="288"/>
-      <c r="B171" s="285"/>
-      <c r="C171" s="285"/>
+      <c r="A171" s="293"/>
+      <c r="B171" s="303"/>
+      <c r="C171" s="303"/>
       <c r="D171" s="216" t="s">
         <v>218</v>
       </c>
@@ -25356,9 +25356,9 @@
       </c>
     </row>
     <row r="172" spans="1:18" s="212" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="288"/>
-      <c r="B172" s="285"/>
-      <c r="C172" s="285"/>
+      <c r="A172" s="293"/>
+      <c r="B172" s="303"/>
+      <c r="C172" s="303"/>
       <c r="D172" s="216" t="s">
         <v>219</v>
       </c>
@@ -25405,9 +25405,9 @@
       </c>
     </row>
     <row r="173" spans="1:18" s="212" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A173" s="288"/>
-      <c r="B173" s="285"/>
-      <c r="C173" s="285"/>
+      <c r="A173" s="293"/>
+      <c r="B173" s="303"/>
+      <c r="C173" s="303"/>
       <c r="D173" s="216" t="s">
         <v>206</v>
       </c>
@@ -25454,9 +25454,9 @@
       </c>
     </row>
     <row r="174" spans="1:18" s="212" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A174" s="288"/>
-      <c r="B174" s="285"/>
-      <c r="C174" s="285"/>
+      <c r="A174" s="293"/>
+      <c r="B174" s="303"/>
+      <c r="C174" s="303"/>
       <c r="D174" s="216" t="s">
         <v>207</v>
       </c>
@@ -25503,9 +25503,9 @@
       </c>
     </row>
     <row r="175" spans="1:18" s="212" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A175" s="288"/>
-      <c r="B175" s="285"/>
-      <c r="C175" s="285"/>
+      <c r="A175" s="293"/>
+      <c r="B175" s="303"/>
+      <c r="C175" s="303"/>
       <c r="D175" s="216" t="s">
         <v>224</v>
       </c>
@@ -25552,9 +25552,9 @@
       </c>
     </row>
     <row r="176" spans="1:18" s="212" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A176" s="288"/>
-      <c r="B176" s="285"/>
-      <c r="C176" s="285"/>
+      <c r="A176" s="293"/>
+      <c r="B176" s="303"/>
+      <c r="C176" s="303"/>
       <c r="D176" s="216" t="s">
         <v>220</v>
       </c>
@@ -25601,9 +25601,9 @@
       </c>
     </row>
     <row r="177" spans="1:18" s="256" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="289"/>
-      <c r="B177" s="286"/>
-      <c r="C177" s="286"/>
+      <c r="A177" s="301"/>
+      <c r="B177" s="304"/>
+      <c r="C177" s="304"/>
       <c r="D177" s="251" t="s">
         <v>221</v>
       </c>
@@ -25650,11 +25650,11 @@
       </c>
     </row>
     <row r="178" spans="1:18" s="247" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A178" s="287"/>
-      <c r="B178" s="284" t="s">
+      <c r="A178" s="292"/>
+      <c r="B178" s="302" t="s">
         <v>216</v>
       </c>
-      <c r="C178" s="284" t="s">
+      <c r="C178" s="302" t="s">
         <v>225</v>
       </c>
       <c r="D178" s="245" t="s">
@@ -25717,9 +25717,9 @@
       </c>
     </row>
     <row r="179" spans="1:18" s="212" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A179" s="288"/>
-      <c r="B179" s="285"/>
-      <c r="C179" s="285"/>
+      <c r="A179" s="293"/>
+      <c r="B179" s="303"/>
+      <c r="C179" s="303"/>
       <c r="D179" s="216" t="s">
         <v>146</v>
       </c>
@@ -25765,9 +25765,9 @@
       </c>
     </row>
     <row r="180" spans="1:18" s="212" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A180" s="288"/>
-      <c r="B180" s="285"/>
-      <c r="C180" s="285"/>
+      <c r="A180" s="293"/>
+      <c r="B180" s="303"/>
+      <c r="C180" s="303"/>
       <c r="D180" s="216" t="s">
         <v>200</v>
       </c>
@@ -25814,9 +25814,9 @@
       </c>
     </row>
     <row r="181" spans="1:18" s="212" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A181" s="288"/>
-      <c r="B181" s="285"/>
-      <c r="C181" s="285"/>
+      <c r="A181" s="293"/>
+      <c r="B181" s="303"/>
+      <c r="C181" s="303"/>
       <c r="D181" s="251" t="s">
         <v>201</v>
       </c>
@@ -25863,9 +25863,9 @@
       </c>
     </row>
     <row r="182" spans="1:18" s="212" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A182" s="288"/>
-      <c r="B182" s="285"/>
-      <c r="C182" s="285"/>
+      <c r="A182" s="293"/>
+      <c r="B182" s="303"/>
+      <c r="C182" s="303"/>
       <c r="D182" s="251" t="s">
         <v>223</v>
       </c>
@@ -25912,9 +25912,9 @@
       </c>
     </row>
     <row r="183" spans="1:18" s="212" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A183" s="288"/>
-      <c r="B183" s="285"/>
-      <c r="C183" s="285"/>
+      <c r="A183" s="293"/>
+      <c r="B183" s="303"/>
+      <c r="C183" s="303"/>
       <c r="D183" s="251" t="s">
         <v>212</v>
       </c>
@@ -25961,9 +25961,9 @@
       </c>
     </row>
     <row r="184" spans="1:18" s="212" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A184" s="288"/>
-      <c r="B184" s="285"/>
-      <c r="C184" s="285"/>
+      <c r="A184" s="293"/>
+      <c r="B184" s="303"/>
+      <c r="C184" s="303"/>
       <c r="D184" s="251" t="s">
         <v>226</v>
       </c>
@@ -26010,9 +26010,9 @@
       </c>
     </row>
     <row r="185" spans="1:18" s="212" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A185" s="288"/>
-      <c r="B185" s="285"/>
-      <c r="C185" s="285"/>
+      <c r="A185" s="293"/>
+      <c r="B185" s="303"/>
+      <c r="C185" s="303"/>
       <c r="D185" s="251" t="s">
         <v>219</v>
       </c>
@@ -26059,9 +26059,9 @@
       </c>
     </row>
     <row r="186" spans="1:18" s="212" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A186" s="288"/>
-      <c r="B186" s="285"/>
-      <c r="C186" s="285"/>
+      <c r="A186" s="293"/>
+      <c r="B186" s="303"/>
+      <c r="C186" s="303"/>
       <c r="D186" s="251" t="s">
         <v>207</v>
       </c>
@@ -26107,10 +26107,10 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="187" spans="1:18" s="212" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A187" s="288"/>
-      <c r="B187" s="285"/>
-      <c r="C187" s="285"/>
+    <row r="187" spans="1:18" s="212" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A187" s="293"/>
+      <c r="B187" s="303"/>
+      <c r="C187" s="303"/>
       <c r="D187" s="216" t="s">
         <v>206</v>
       </c>
@@ -26157,9 +26157,9 @@
       </c>
     </row>
     <row r="188" spans="1:18" s="212" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A188" s="288"/>
-      <c r="B188" s="285"/>
-      <c r="C188" s="285"/>
+      <c r="A188" s="293"/>
+      <c r="B188" s="303"/>
+      <c r="C188" s="303"/>
       <c r="D188" s="216" t="s">
         <v>213</v>
       </c>
@@ -26206,9 +26206,9 @@
       </c>
     </row>
     <row r="189" spans="1:18" s="212" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A189" s="288"/>
-      <c r="B189" s="285"/>
-      <c r="C189" s="285"/>
+      <c r="A189" s="293"/>
+      <c r="B189" s="303"/>
+      <c r="C189" s="303"/>
       <c r="D189" s="216" t="s">
         <v>214</v>
       </c>
@@ -26255,9 +26255,9 @@
       </c>
     </row>
     <row r="190" spans="1:18" s="212" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A190" s="288"/>
-      <c r="B190" s="285"/>
-      <c r="C190" s="285"/>
+      <c r="A190" s="293"/>
+      <c r="B190" s="303"/>
+      <c r="C190" s="303"/>
       <c r="D190" s="216" t="s">
         <v>224</v>
       </c>
@@ -26304,9 +26304,9 @@
       </c>
     </row>
     <row r="191" spans="1:18" s="212" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A191" s="288"/>
-      <c r="B191" s="285"/>
-      <c r="C191" s="285"/>
+      <c r="A191" s="293"/>
+      <c r="B191" s="303"/>
+      <c r="C191" s="303"/>
       <c r="D191" s="216" t="s">
         <v>220</v>
       </c>
@@ -26353,9 +26353,9 @@
       </c>
     </row>
     <row r="192" spans="1:18" s="256" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A192" s="288"/>
-      <c r="B192" s="285"/>
-      <c r="C192" s="286"/>
+      <c r="A192" s="293"/>
+      <c r="B192" s="303"/>
+      <c r="C192" s="304"/>
       <c r="D192" s="251" t="s">
         <v>221</v>
       </c>
@@ -26402,9 +26402,9 @@
       </c>
     </row>
     <row r="193" spans="1:18" s="247" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A193" s="288"/>
-      <c r="B193" s="285"/>
-      <c r="C193" s="284" t="s">
+      <c r="A193" s="293"/>
+      <c r="B193" s="303"/>
+      <c r="C193" s="302" t="s">
         <v>227</v>
       </c>
       <c r="D193" s="245" t="s">
@@ -26467,9 +26467,9 @@
       </c>
     </row>
     <row r="194" spans="1:18" s="212" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A194" s="288"/>
-      <c r="B194" s="285"/>
-      <c r="C194" s="285"/>
+      <c r="A194" s="293"/>
+      <c r="B194" s="303"/>
+      <c r="C194" s="303"/>
       <c r="D194" s="216" t="s">
         <v>146</v>
       </c>
@@ -26515,9 +26515,9 @@
       </c>
     </row>
     <row r="195" spans="1:18" s="212" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A195" s="288"/>
-      <c r="B195" s="285"/>
-      <c r="C195" s="285"/>
+      <c r="A195" s="293"/>
+      <c r="B195" s="303"/>
+      <c r="C195" s="303"/>
       <c r="D195" s="216" t="s">
         <v>201</v>
       </c>
@@ -26564,9 +26564,9 @@
       </c>
     </row>
     <row r="196" spans="1:18" s="212" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A196" s="288"/>
-      <c r="B196" s="285"/>
-      <c r="C196" s="285"/>
+      <c r="A196" s="293"/>
+      <c r="B196" s="303"/>
+      <c r="C196" s="303"/>
       <c r="D196" s="216" t="s">
         <v>223</v>
       </c>
@@ -26613,9 +26613,9 @@
       </c>
     </row>
     <row r="197" spans="1:18" s="212" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A197" s="288"/>
-      <c r="B197" s="285"/>
-      <c r="C197" s="285"/>
+      <c r="A197" s="293"/>
+      <c r="B197" s="303"/>
+      <c r="C197" s="303"/>
       <c r="D197" s="216" t="s">
         <v>212</v>
       </c>
@@ -26662,9 +26662,9 @@
       </c>
     </row>
     <row r="198" spans="1:18" s="212" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A198" s="288"/>
-      <c r="B198" s="285"/>
-      <c r="C198" s="285"/>
+      <c r="A198" s="293"/>
+      <c r="B198" s="303"/>
+      <c r="C198" s="303"/>
       <c r="D198" s="216" t="s">
         <v>226</v>
       </c>
@@ -26711,9 +26711,9 @@
       </c>
     </row>
     <row r="199" spans="1:18" s="212" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A199" s="288"/>
-      <c r="B199" s="285"/>
-      <c r="C199" s="285"/>
+      <c r="A199" s="293"/>
+      <c r="B199" s="303"/>
+      <c r="C199" s="303"/>
       <c r="D199" s="216" t="s">
         <v>206</v>
       </c>
@@ -26760,9 +26760,9 @@
       </c>
     </row>
     <row r="200" spans="1:18" s="212" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A200" s="288"/>
-      <c r="B200" s="285"/>
-      <c r="C200" s="285"/>
+      <c r="A200" s="293"/>
+      <c r="B200" s="303"/>
+      <c r="C200" s="303"/>
       <c r="D200" s="216" t="s">
         <v>219</v>
       </c>
@@ -26809,9 +26809,9 @@
       </c>
     </row>
     <row r="201" spans="1:18" s="212" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A201" s="288"/>
-      <c r="B201" s="285"/>
-      <c r="C201" s="285"/>
+      <c r="A201" s="293"/>
+      <c r="B201" s="303"/>
+      <c r="C201" s="303"/>
       <c r="D201" s="216" t="s">
         <v>207</v>
       </c>
@@ -26858,9 +26858,9 @@
       </c>
     </row>
     <row r="202" spans="1:18" s="256" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A202" s="289"/>
-      <c r="B202" s="286"/>
-      <c r="C202" s="286"/>
+      <c r="A202" s="301"/>
+      <c r="B202" s="304"/>
+      <c r="C202" s="304"/>
       <c r="D202" s="251" t="s">
         <v>221</v>
       </c>
@@ -27078,17 +27078,17 @@
       </c>
     </row>
     <row r="206" spans="1:18" s="212" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A206" s="284">
+      <c r="A206" s="302">
         <v>9</v>
       </c>
-      <c r="B206" s="284" t="s">
+      <c r="B206" s="302" t="s">
         <v>234</v>
       </c>
       <c r="C206" s="215"/>
       <c r="D206" s="216" t="s">
         <v>235</v>
       </c>
-      <c r="E206" s="284" t="s">
+      <c r="E206" s="302" t="s">
         <v>17</v>
       </c>
       <c r="F206" s="253">
@@ -27133,13 +27133,13 @@
       </c>
     </row>
     <row r="207" spans="1:18" s="212" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A207" s="285"/>
-      <c r="B207" s="285"/>
+      <c r="A207" s="303"/>
+      <c r="B207" s="303"/>
       <c r="C207" s="215"/>
       <c r="D207" s="216" t="s">
         <v>236</v>
       </c>
-      <c r="E207" s="285"/>
+      <c r="E207" s="303"/>
       <c r="F207" s="253">
         <v>10500853.82</v>
       </c>
@@ -27182,15 +27182,15 @@
       </c>
     </row>
     <row r="208" spans="1:18" s="260" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A208" s="286"/>
-      <c r="B208" s="286"/>
+      <c r="A208" s="304"/>
+      <c r="B208" s="304"/>
       <c r="C208" s="252" t="s">
         <v>140</v>
       </c>
       <c r="D208" s="216" t="s">
         <v>237</v>
       </c>
-      <c r="E208" s="286"/>
+      <c r="E208" s="304"/>
       <c r="F208" s="253">
         <v>10764233.540000001</v>
       </c>
@@ -27234,12 +27234,33 @@
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="B10:R10"/>
-    <mergeCell ref="M1:R1"/>
-    <mergeCell ref="M2:R2"/>
-    <mergeCell ref="O4:R4"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O5:R5"/>
+    <mergeCell ref="A206:A208"/>
+    <mergeCell ref="B206:B208"/>
+    <mergeCell ref="E206:E208"/>
+    <mergeCell ref="A152:A177"/>
+    <mergeCell ref="B152:B177"/>
+    <mergeCell ref="C152:C164"/>
+    <mergeCell ref="E152:E164"/>
+    <mergeCell ref="C165:C177"/>
+    <mergeCell ref="A178:A202"/>
+    <mergeCell ref="B178:B202"/>
+    <mergeCell ref="C178:C192"/>
+    <mergeCell ref="C193:C202"/>
+    <mergeCell ref="E109:E115"/>
+    <mergeCell ref="C116:C122"/>
+    <mergeCell ref="E116:E122"/>
+    <mergeCell ref="A123:A151"/>
+    <mergeCell ref="B123:B151"/>
+    <mergeCell ref="C123:C135"/>
+    <mergeCell ref="E123:E134"/>
+    <mergeCell ref="C136:C151"/>
+    <mergeCell ref="E136:E150"/>
+    <mergeCell ref="A104:A108"/>
+    <mergeCell ref="B104:B108"/>
+    <mergeCell ref="C104:C108"/>
+    <mergeCell ref="A109:A122"/>
+    <mergeCell ref="B109:B122"/>
+    <mergeCell ref="C109:C115"/>
     <mergeCell ref="J12:Q12"/>
     <mergeCell ref="R12:R13"/>
     <mergeCell ref="A15:A61"/>
@@ -27253,33 +27274,12 @@
     <mergeCell ref="D12:D13"/>
     <mergeCell ref="E12:E13"/>
     <mergeCell ref="F12:I12"/>
-    <mergeCell ref="A104:A108"/>
-    <mergeCell ref="B104:B108"/>
-    <mergeCell ref="C104:C108"/>
-    <mergeCell ref="A109:A122"/>
-    <mergeCell ref="B109:B122"/>
-    <mergeCell ref="C109:C115"/>
-    <mergeCell ref="E109:E115"/>
-    <mergeCell ref="C116:C122"/>
-    <mergeCell ref="E116:E122"/>
-    <mergeCell ref="A123:A151"/>
-    <mergeCell ref="B123:B151"/>
-    <mergeCell ref="C123:C135"/>
-    <mergeCell ref="E123:E134"/>
-    <mergeCell ref="C136:C151"/>
-    <mergeCell ref="E136:E150"/>
-    <mergeCell ref="A206:A208"/>
-    <mergeCell ref="B206:B208"/>
-    <mergeCell ref="E206:E208"/>
-    <mergeCell ref="A152:A177"/>
-    <mergeCell ref="B152:B177"/>
-    <mergeCell ref="C152:C164"/>
-    <mergeCell ref="E152:E164"/>
-    <mergeCell ref="C165:C177"/>
-    <mergeCell ref="A178:A202"/>
-    <mergeCell ref="B178:B202"/>
-    <mergeCell ref="C178:C192"/>
-    <mergeCell ref="C193:C202"/>
+    <mergeCell ref="B10:R10"/>
+    <mergeCell ref="M1:R1"/>
+    <mergeCell ref="M2:R2"/>
+    <mergeCell ref="O4:R4"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:R5"/>
   </mergeCells>
   <pageMargins left="0.31496062992125984" right="0.70866141732283472" top="0.74803149606299213" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="8" scale="35" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -27332,23 +27332,23 @@
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="188"/>
       <c r="B1" s="14"/>
-      <c r="C1" s="308" t="s">
+      <c r="C1" s="353" t="s">
         <v>242</v>
       </c>
-      <c r="D1" s="309"/>
-      <c r="E1" s="309"/>
-      <c r="F1" s="309"/>
-      <c r="G1" s="309"/>
-      <c r="H1" s="309"/>
-      <c r="I1" s="309"/>
-      <c r="J1" s="309"/>
-      <c r="K1" s="309"/>
-      <c r="L1" s="309"/>
-      <c r="M1" s="309"/>
-      <c r="N1" s="309"/>
-      <c r="O1" s="309"/>
-      <c r="P1" s="309"/>
-      <c r="Q1" s="309"/>
+      <c r="D1" s="354"/>
+      <c r="E1" s="354"/>
+      <c r="F1" s="354"/>
+      <c r="G1" s="354"/>
+      <c r="H1" s="354"/>
+      <c r="I1" s="354"/>
+      <c r="J1" s="354"/>
+      <c r="K1" s="354"/>
+      <c r="L1" s="354"/>
+      <c r="M1" s="354"/>
+      <c r="N1" s="354"/>
+      <c r="O1" s="354"/>
+      <c r="P1" s="354"/>
+      <c r="Q1" s="354"/>
       <c r="R1" s="14"/>
       <c r="S1" s="14"/>
     </row>
@@ -27358,18 +27358,18 @@
       <c r="C2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="308" t="s">
+      <c r="D2" s="353" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="308"/>
-      <c r="F2" s="308"/>
-      <c r="G2" s="309"/>
-      <c r="H2" s="309"/>
-      <c r="I2" s="309"/>
-      <c r="J2" s="309"/>
-      <c r="K2" s="309"/>
-      <c r="L2" s="309"/>
-      <c r="M2" s="309"/>
+      <c r="E2" s="353"/>
+      <c r="F2" s="353"/>
+      <c r="G2" s="354"/>
+      <c r="H2" s="354"/>
+      <c r="I2" s="354"/>
+      <c r="J2" s="354"/>
+      <c r="K2" s="354"/>
+      <c r="L2" s="354"/>
+      <c r="M2" s="354"/>
       <c r="N2" s="102">
         <v>29</v>
       </c>
@@ -27405,41 +27405,41 @@
       <c r="S3" s="14"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" s="325" t="s">
+      <c r="A4" s="352" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="323" t="s">
+      <c r="B4" s="351" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="323" t="s">
+      <c r="C4" s="351" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="324" t="s">
+      <c r="D4" s="343" t="s">
         <v>55</v>
       </c>
-      <c r="E4" s="324"/>
-      <c r="F4" s="324"/>
-      <c r="G4" s="324"/>
-      <c r="H4" s="324"/>
-      <c r="I4" s="324"/>
-      <c r="J4" s="324"/>
-      <c r="K4" s="324"/>
-      <c r="L4" s="324"/>
-      <c r="M4" s="324"/>
-      <c r="N4" s="324"/>
-      <c r="O4" s="324"/>
-      <c r="P4" s="324"/>
-      <c r="Q4" s="324"/>
-      <c r="R4" s="324"/>
-      <c r="S4" s="324"/>
-      <c r="T4" s="322" t="s">
+      <c r="E4" s="343"/>
+      <c r="F4" s="343"/>
+      <c r="G4" s="343"/>
+      <c r="H4" s="343"/>
+      <c r="I4" s="343"/>
+      <c r="J4" s="343"/>
+      <c r="K4" s="343"/>
+      <c r="L4" s="343"/>
+      <c r="M4" s="343"/>
+      <c r="N4" s="343"/>
+      <c r="O4" s="343"/>
+      <c r="P4" s="343"/>
+      <c r="Q4" s="343"/>
+      <c r="R4" s="343"/>
+      <c r="S4" s="343"/>
+      <c r="T4" s="350" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A5" s="325"/>
-      <c r="B5" s="323"/>
-      <c r="C5" s="323"/>
+      <c r="A5" s="352"/>
+      <c r="B5" s="351"/>
+      <c r="C5" s="351"/>
       <c r="D5" s="7" t="s">
         <v>28</v>
       </c>
@@ -27488,47 +27488,47 @@
       <c r="S5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="T5" s="322"/>
+      <c r="T5" s="350"/>
     </row>
     <row r="6" spans="1:21" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="316" t="s">
+      <c r="A6" s="358" t="s">
         <v>81</v>
       </c>
-      <c r="B6" s="317"/>
-      <c r="C6" s="317"/>
-      <c r="D6" s="317"/>
-      <c r="E6" s="317"/>
-      <c r="F6" s="317"/>
-      <c r="G6" s="317"/>
-      <c r="H6" s="317"/>
-      <c r="I6" s="317"/>
-      <c r="J6" s="317"/>
-      <c r="K6" s="317"/>
-      <c r="L6" s="317"/>
-      <c r="M6" s="317"/>
-      <c r="N6" s="317"/>
-      <c r="O6" s="317"/>
-      <c r="P6" s="317"/>
-      <c r="Q6" s="317"/>
-      <c r="R6" s="317"/>
-      <c r="S6" s="317"/>
-      <c r="T6" s="318"/>
+      <c r="B6" s="359"/>
+      <c r="C6" s="359"/>
+      <c r="D6" s="359"/>
+      <c r="E6" s="359"/>
+      <c r="F6" s="359"/>
+      <c r="G6" s="359"/>
+      <c r="H6" s="359"/>
+      <c r="I6" s="359"/>
+      <c r="J6" s="359"/>
+      <c r="K6" s="359"/>
+      <c r="L6" s="359"/>
+      <c r="M6" s="359"/>
+      <c r="N6" s="359"/>
+      <c r="O6" s="359"/>
+      <c r="P6" s="359"/>
+      <c r="Q6" s="359"/>
+      <c r="R6" s="359"/>
+      <c r="S6" s="359"/>
+      <c r="T6" s="360"/>
     </row>
     <row r="7" spans="1:21" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="346" t="s">
+      <c r="A7" s="317" t="s">
         <v>123</v>
       </c>
-      <c r="B7" s="330" t="s">
+      <c r="B7" s="314" t="s">
         <v>104</v>
       </c>
       <c r="C7" s="121" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="319" t="s">
+      <c r="D7" s="346" t="s">
         <v>56</v>
       </c>
-      <c r="E7" s="320"/>
-      <c r="F7" s="321"/>
+      <c r="E7" s="347"/>
+      <c r="F7" s="348"/>
       <c r="G7" s="79">
         <f>Лист1!F109</f>
         <v>10773.104893401014</v>
@@ -27584,8 +27584,8 @@
       <c r="T7" s="16"/>
     </row>
     <row r="8" spans="1:21" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="347"/>
-      <c r="B8" s="331"/>
+      <c r="A8" s="318"/>
+      <c r="B8" s="315"/>
       <c r="C8" s="122" t="s">
         <v>68</v>
       </c>
@@ -27653,16 +27653,16 @@
       <c r="T8" s="16"/>
     </row>
     <row r="9" spans="1:21" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="347"/>
-      <c r="B9" s="331"/>
+      <c r="A9" s="318"/>
+      <c r="B9" s="315"/>
       <c r="C9" s="119" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="319" t="s">
+      <c r="D9" s="346" t="s">
         <v>56</v>
       </c>
-      <c r="E9" s="320"/>
-      <c r="F9" s="321"/>
+      <c r="E9" s="347"/>
+      <c r="F9" s="348"/>
       <c r="G9" s="79">
         <f>Лист1!F116</f>
         <v>21546.209786802028</v>
@@ -27718,8 +27718,8 @@
       <c r="T9" s="16"/>
     </row>
     <row r="10" spans="1:21" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="347"/>
-      <c r="B10" s="331"/>
+      <c r="A10" s="318"/>
+      <c r="B10" s="315"/>
       <c r="C10" s="122" t="s">
         <v>69</v>
       </c>
@@ -27787,8 +27787,8 @@
       <c r="T10" s="16"/>
     </row>
     <row r="11" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="347"/>
-      <c r="B11" s="331"/>
+      <c r="A11" s="318"/>
+      <c r="B11" s="315"/>
       <c r="C11" s="118" t="s">
         <v>57</v>
       </c>
@@ -27853,8 +27853,8 @@
       <c r="T11" s="16"/>
     </row>
     <row r="12" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="347"/>
-      <c r="B12" s="331"/>
+      <c r="A12" s="318"/>
+      <c r="B12" s="315"/>
       <c r="C12" s="118" t="s">
         <v>58</v>
       </c>
@@ -27920,8 +27920,8 @@
       <c r="U12" s="187"/>
     </row>
     <row r="13" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="347"/>
-      <c r="B13" s="332"/>
+      <c r="A13" s="318"/>
+      <c r="B13" s="316"/>
       <c r="C13" s="118" t="s">
         <v>59</v>
       </c>
@@ -27987,18 +27987,18 @@
       <c r="U13" s="187"/>
     </row>
     <row r="14" spans="1:21" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="347"/>
-      <c r="B14" s="330" t="s">
+      <c r="A14" s="318"/>
+      <c r="B14" s="314" t="s">
         <v>105</v>
       </c>
       <c r="C14" s="119" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="319" t="s">
+      <c r="D14" s="346" t="s">
         <v>56</v>
       </c>
-      <c r="E14" s="320"/>
-      <c r="F14" s="321"/>
+      <c r="E14" s="347"/>
+      <c r="F14" s="348"/>
       <c r="G14" s="79">
         <f>Лист1!F109</f>
         <v>10773.104893401014</v>
@@ -28054,8 +28054,8 @@
       <c r="T14" s="16"/>
     </row>
     <row r="15" spans="1:21" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="347"/>
-      <c r="B15" s="331"/>
+      <c r="A15" s="318"/>
+      <c r="B15" s="315"/>
       <c r="C15" s="122" t="s">
         <v>68</v>
       </c>
@@ -28123,16 +28123,16 @@
       <c r="T15" s="16"/>
     </row>
     <row r="16" spans="1:21" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="347"/>
-      <c r="B16" s="331"/>
+      <c r="A16" s="318"/>
+      <c r="B16" s="315"/>
       <c r="C16" s="119" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="319" t="s">
+      <c r="D16" s="346" t="s">
         <v>56</v>
       </c>
-      <c r="E16" s="320"/>
-      <c r="F16" s="321"/>
+      <c r="E16" s="347"/>
+      <c r="F16" s="348"/>
       <c r="G16" s="79">
         <f>Лист1!F116</f>
         <v>21546.209786802028</v>
@@ -28188,9 +28188,9 @@
       <c r="T16" s="16"/>
     </row>
     <row r="17" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="347"/>
-      <c r="B17" s="331"/>
-      <c r="C17" s="354" t="s">
+      <c r="A17" s="318"/>
+      <c r="B17" s="315"/>
+      <c r="C17" s="329" t="s">
         <v>69</v>
       </c>
       <c r="D17" s="102">
@@ -28253,9 +28253,9 @@
       <c r="T17" s="16"/>
     </row>
     <row r="18" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="347"/>
-      <c r="B18" s="331"/>
-      <c r="C18" s="355"/>
+      <c r="A18" s="318"/>
+      <c r="B18" s="315"/>
+      <c r="C18" s="330"/>
       <c r="D18" s="102"/>
       <c r="E18" s="102">
         <v>2</v>
@@ -28316,9 +28316,9 @@
       <c r="T18" s="16"/>
     </row>
     <row r="19" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="347"/>
-      <c r="B19" s="331"/>
-      <c r="C19" s="356"/>
+      <c r="A19" s="318"/>
+      <c r="B19" s="315"/>
+      <c r="C19" s="331"/>
       <c r="D19" s="102"/>
       <c r="E19" s="102"/>
       <c r="F19" s="102">
@@ -28379,8 +28379,8 @@
       <c r="T19" s="16"/>
     </row>
     <row r="20" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="347"/>
-      <c r="B20" s="331"/>
+      <c r="A20" s="318"/>
+      <c r="B20" s="315"/>
       <c r="C20" s="19" t="s">
         <v>57</v>
       </c>
@@ -28446,8 +28446,8 @@
       <c r="U20" s="187"/>
     </row>
     <row r="21" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="347"/>
-      <c r="B21" s="331"/>
+      <c r="A21" s="318"/>
+      <c r="B21" s="315"/>
       <c r="C21" s="19" t="s">
         <v>58</v>
       </c>
@@ -28513,8 +28513,8 @@
       <c r="U21" s="187"/>
     </row>
     <row r="22" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="348"/>
-      <c r="B22" s="332"/>
+      <c r="A22" s="319"/>
+      <c r="B22" s="316"/>
       <c r="C22" s="19" t="s">
         <v>59</v>
       </c>
@@ -28580,20 +28580,20 @@
       <c r="U22" s="187"/>
     </row>
     <row r="23" spans="1:21" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="326" t="s">
+      <c r="A23" s="321" t="s">
         <v>122</v>
       </c>
-      <c r="B23" s="322" t="s">
+      <c r="B23" s="350" t="s">
         <v>102</v>
       </c>
       <c r="C23" s="121" t="s">
         <v>30</v>
       </c>
-      <c r="D23" s="319" t="s">
+      <c r="D23" s="346" t="s">
         <v>56</v>
       </c>
-      <c r="E23" s="320"/>
-      <c r="F23" s="321"/>
+      <c r="E23" s="347"/>
+      <c r="F23" s="348"/>
       <c r="G23" s="79">
         <f>Лист1!F136</f>
         <v>253383.42709279183</v>
@@ -28650,8 +28650,8 @@
       <c r="U23" s="187"/>
     </row>
     <row r="24" spans="1:21" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="327"/>
-      <c r="B24" s="322"/>
+      <c r="A24" s="322"/>
+      <c r="B24" s="350"/>
       <c r="C24" s="122" t="s">
         <v>71</v>
       </c>
@@ -28719,18 +28719,18 @@
       <c r="T24" s="16"/>
     </row>
     <row r="25" spans="1:21" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="327"/>
-      <c r="B25" s="322" t="s">
+      <c r="A25" s="322"/>
+      <c r="B25" s="350" t="s">
         <v>103</v>
       </c>
       <c r="C25" s="121" t="s">
         <v>30</v>
       </c>
-      <c r="D25" s="319" t="s">
+      <c r="D25" s="346" t="s">
         <v>56</v>
       </c>
-      <c r="E25" s="320"/>
-      <c r="F25" s="321"/>
+      <c r="E25" s="347"/>
+      <c r="F25" s="348"/>
       <c r="G25" s="79">
         <f>Лист1!F123</f>
         <v>253383.42709279183</v>
@@ -28787,8 +28787,8 @@
       <c r="U25" s="187"/>
     </row>
     <row r="26" spans="1:21" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="327"/>
-      <c r="B26" s="322"/>
+      <c r="A26" s="322"/>
+      <c r="B26" s="350"/>
       <c r="C26" s="122" t="s">
         <v>71</v>
       </c>
@@ -28856,8 +28856,8 @@
       <c r="T26" s="16"/>
     </row>
     <row r="27" spans="1:21" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="328"/>
-      <c r="B27" s="322"/>
+      <c r="A27" s="323"/>
+      <c r="B27" s="350"/>
       <c r="C27" s="19" t="s">
         <v>70</v>
       </c>
@@ -28928,20 +28928,20 @@
       <c r="T27" s="16"/>
     </row>
     <row r="28" spans="1:21" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="326" t="s">
+      <c r="A28" s="321" t="s">
         <v>121</v>
       </c>
-      <c r="B28" s="353" t="s">
+      <c r="B28" s="328" t="s">
         <v>106</v>
       </c>
       <c r="C28" s="119" t="s">
         <v>74</v>
       </c>
-      <c r="D28" s="319" t="s">
+      <c r="D28" s="346" t="s">
         <v>31</v>
       </c>
-      <c r="E28" s="320"/>
-      <c r="F28" s="321"/>
+      <c r="E28" s="347"/>
+      <c r="F28" s="348"/>
       <c r="G28" s="79">
         <f>Лист1!F15</f>
         <v>1325.2</v>
@@ -28997,8 +28997,8 @@
       <c r="T28" s="16"/>
     </row>
     <row r="29" spans="1:21" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="327"/>
-      <c r="B29" s="353"/>
+      <c r="A29" s="322"/>
+      <c r="B29" s="328"/>
       <c r="C29" s="120" t="s">
         <v>75</v>
       </c>
@@ -29066,18 +29066,18 @@
       <c r="T29" s="16"/>
     </row>
     <row r="30" spans="1:21" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="327"/>
-      <c r="B30" s="353" t="s">
+      <c r="A30" s="322"/>
+      <c r="B30" s="328" t="s">
         <v>108</v>
       </c>
       <c r="C30" s="119" t="s">
         <v>60</v>
       </c>
-      <c r="D30" s="319" t="s">
+      <c r="D30" s="346" t="s">
         <v>32</v>
       </c>
-      <c r="E30" s="320"/>
-      <c r="F30" s="321"/>
+      <c r="E30" s="347"/>
+      <c r="F30" s="348"/>
       <c r="G30" s="79">
         <f>Лист1!F16</f>
         <v>0</v>
@@ -29133,8 +29133,8 @@
       <c r="T30" s="16"/>
     </row>
     <row r="31" spans="1:21" ht="45" x14ac:dyDescent="0.25">
-      <c r="A31" s="327"/>
-      <c r="B31" s="353"/>
+      <c r="A31" s="322"/>
+      <c r="B31" s="328"/>
       <c r="C31" s="120" t="s">
         <v>76</v>
       </c>
@@ -29202,18 +29202,18 @@
       <c r="T31" s="16"/>
     </row>
     <row r="32" spans="1:21" ht="75" x14ac:dyDescent="0.25">
-      <c r="A32" s="327"/>
-      <c r="B32" s="353" t="s">
+      <c r="A32" s="322"/>
+      <c r="B32" s="328" t="s">
         <v>109</v>
       </c>
       <c r="C32" s="119" t="s">
         <v>61</v>
       </c>
-      <c r="D32" s="319" t="s">
+      <c r="D32" s="346" t="s">
         <v>33</v>
       </c>
-      <c r="E32" s="320"/>
-      <c r="F32" s="321"/>
+      <c r="E32" s="347"/>
+      <c r="F32" s="348"/>
       <c r="G32" s="79">
         <f>Лист1!F17</f>
         <v>0</v>
@@ -29269,9 +29269,9 @@
       <c r="T32" s="16"/>
     </row>
     <row r="33" spans="1:21" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="327"/>
-      <c r="B33" s="353"/>
-      <c r="C33" s="350" t="s">
+      <c r="A33" s="322"/>
+      <c r="B33" s="328"/>
+      <c r="C33" s="325" t="s">
         <v>77</v>
       </c>
       <c r="D33" s="112">
@@ -29334,9 +29334,9 @@
       <c r="T33" s="16"/>
     </row>
     <row r="34" spans="1:21" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="327"/>
-      <c r="B34" s="353"/>
-      <c r="C34" s="351"/>
+      <c r="A34" s="322"/>
+      <c r="B34" s="328"/>
+      <c r="C34" s="326"/>
       <c r="D34" s="112"/>
       <c r="E34" s="112">
         <v>7175</v>
@@ -29397,9 +29397,9 @@
       <c r="T34" s="16"/>
     </row>
     <row r="35" spans="1:21" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="327"/>
-      <c r="B35" s="353"/>
-      <c r="C35" s="352"/>
+      <c r="A35" s="322"/>
+      <c r="B35" s="328"/>
+      <c r="C35" s="327"/>
       <c r="D35" s="112"/>
       <c r="E35" s="112"/>
       <c r="F35" s="112">
@@ -29460,16 +29460,16 @@
       <c r="T35" s="16"/>
     </row>
     <row r="36" spans="1:21" ht="75" x14ac:dyDescent="0.25">
-      <c r="A36" s="327"/>
-      <c r="B36" s="353"/>
+      <c r="A36" s="322"/>
+      <c r="B36" s="328"/>
       <c r="C36" s="119" t="s">
         <v>62</v>
       </c>
-      <c r="D36" s="319" t="s">
+      <c r="D36" s="346" t="s">
         <v>34</v>
       </c>
-      <c r="E36" s="320"/>
-      <c r="F36" s="321"/>
+      <c r="E36" s="347"/>
+      <c r="F36" s="348"/>
       <c r="G36" s="79"/>
       <c r="H36" s="79"/>
       <c r="I36" s="79"/>
@@ -29489,8 +29489,8 @@
       <c r="T36" s="16"/>
     </row>
     <row r="37" spans="1:21" ht="60" x14ac:dyDescent="0.25">
-      <c r="A37" s="327"/>
-      <c r="B37" s="353"/>
+      <c r="A37" s="322"/>
+      <c r="B37" s="328"/>
       <c r="C37" s="120" t="s">
         <v>78</v>
       </c>
@@ -29558,18 +29558,18 @@
       <c r="T37" s="16"/>
     </row>
     <row r="38" spans="1:21" ht="81" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="327"/>
-      <c r="B38" s="353" t="s">
+      <c r="A38" s="322"/>
+      <c r="B38" s="328" t="s">
         <v>107</v>
       </c>
       <c r="C38" s="119" t="s">
         <v>63</v>
       </c>
-      <c r="D38" s="319" t="s">
+      <c r="D38" s="346" t="s">
         <v>34</v>
       </c>
-      <c r="E38" s="320"/>
-      <c r="F38" s="321"/>
+      <c r="E38" s="347"/>
+      <c r="F38" s="348"/>
       <c r="G38" s="79"/>
       <c r="H38" s="79"/>
       <c r="I38" s="79"/>
@@ -29589,8 +29589,8 @@
       <c r="T38" s="16"/>
     </row>
     <row r="39" spans="1:21" ht="75" x14ac:dyDescent="0.25">
-      <c r="A39" s="327"/>
-      <c r="B39" s="353"/>
+      <c r="A39" s="322"/>
+      <c r="B39" s="328"/>
       <c r="C39" s="120" t="s">
         <v>79</v>
       </c>
@@ -29658,7 +29658,7 @@
       <c r="T39" s="16"/>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A40" s="327"/>
+      <c r="A40" s="322"/>
       <c r="B40" s="195"/>
       <c r="C40" s="120" t="s">
         <v>119</v>
@@ -29694,7 +29694,7 @@
       <c r="T40" s="16"/>
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A41" s="327"/>
+      <c r="A41" s="322"/>
       <c r="B41" s="195"/>
       <c r="C41" s="120" t="s">
         <v>116</v>
@@ -29730,7 +29730,7 @@
       <c r="T41" s="16"/>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A42" s="327"/>
+      <c r="A42" s="322"/>
       <c r="B42" s="195"/>
       <c r="C42" s="120" t="s">
         <v>117</v>
@@ -29766,7 +29766,7 @@
       <c r="T42" s="16"/>
     </row>
     <row r="43" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="327"/>
+      <c r="A43" s="322"/>
       <c r="B43" s="195"/>
       <c r="C43" s="120" t="s">
         <v>118</v>
@@ -29802,18 +29802,18 @@
       <c r="T43" s="16"/>
     </row>
     <row r="44" spans="1:21" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="327"/>
-      <c r="B44" s="353" t="s">
+      <c r="A44" s="322"/>
+      <c r="B44" s="328" t="s">
         <v>110</v>
       </c>
       <c r="C44" s="119" t="s">
         <v>64</v>
       </c>
-      <c r="D44" s="319" t="s">
+      <c r="D44" s="346" t="s">
         <v>32</v>
       </c>
-      <c r="E44" s="320"/>
-      <c r="F44" s="321"/>
+      <c r="E44" s="347"/>
+      <c r="F44" s="348"/>
       <c r="G44" s="79">
         <f>Лист1!F18</f>
         <v>1163720</v>
@@ -29869,8 +29869,8 @@
       <c r="T44" s="16"/>
     </row>
     <row r="45" spans="1:21" ht="45" x14ac:dyDescent="0.25">
-      <c r="A45" s="327"/>
-      <c r="B45" s="353"/>
+      <c r="A45" s="322"/>
+      <c r="B45" s="328"/>
       <c r="C45" s="120" t="s">
         <v>80</v>
       </c>
@@ -29938,8 +29938,8 @@
       <c r="T45" s="16"/>
     </row>
     <row r="46" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="327"/>
-      <c r="B46" s="331"/>
+      <c r="A46" s="322"/>
+      <c r="B46" s="315"/>
       <c r="C46" s="19" t="s">
         <v>57</v>
       </c>
@@ -30001,8 +30001,8 @@
       <c r="T46" s="16"/>
     </row>
     <row r="47" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="327"/>
-      <c r="B47" s="331"/>
+      <c r="A47" s="322"/>
+      <c r="B47" s="315"/>
       <c r="C47" s="19" t="s">
         <v>58</v>
       </c>
@@ -30065,8 +30065,8 @@
       <c r="U47" s="187"/>
     </row>
     <row r="48" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="328"/>
-      <c r="B48" s="332"/>
+      <c r="A48" s="323"/>
+      <c r="B48" s="316"/>
       <c r="C48" s="19" t="s">
         <v>59</v>
       </c>
@@ -30129,16 +30129,16 @@
       <c r="U48" s="187"/>
     </row>
     <row r="49" spans="1:21" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="427" t="s">
+      <c r="A49" s="341" t="s">
         <v>328</v>
       </c>
-      <c r="B49" s="428"/>
-      <c r="C49" s="349" t="s">
+      <c r="B49" s="342"/>
+      <c r="C49" s="324" t="s">
         <v>65</v>
       </c>
-      <c r="D49" s="349"/>
-      <c r="E49" s="349"/>
-      <c r="F49" s="349"/>
+      <c r="D49" s="324"/>
+      <c r="E49" s="324"/>
+      <c r="F49" s="324"/>
       <c r="G49" s="113">
         <f>G11+G20+G27+G46</f>
         <v>4878149.7</v>
@@ -30194,16 +30194,16 @@
       <c r="T49" s="16"/>
     </row>
     <row r="50" spans="1:21" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="333" t="s">
+      <c r="A50" s="339" t="s">
         <v>329</v>
       </c>
-      <c r="B50" s="334"/>
-      <c r="C50" s="349" t="s">
+      <c r="B50" s="340"/>
+      <c r="C50" s="324" t="s">
         <v>66</v>
       </c>
-      <c r="D50" s="349"/>
-      <c r="E50" s="349"/>
-      <c r="F50" s="349"/>
+      <c r="D50" s="324"/>
+      <c r="E50" s="324"/>
+      <c r="F50" s="324"/>
       <c r="G50" s="113">
         <f t="shared" ref="G50:R50" si="59">G12+G21+G27+G47</f>
         <v>4878149.7</v>
@@ -30259,14 +30259,14 @@
       <c r="T50" s="16"/>
     </row>
     <row r="51" spans="1:21" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="335"/>
-      <c r="B51" s="336"/>
-      <c r="C51" s="349" t="s">
+      <c r="A51" s="308"/>
+      <c r="B51" s="309"/>
+      <c r="C51" s="324" t="s">
         <v>67</v>
       </c>
-      <c r="D51" s="349"/>
-      <c r="E51" s="349"/>
-      <c r="F51" s="349"/>
+      <c r="D51" s="324"/>
+      <c r="E51" s="324"/>
+      <c r="F51" s="324"/>
       <c r="G51" s="113">
         <f t="shared" ref="G51:R51" si="61">G13+G22+G27+G48</f>
         <v>4878128.0999999996</v>
@@ -30322,16 +30322,16 @@
       <c r="T51" s="16"/>
     </row>
     <row r="52" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="335"/>
-      <c r="B52" s="336"/>
-      <c r="C52" s="313" t="s">
+      <c r="A52" s="308"/>
+      <c r="B52" s="309"/>
+      <c r="C52" s="356" t="s">
         <v>28</v>
       </c>
-      <c r="D52" s="310" t="s">
+      <c r="D52" s="349" t="s">
         <v>20</v>
       </c>
-      <c r="E52" s="310"/>
-      <c r="F52" s="310"/>
+      <c r="E52" s="349"/>
+      <c r="F52" s="349"/>
       <c r="G52" s="97">
         <f t="shared" ref="G52:Q52" si="63">ROUND(G$49*$T53,1)</f>
         <v>3547953.8</v>
@@ -30390,14 +30390,14 @@
       </c>
     </row>
     <row r="53" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="335"/>
-      <c r="B53" s="336"/>
-      <c r="C53" s="313"/>
-      <c r="D53" s="310" t="s">
+      <c r="A53" s="308"/>
+      <c r="B53" s="309"/>
+      <c r="C53" s="356"/>
+      <c r="D53" s="349" t="s">
         <v>21</v>
       </c>
-      <c r="E53" s="310"/>
-      <c r="F53" s="310"/>
+      <c r="E53" s="349"/>
+      <c r="F53" s="349"/>
       <c r="G53" s="115">
         <f>G52-G49</f>
         <v>-1330195.9000000004</v>
@@ -30456,16 +30456,16 @@
       </c>
     </row>
     <row r="54" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="335"/>
-      <c r="B54" s="336"/>
-      <c r="C54" s="314" t="s">
+      <c r="A54" s="308"/>
+      <c r="B54" s="309"/>
+      <c r="C54" s="357" t="s">
         <v>29</v>
       </c>
-      <c r="D54" s="311" t="s">
+      <c r="D54" s="344" t="s">
         <v>20</v>
       </c>
-      <c r="E54" s="311"/>
-      <c r="F54" s="311"/>
+      <c r="E54" s="344"/>
+      <c r="F54" s="344"/>
       <c r="G54" s="98">
         <f t="shared" ref="G54:Q54" si="66">ROUND(G$50*$T55,1)</f>
         <v>3826740.5</v>
@@ -30524,14 +30524,14 @@
       </c>
     </row>
     <row r="55" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="335"/>
-      <c r="B55" s="336"/>
-      <c r="C55" s="314"/>
-      <c r="D55" s="311" t="s">
+      <c r="A55" s="308"/>
+      <c r="B55" s="309"/>
+      <c r="C55" s="357"/>
+      <c r="D55" s="344" t="s">
         <v>21</v>
       </c>
-      <c r="E55" s="311"/>
-      <c r="F55" s="311"/>
+      <c r="E55" s="344"/>
+      <c r="F55" s="344"/>
       <c r="G55" s="116">
         <f>G54-G50</f>
         <v>-1051409.2000000002</v>
@@ -30590,16 +30590,16 @@
       </c>
     </row>
     <row r="56" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="335"/>
-      <c r="B56" s="336"/>
-      <c r="C56" s="315" t="s">
+      <c r="A56" s="308"/>
+      <c r="B56" s="309"/>
+      <c r="C56" s="345" t="s">
         <v>241</v>
       </c>
-      <c r="D56" s="329" t="s">
+      <c r="D56" s="320" t="s">
         <v>20</v>
       </c>
-      <c r="E56" s="329"/>
-      <c r="F56" s="329"/>
+      <c r="E56" s="320"/>
+      <c r="F56" s="320"/>
       <c r="G56" s="100">
         <f t="shared" ref="G56:Q56" si="69">ROUND(G$50*$T57,1)</f>
         <v>3908153</v>
@@ -30658,14 +30658,14 @@
       </c>
     </row>
     <row r="57" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="337"/>
-      <c r="B57" s="338"/>
-      <c r="C57" s="315"/>
-      <c r="D57" s="329" t="s">
+      <c r="A57" s="310"/>
+      <c r="B57" s="311"/>
+      <c r="C57" s="345"/>
+      <c r="D57" s="320" t="s">
         <v>21</v>
       </c>
-      <c r="E57" s="329"/>
-      <c r="F57" s="329"/>
+      <c r="E57" s="320"/>
+      <c r="F57" s="320"/>
       <c r="G57" s="117">
         <f>G56-G51</f>
         <v>-969975.09999999963</v>
@@ -30724,44 +30724,44 @@
       </c>
     </row>
     <row r="58" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A58" s="323" t="s">
+      <c r="A58" s="351" t="s">
         <v>82</v>
       </c>
-      <c r="B58" s="323"/>
-      <c r="C58" s="323"/>
-      <c r="D58" s="323"/>
-      <c r="E58" s="323"/>
-      <c r="F58" s="323"/>
-      <c r="G58" s="323"/>
-      <c r="H58" s="323"/>
-      <c r="I58" s="323"/>
-      <c r="J58" s="323"/>
-      <c r="K58" s="323"/>
-      <c r="L58" s="323"/>
-      <c r="M58" s="323"/>
-      <c r="N58" s="323"/>
-      <c r="O58" s="323"/>
-      <c r="P58" s="323"/>
-      <c r="Q58" s="323"/>
-      <c r="R58" s="323"/>
-      <c r="S58" s="323"/>
-      <c r="T58" s="323"/>
+      <c r="B58" s="351"/>
+      <c r="C58" s="351"/>
+      <c r="D58" s="351"/>
+      <c r="E58" s="351"/>
+      <c r="F58" s="351"/>
+      <c r="G58" s="351"/>
+      <c r="H58" s="351"/>
+      <c r="I58" s="351"/>
+      <c r="J58" s="351"/>
+      <c r="K58" s="351"/>
+      <c r="L58" s="351"/>
+      <c r="M58" s="351"/>
+      <c r="N58" s="351"/>
+      <c r="O58" s="351"/>
+      <c r="P58" s="351"/>
+      <c r="Q58" s="351"/>
+      <c r="R58" s="351"/>
+      <c r="S58" s="351"/>
+      <c r="T58" s="351"/>
     </row>
     <row r="59" spans="1:21" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="342" t="s">
+      <c r="A59" s="335" t="s">
         <v>120</v>
       </c>
-      <c r="B59" s="344" t="s">
+      <c r="B59" s="337" t="s">
         <v>18</v>
       </c>
       <c r="C59" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D59" s="312" t="s">
+      <c r="D59" s="355" t="s">
         <v>22</v>
       </c>
-      <c r="E59" s="312"/>
-      <c r="F59" s="312"/>
+      <c r="E59" s="355"/>
+      <c r="F59" s="355"/>
       <c r="G59" s="79">
         <f>Лист1!F203</f>
         <v>715867.41</v>
@@ -30817,8 +30817,8 @@
       <c r="T59" s="16"/>
     </row>
     <row r="60" spans="1:21" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="343"/>
-      <c r="B60" s="345"/>
+      <c r="A60" s="336"/>
+      <c r="B60" s="338"/>
       <c r="C60" s="13" t="s">
         <v>19</v>
       </c>
@@ -30886,16 +30886,16 @@
       <c r="T60" s="16"/>
     </row>
     <row r="61" spans="1:21" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="425" t="s">
+      <c r="A61" s="312" t="s">
         <v>332</v>
       </c>
-      <c r="B61" s="426"/>
-      <c r="C61" s="339" t="s">
+      <c r="B61" s="313"/>
+      <c r="C61" s="332" t="s">
         <v>72</v>
       </c>
-      <c r="D61" s="340"/>
-      <c r="E61" s="340"/>
-      <c r="F61" s="341"/>
+      <c r="D61" s="333"/>
+      <c r="E61" s="333"/>
+      <c r="F61" s="334"/>
       <c r="G61" s="92">
         <f>G60</f>
         <v>189704.9</v>
@@ -30951,18 +30951,18 @@
       <c r="T61" s="16"/>
     </row>
     <row r="62" spans="1:21" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="335" t="s">
+      <c r="A62" s="308" t="s">
         <v>330</v>
       </c>
-      <c r="B62" s="336"/>
-      <c r="C62" s="313" t="s">
+      <c r="B62" s="309"/>
+      <c r="C62" s="356" t="s">
         <v>28</v>
       </c>
-      <c r="D62" s="310" t="s">
+      <c r="D62" s="349" t="s">
         <v>20</v>
       </c>
-      <c r="E62" s="310"/>
-      <c r="F62" s="310"/>
+      <c r="E62" s="349"/>
+      <c r="F62" s="349"/>
       <c r="G62" s="73">
         <f>ROUND(G$61*$T63,1)</f>
         <v>38480.6</v>
@@ -31021,14 +31021,14 @@
       </c>
     </row>
     <row r="63" spans="1:21" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="335"/>
-      <c r="B63" s="336"/>
-      <c r="C63" s="313"/>
-      <c r="D63" s="310" t="s">
+      <c r="A63" s="308"/>
+      <c r="B63" s="309"/>
+      <c r="C63" s="356"/>
+      <c r="D63" s="349" t="s">
         <v>21</v>
       </c>
-      <c r="E63" s="310"/>
-      <c r="F63" s="310"/>
+      <c r="E63" s="349"/>
+      <c r="F63" s="349"/>
       <c r="G63" s="74">
         <f t="shared" ref="G63:R63" si="78">G62-G60</f>
         <v>-151224.29999999999</v>
@@ -31087,16 +31087,16 @@
       </c>
     </row>
     <row r="64" spans="1:21" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="335"/>
-      <c r="B64" s="336"/>
-      <c r="C64" s="314" t="s">
+      <c r="A64" s="308"/>
+      <c r="B64" s="309"/>
+      <c r="C64" s="357" t="s">
         <v>29</v>
       </c>
-      <c r="D64" s="311" t="s">
+      <c r="D64" s="344" t="s">
         <v>20</v>
       </c>
-      <c r="E64" s="311"/>
-      <c r="F64" s="311"/>
+      <c r="E64" s="344"/>
+      <c r="F64" s="344"/>
       <c r="G64" s="75">
         <f>ROUND(G$61*$T65,1)</f>
         <v>39023.800000000003</v>
@@ -31155,14 +31155,14 @@
       </c>
     </row>
     <row r="65" spans="1:21" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="335"/>
-      <c r="B65" s="336"/>
-      <c r="C65" s="314"/>
-      <c r="D65" s="311" t="s">
+      <c r="A65" s="308"/>
+      <c r="B65" s="309"/>
+      <c r="C65" s="357"/>
+      <c r="D65" s="344" t="s">
         <v>21</v>
       </c>
-      <c r="E65" s="311"/>
-      <c r="F65" s="311"/>
+      <c r="E65" s="344"/>
+      <c r="F65" s="344"/>
       <c r="G65" s="76">
         <f t="shared" ref="G65:R65" si="81">G64-G60</f>
         <v>-150681.09999999998</v>
@@ -31221,16 +31221,16 @@
       </c>
     </row>
     <row r="66" spans="1:21" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="335"/>
-      <c r="B66" s="336"/>
-      <c r="C66" s="315" t="s">
+      <c r="A66" s="308"/>
+      <c r="B66" s="309"/>
+      <c r="C66" s="345" t="s">
         <v>241</v>
       </c>
-      <c r="D66" s="329" t="s">
+      <c r="D66" s="320" t="s">
         <v>20</v>
       </c>
-      <c r="E66" s="329"/>
-      <c r="F66" s="329"/>
+      <c r="E66" s="320"/>
+      <c r="F66" s="320"/>
       <c r="G66" s="77">
         <f>ROUND(G$61*$T67,1)</f>
         <v>39570.300000000003</v>
@@ -31289,14 +31289,14 @@
       </c>
     </row>
     <row r="67" spans="1:21" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="337"/>
-      <c r="B67" s="338"/>
-      <c r="C67" s="315"/>
-      <c r="D67" s="329" t="s">
+      <c r="A67" s="310"/>
+      <c r="B67" s="311"/>
+      <c r="C67" s="345"/>
+      <c r="D67" s="320" t="s">
         <v>21</v>
       </c>
-      <c r="E67" s="329"/>
-      <c r="F67" s="329"/>
+      <c r="E67" s="320"/>
+      <c r="F67" s="320"/>
       <c r="G67" s="78">
         <f t="shared" ref="G67:R67" si="84">G66-G60</f>
         <v>-150134.59999999998</v>
@@ -31356,6 +31356,57 @@
     </row>
   </sheetData>
   <mergeCells count="67">
+    <mergeCell ref="C1:Q1"/>
+    <mergeCell ref="D2:M2"/>
+    <mergeCell ref="D62:F62"/>
+    <mergeCell ref="D63:F63"/>
+    <mergeCell ref="D64:F64"/>
+    <mergeCell ref="D59:F59"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="A6:T6"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="T4:T5"/>
+    <mergeCell ref="A58:T58"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="A23:A27"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="D55:F55"/>
+    <mergeCell ref="D56:F56"/>
+    <mergeCell ref="G4:S4"/>
+    <mergeCell ref="D65:F65"/>
+    <mergeCell ref="D66:F66"/>
+    <mergeCell ref="D67:F67"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="D44:F44"/>
+    <mergeCell ref="D52:F52"/>
+    <mergeCell ref="D53:F53"/>
+    <mergeCell ref="D54:F54"/>
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="B14:B22"/>
+    <mergeCell ref="C61:F61"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="A50:B57"/>
+    <mergeCell ref="A49:B49"/>
     <mergeCell ref="A62:B67"/>
     <mergeCell ref="A61:B61"/>
     <mergeCell ref="B7:B13"/>
@@ -31372,57 +31423,6 @@
     <mergeCell ref="B36:B37"/>
     <mergeCell ref="B38:B39"/>
     <mergeCell ref="B44:B45"/>
-    <mergeCell ref="B46:B48"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="B14:B22"/>
-    <mergeCell ref="C61:F61"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="A50:B57"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="G4:S4"/>
-    <mergeCell ref="D65:F65"/>
-    <mergeCell ref="D66:F66"/>
-    <mergeCell ref="D67:F67"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="D44:F44"/>
-    <mergeCell ref="D52:F52"/>
-    <mergeCell ref="D53:F53"/>
-    <mergeCell ref="D54:F54"/>
-    <mergeCell ref="T4:T5"/>
-    <mergeCell ref="A58:T58"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="A23:A27"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="D55:F55"/>
-    <mergeCell ref="D56:F56"/>
-    <mergeCell ref="C1:Q1"/>
-    <mergeCell ref="D2:M2"/>
-    <mergeCell ref="D62:F62"/>
-    <mergeCell ref="D63:F63"/>
-    <mergeCell ref="D64:F64"/>
-    <mergeCell ref="D59:F59"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="C64:C65"/>
-    <mergeCell ref="A6:T6"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="D16:F16"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" scale="41" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -31469,23 +31469,23 @@
     <row r="1" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14"/>
       <c r="B1" s="14"/>
-      <c r="C1" s="308" t="s">
+      <c r="C1" s="353" t="s">
         <v>242</v>
       </c>
-      <c r="D1" s="309"/>
-      <c r="E1" s="309"/>
-      <c r="F1" s="309"/>
-      <c r="G1" s="309"/>
-      <c r="H1" s="309"/>
-      <c r="I1" s="309"/>
-      <c r="J1" s="309"/>
-      <c r="K1" s="309"/>
-      <c r="L1" s="309"/>
-      <c r="M1" s="309"/>
-      <c r="N1" s="309"/>
-      <c r="O1" s="309"/>
-      <c r="P1" s="309"/>
-      <c r="Q1" s="309"/>
+      <c r="D1" s="354"/>
+      <c r="E1" s="354"/>
+      <c r="F1" s="354"/>
+      <c r="G1" s="354"/>
+      <c r="H1" s="354"/>
+      <c r="I1" s="354"/>
+      <c r="J1" s="354"/>
+      <c r="K1" s="354"/>
+      <c r="L1" s="354"/>
+      <c r="M1" s="354"/>
+      <c r="N1" s="354"/>
+      <c r="O1" s="354"/>
+      <c r="P1" s="354"/>
+      <c r="Q1" s="354"/>
       <c r="R1" s="14"/>
       <c r="S1" s="14"/>
     </row>
@@ -31495,23 +31495,23 @@
       <c r="C2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="360" t="s">
+      <c r="D2" s="380" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="361"/>
-      <c r="F2" s="361"/>
-      <c r="G2" s="361"/>
-      <c r="H2" s="361"/>
-      <c r="I2" s="361"/>
-      <c r="J2" s="361"/>
-      <c r="K2" s="361"/>
-      <c r="L2" s="361"/>
-      <c r="M2" s="361"/>
-      <c r="N2" s="361"/>
-      <c r="O2" s="361"/>
-      <c r="P2" s="361"/>
-      <c r="Q2" s="361"/>
-      <c r="R2" s="361"/>
+      <c r="E2" s="381"/>
+      <c r="F2" s="381"/>
+      <c r="G2" s="381"/>
+      <c r="H2" s="381"/>
+      <c r="I2" s="381"/>
+      <c r="J2" s="381"/>
+      <c r="K2" s="381"/>
+      <c r="L2" s="381"/>
+      <c r="M2" s="381"/>
+      <c r="N2" s="381"/>
+      <c r="O2" s="381"/>
+      <c r="P2" s="381"/>
+      <c r="Q2" s="381"/>
+      <c r="R2" s="381"/>
       <c r="S2" s="14"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
@@ -31536,34 +31536,34 @@
       <c r="S3" s="14"/>
     </row>
     <row r="4" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="323" t="s">
+      <c r="A4" s="351" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="323" t="s">
+      <c r="B4" s="351" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="323" t="s">
+      <c r="C4" s="351" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="324" t="s">
+      <c r="D4" s="343" t="s">
         <v>55</v>
       </c>
-      <c r="E4" s="324"/>
-      <c r="F4" s="324"/>
-      <c r="G4" s="324"/>
-      <c r="H4" s="324"/>
-      <c r="I4" s="324"/>
-      <c r="J4" s="324"/>
-      <c r="K4" s="324"/>
-      <c r="L4" s="324"/>
-      <c r="M4" s="324"/>
-      <c r="N4" s="324"/>
-      <c r="O4" s="324"/>
-      <c r="P4" s="324"/>
-      <c r="Q4" s="324"/>
-      <c r="R4" s="324"/>
-      <c r="S4" s="362"/>
-      <c r="T4" s="322" t="s">
+      <c r="E4" s="343"/>
+      <c r="F4" s="343"/>
+      <c r="G4" s="343"/>
+      <c r="H4" s="343"/>
+      <c r="I4" s="343"/>
+      <c r="J4" s="343"/>
+      <c r="K4" s="343"/>
+      <c r="L4" s="343"/>
+      <c r="M4" s="343"/>
+      <c r="N4" s="343"/>
+      <c r="O4" s="343"/>
+      <c r="P4" s="343"/>
+      <c r="Q4" s="343"/>
+      <c r="R4" s="343"/>
+      <c r="S4" s="382"/>
+      <c r="T4" s="350" t="s">
         <v>21</v>
       </c>
       <c r="U4" s="179"/>
@@ -31571,9 +31571,9 @@
       <c r="W4" s="179"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="323"/>
-      <c r="B5" s="323"/>
-      <c r="C5" s="323"/>
+      <c r="A5" s="351"/>
+      <c r="B5" s="351"/>
+      <c r="C5" s="351"/>
       <c r="D5" s="263" t="s">
         <v>28</v>
       </c>
@@ -31622,53 +31622,53 @@
       <c r="S5" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="T5" s="322"/>
+      <c r="T5" s="350"/>
       <c r="U5" s="179"/>
       <c r="V5" s="179"/>
       <c r="W5" s="179"/>
     </row>
     <row r="6" spans="1:23" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="363" t="s">
+      <c r="A6" s="383" t="s">
         <v>250</v>
       </c>
-      <c r="B6" s="364"/>
-      <c r="C6" s="364"/>
-      <c r="D6" s="364"/>
-      <c r="E6" s="364"/>
-      <c r="F6" s="364"/>
-      <c r="G6" s="364"/>
-      <c r="H6" s="364"/>
-      <c r="I6" s="364"/>
-      <c r="J6" s="364"/>
-      <c r="K6" s="364"/>
-      <c r="L6" s="364"/>
-      <c r="M6" s="364"/>
-      <c r="N6" s="364"/>
-      <c r="O6" s="364"/>
-      <c r="P6" s="364"/>
-      <c r="Q6" s="364"/>
-      <c r="R6" s="364"/>
-      <c r="S6" s="364"/>
-      <c r="T6" s="365"/>
+      <c r="B6" s="384"/>
+      <c r="C6" s="384"/>
+      <c r="D6" s="384"/>
+      <c r="E6" s="384"/>
+      <c r="F6" s="384"/>
+      <c r="G6" s="384"/>
+      <c r="H6" s="384"/>
+      <c r="I6" s="384"/>
+      <c r="J6" s="384"/>
+      <c r="K6" s="384"/>
+      <c r="L6" s="384"/>
+      <c r="M6" s="384"/>
+      <c r="N6" s="384"/>
+      <c r="O6" s="384"/>
+      <c r="P6" s="384"/>
+      <c r="Q6" s="384"/>
+      <c r="R6" s="384"/>
+      <c r="S6" s="384"/>
+      <c r="T6" s="385"/>
       <c r="U6" s="180"/>
       <c r="V6" s="180"/>
       <c r="W6" s="180"/>
     </row>
     <row r="7" spans="1:23" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="330" t="s">
+      <c r="A7" s="314" t="s">
         <v>88</v>
       </c>
-      <c r="B7" s="330" t="s">
+      <c r="B7" s="314" t="s">
         <v>112</v>
       </c>
       <c r="C7" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="D7" s="319" t="s">
+      <c r="D7" s="346" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="320"/>
-      <c r="F7" s="366"/>
+      <c r="E7" s="347"/>
+      <c r="F7" s="373"/>
       <c r="G7" s="123">
         <f>Лист1!F152</f>
         <v>253383.42709279183</v>
@@ -31727,9 +31727,9 @@
       <c r="W7" s="181"/>
     </row>
     <row r="8" spans="1:23" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="331"/>
-      <c r="B8" s="331"/>
-      <c r="C8" s="376" t="s">
+      <c r="A8" s="315"/>
+      <c r="B8" s="315"/>
+      <c r="C8" s="374" t="s">
         <v>87</v>
       </c>
       <c r="D8" s="129">
@@ -31801,9 +31801,9 @@
       </c>
     </row>
     <row r="9" spans="1:23" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="331"/>
+      <c r="A9" s="315"/>
       <c r="B9" s="200"/>
-      <c r="C9" s="377"/>
+      <c r="C9" s="375"/>
       <c r="D9" s="82"/>
       <c r="E9" s="82">
         <v>10</v>
@@ -31867,9 +31867,9 @@
       <c r="W9" s="264"/>
     </row>
     <row r="10" spans="1:23" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="331"/>
+      <c r="A10" s="315"/>
       <c r="B10" s="200"/>
-      <c r="C10" s="378"/>
+      <c r="C10" s="376"/>
       <c r="D10" s="82"/>
       <c r="E10" s="82"/>
       <c r="F10" s="82">
@@ -31933,18 +31933,18 @@
       <c r="W10" s="264"/>
     </row>
     <row r="11" spans="1:23" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="331"/>
-      <c r="B11" s="330" t="s">
+      <c r="A11" s="315"/>
+      <c r="B11" s="314" t="s">
         <v>111</v>
       </c>
       <c r="C11" s="121" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="319" t="s">
+      <c r="D11" s="346" t="s">
         <v>83</v>
       </c>
-      <c r="E11" s="320"/>
-      <c r="F11" s="321"/>
+      <c r="E11" s="347"/>
+      <c r="F11" s="348"/>
       <c r="G11" s="79">
         <f>Лист1!F165</f>
         <v>253383.42709279183</v>
@@ -32003,8 +32003,8 @@
       <c r="W11" s="181"/>
     </row>
     <row r="12" spans="1:23" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="331"/>
-      <c r="B12" s="331"/>
+      <c r="A12" s="315"/>
+      <c r="B12" s="315"/>
       <c r="C12" s="127" t="s">
         <v>84</v>
       </c>
@@ -32075,16 +32075,16 @@
       <c r="W12" s="181"/>
     </row>
     <row r="13" spans="1:23" ht="120" x14ac:dyDescent="0.25">
-      <c r="A13" s="331"/>
-      <c r="B13" s="331"/>
+      <c r="A13" s="315"/>
+      <c r="B13" s="315"/>
       <c r="C13" s="121" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="319" t="s">
+      <c r="D13" s="346" t="s">
         <v>83</v>
       </c>
-      <c r="E13" s="320"/>
-      <c r="F13" s="321"/>
+      <c r="E13" s="347"/>
+      <c r="F13" s="348"/>
       <c r="G13" s="79">
         <f>Лист1!F178</f>
         <v>253383.42709279183</v>
@@ -32143,9 +32143,9 @@
       <c r="W13" s="181"/>
     </row>
     <row r="14" spans="1:23" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="331"/>
-      <c r="B14" s="331"/>
-      <c r="C14" s="376" t="s">
+      <c r="A14" s="315"/>
+      <c r="B14" s="315"/>
+      <c r="C14" s="374" t="s">
         <v>85</v>
       </c>
       <c r="D14" s="82">
@@ -32211,9 +32211,9 @@
       <c r="W14" s="181"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A15" s="331"/>
-      <c r="B15" s="331"/>
-      <c r="C15" s="377"/>
+      <c r="A15" s="315"/>
+      <c r="B15" s="315"/>
+      <c r="C15" s="375"/>
       <c r="D15" s="265"/>
       <c r="E15" s="266">
         <v>71</v>
@@ -32277,9 +32277,9 @@
       <c r="W15" s="181"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A16" s="331"/>
-      <c r="B16" s="331"/>
-      <c r="C16" s="378"/>
+      <c r="A16" s="315"/>
+      <c r="B16" s="315"/>
+      <c r="C16" s="376"/>
       <c r="D16" s="265"/>
       <c r="E16" s="266"/>
       <c r="F16" s="267">
@@ -32343,16 +32343,16 @@
       <c r="W16" s="181"/>
     </row>
     <row r="17" spans="1:24" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="331"/>
-      <c r="B17" s="331"/>
+      <c r="A17" s="315"/>
+      <c r="B17" s="315"/>
       <c r="C17" s="121" t="s">
         <v>39</v>
       </c>
-      <c r="D17" s="319" t="s">
+      <c r="D17" s="346" t="s">
         <v>83</v>
       </c>
-      <c r="E17" s="320"/>
-      <c r="F17" s="321"/>
+      <c r="E17" s="347"/>
+      <c r="F17" s="348"/>
       <c r="G17" s="79">
         <f>Лист1!F193</f>
         <v>253383.42709279183</v>
@@ -32411,8 +32411,8 @@
       <c r="W17" s="181"/>
     </row>
     <row r="18" spans="1:24" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="331"/>
-      <c r="B18" s="331"/>
+      <c r="A18" s="315"/>
+      <c r="B18" s="315"/>
       <c r="C18" s="127" t="s">
         <v>86</v>
       </c>
@@ -32483,8 +32483,8 @@
       <c r="W18" s="181"/>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A19" s="332"/>
-      <c r="B19" s="332"/>
+      <c r="A19" s="316"/>
+      <c r="B19" s="316"/>
       <c r="C19" s="12" t="s">
         <v>58</v>
       </c>
@@ -32699,16 +32699,16 @@
       <c r="W21" s="264"/>
     </row>
     <row r="22" spans="1:24" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="367" t="s">
+      <c r="A22" s="364" t="s">
         <v>249</v>
       </c>
-      <c r="B22" s="368"/>
-      <c r="C22" s="349" t="s">
+      <c r="B22" s="365"/>
+      <c r="C22" s="324" t="s">
         <v>66</v>
       </c>
-      <c r="D22" s="349"/>
-      <c r="E22" s="349"/>
-      <c r="F22" s="349"/>
+      <c r="D22" s="324"/>
+      <c r="E22" s="324"/>
+      <c r="F22" s="324"/>
       <c r="G22" s="113">
         <f>G8+G19</f>
         <v>30152.6</v>
@@ -32767,14 +32767,14 @@
       <c r="W22" s="181"/>
     </row>
     <row r="23" spans="1:24" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="369"/>
-      <c r="B23" s="370"/>
-      <c r="C23" s="349" t="s">
+      <c r="A23" s="366"/>
+      <c r="B23" s="367"/>
+      <c r="C23" s="324" t="s">
         <v>67</v>
       </c>
-      <c r="D23" s="349"/>
-      <c r="E23" s="349"/>
-      <c r="F23" s="349"/>
+      <c r="D23" s="324"/>
+      <c r="E23" s="324"/>
+      <c r="F23" s="324"/>
       <c r="G23" s="113">
         <f>G9+G20</f>
         <v>30152.5</v>
@@ -32833,14 +32833,14 @@
       <c r="W23" s="181"/>
     </row>
     <row r="24" spans="1:24" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="369"/>
-      <c r="B24" s="370"/>
-      <c r="C24" s="349" t="s">
+      <c r="A24" s="366"/>
+      <c r="B24" s="367"/>
+      <c r="C24" s="324" t="s">
         <v>238</v>
       </c>
-      <c r="D24" s="349"/>
-      <c r="E24" s="349"/>
-      <c r="F24" s="349"/>
+      <c r="D24" s="324"/>
+      <c r="E24" s="324"/>
+      <c r="F24" s="324"/>
       <c r="G24" s="113">
         <f>G10+G21</f>
         <v>30405.899999999998</v>
@@ -32899,16 +32899,16 @@
       <c r="W24" s="181"/>
     </row>
     <row r="25" spans="1:24" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="369"/>
-      <c r="B25" s="370"/>
-      <c r="C25" s="313" t="s">
+      <c r="A25" s="366"/>
+      <c r="B25" s="367"/>
+      <c r="C25" s="356" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="310" t="s">
+      <c r="D25" s="349" t="s">
         <v>20</v>
       </c>
-      <c r="E25" s="310"/>
-      <c r="F25" s="310"/>
+      <c r="E25" s="349"/>
+      <c r="F25" s="349"/>
       <c r="G25" s="130">
         <f>ROUND(G$22*$T26,1)</f>
         <v>12549.4</v>
@@ -32969,14 +32969,14 @@
       <c r="W25" s="182"/>
     </row>
     <row r="26" spans="1:24" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="369"/>
-      <c r="B26" s="370"/>
-      <c r="C26" s="313"/>
-      <c r="D26" s="373" t="s">
+      <c r="A26" s="366"/>
+      <c r="B26" s="367"/>
+      <c r="C26" s="356"/>
+      <c r="D26" s="370" t="s">
         <v>21</v>
       </c>
-      <c r="E26" s="373"/>
-      <c r="F26" s="373"/>
+      <c r="E26" s="370"/>
+      <c r="F26" s="370"/>
       <c r="G26" s="143">
         <f>G25-G22</f>
         <v>-17603.199999999997</v>
@@ -33038,16 +33038,16 @@
       <c r="W26" s="183"/>
     </row>
     <row r="27" spans="1:24" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="369"/>
-      <c r="B27" s="370"/>
-      <c r="C27" s="314" t="s">
+      <c r="A27" s="366"/>
+      <c r="B27" s="367"/>
+      <c r="C27" s="357" t="s">
         <v>29</v>
       </c>
-      <c r="D27" s="311" t="s">
+      <c r="D27" s="344" t="s">
         <v>20</v>
       </c>
-      <c r="E27" s="311"/>
-      <c r="F27" s="311"/>
+      <c r="E27" s="344"/>
+      <c r="F27" s="344"/>
       <c r="G27" s="131">
         <f>ROUND(G$23*$T28,1)</f>
         <v>12797.4</v>
@@ -33108,14 +33108,14 @@
       <c r="W27" s="184"/>
     </row>
     <row r="28" spans="1:24" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="369"/>
-      <c r="B28" s="370"/>
-      <c r="C28" s="314"/>
-      <c r="D28" s="374" t="s">
+      <c r="A28" s="366"/>
+      <c r="B28" s="367"/>
+      <c r="C28" s="357"/>
+      <c r="D28" s="371" t="s">
         <v>21</v>
       </c>
-      <c r="E28" s="374"/>
-      <c r="F28" s="374"/>
+      <c r="E28" s="371"/>
+      <c r="F28" s="371"/>
       <c r="G28" s="145">
         <f>G27-G23</f>
         <v>-17355.099999999999</v>
@@ -33177,16 +33177,16 @@
       <c r="W28" s="184"/>
     </row>
     <row r="29" spans="1:24" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="369"/>
-      <c r="B29" s="370"/>
-      <c r="C29" s="315" t="s">
+      <c r="A29" s="366"/>
+      <c r="B29" s="367"/>
+      <c r="C29" s="345" t="s">
         <v>241</v>
       </c>
-      <c r="D29" s="329" t="s">
+      <c r="D29" s="320" t="s">
         <v>20</v>
       </c>
-      <c r="E29" s="329"/>
-      <c r="F29" s="329"/>
+      <c r="E29" s="320"/>
+      <c r="F29" s="320"/>
       <c r="G29" s="132">
         <f>ROUND(G$24*$T30,1)</f>
         <v>12933.7</v>
@@ -33247,14 +33247,14 @@
       <c r="W29" s="185"/>
     </row>
     <row r="30" spans="1:24" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="371"/>
-      <c r="B30" s="372"/>
-      <c r="C30" s="315"/>
-      <c r="D30" s="375" t="s">
+      <c r="A30" s="368"/>
+      <c r="B30" s="369"/>
+      <c r="C30" s="345"/>
+      <c r="D30" s="372" t="s">
         <v>21</v>
       </c>
-      <c r="E30" s="375"/>
-      <c r="F30" s="375"/>
+      <c r="E30" s="372"/>
+      <c r="F30" s="372"/>
       <c r="G30" s="147">
         <f>G29-G24</f>
         <v>-17472.199999999997</v>
@@ -33316,47 +33316,47 @@
       <c r="W30" s="185"/>
     </row>
     <row r="31" spans="1:24" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="357" t="s">
+      <c r="A31" s="377" t="s">
         <v>246</v>
       </c>
-      <c r="B31" s="358"/>
-      <c r="C31" s="358"/>
-      <c r="D31" s="358"/>
-      <c r="E31" s="358"/>
-      <c r="F31" s="358"/>
-      <c r="G31" s="358"/>
-      <c r="H31" s="358"/>
-      <c r="I31" s="358"/>
-      <c r="J31" s="358"/>
-      <c r="K31" s="358"/>
-      <c r="L31" s="358"/>
-      <c r="M31" s="358"/>
-      <c r="N31" s="358"/>
-      <c r="O31" s="358"/>
-      <c r="P31" s="358"/>
-      <c r="Q31" s="358"/>
-      <c r="R31" s="358"/>
-      <c r="S31" s="358"/>
-      <c r="T31" s="359"/>
+      <c r="B31" s="378"/>
+      <c r="C31" s="378"/>
+      <c r="D31" s="378"/>
+      <c r="E31" s="378"/>
+      <c r="F31" s="378"/>
+      <c r="G31" s="378"/>
+      <c r="H31" s="378"/>
+      <c r="I31" s="378"/>
+      <c r="J31" s="378"/>
+      <c r="K31" s="378"/>
+      <c r="L31" s="378"/>
+      <c r="M31" s="378"/>
+      <c r="N31" s="378"/>
+      <c r="O31" s="378"/>
+      <c r="P31" s="378"/>
+      <c r="Q31" s="378"/>
+      <c r="R31" s="378"/>
+      <c r="S31" s="378"/>
+      <c r="T31" s="379"/>
       <c r="U31" s="186"/>
       <c r="V31" s="186"/>
       <c r="W31" s="186"/>
     </row>
     <row r="32" spans="1:24" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="330" t="s">
+      <c r="A32" s="314" t="s">
         <v>89</v>
       </c>
-      <c r="B32" s="330" t="s">
+      <c r="B32" s="314" t="s">
         <v>102</v>
       </c>
       <c r="C32" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D32" s="319" t="s">
+      <c r="D32" s="346" t="s">
         <v>83</v>
       </c>
-      <c r="E32" s="320"/>
-      <c r="F32" s="321"/>
+      <c r="E32" s="347"/>
+      <c r="F32" s="348"/>
       <c r="G32" s="79">
         <f>Лист1!F136</f>
         <v>253383.42709279183</v>
@@ -33415,8 +33415,8 @@
       <c r="W32" s="181"/>
     </row>
     <row r="33" spans="1:24" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="332"/>
-      <c r="B33" s="332"/>
+      <c r="A33" s="316"/>
+      <c r="B33" s="316"/>
       <c r="C33" s="13" t="s">
         <v>90</v>
       </c>
@@ -33487,16 +33487,16 @@
       <c r="W33" s="181"/>
     </row>
     <row r="34" spans="1:24" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="367" t="s">
+      <c r="A34" s="364" t="s">
         <v>245</v>
       </c>
-      <c r="B34" s="368"/>
-      <c r="C34" s="349" t="s">
+      <c r="B34" s="365"/>
+      <c r="C34" s="324" t="s">
         <v>65</v>
       </c>
-      <c r="D34" s="349"/>
-      <c r="E34" s="349"/>
-      <c r="F34" s="349"/>
+      <c r="D34" s="324"/>
+      <c r="E34" s="324"/>
+      <c r="F34" s="324"/>
       <c r="G34" s="113">
         <f>G33</f>
         <v>30406</v>
@@ -33555,16 +33555,16 @@
       <c r="W34" s="181"/>
     </row>
     <row r="35" spans="1:24" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="369"/>
-      <c r="B35" s="370"/>
-      <c r="C35" s="313" t="s">
+      <c r="A35" s="366"/>
+      <c r="B35" s="367"/>
+      <c r="C35" s="356" t="s">
         <v>28</v>
       </c>
-      <c r="D35" s="310" t="s">
+      <c r="D35" s="349" t="s">
         <v>20</v>
       </c>
-      <c r="E35" s="310"/>
-      <c r="F35" s="310"/>
+      <c r="E35" s="349"/>
+      <c r="F35" s="349"/>
       <c r="G35" s="130">
         <f t="shared" ref="G35:Q35" si="65">ROUND(G$34*$T36,1)</f>
         <v>6668</v>
@@ -33628,14 +33628,14 @@
       </c>
     </row>
     <row r="36" spans="1:24" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="369"/>
-      <c r="B36" s="370"/>
-      <c r="C36" s="313"/>
-      <c r="D36" s="373" t="s">
+      <c r="A36" s="366"/>
+      <c r="B36" s="367"/>
+      <c r="C36" s="356"/>
+      <c r="D36" s="370" t="s">
         <v>21</v>
       </c>
-      <c r="E36" s="373"/>
-      <c r="F36" s="373"/>
+      <c r="E36" s="370"/>
+      <c r="F36" s="370"/>
       <c r="G36" s="30">
         <f>G35-G33</f>
         <v>-23738</v>
@@ -33696,16 +33696,16 @@
       <c r="W36" s="183"/>
     </row>
     <row r="37" spans="1:24" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="369"/>
-      <c r="B37" s="370"/>
-      <c r="C37" s="314" t="s">
+      <c r="A37" s="366"/>
+      <c r="B37" s="367"/>
+      <c r="C37" s="357" t="s">
         <v>29</v>
       </c>
-      <c r="D37" s="311" t="s">
+      <c r="D37" s="344" t="s">
         <v>20</v>
       </c>
-      <c r="E37" s="311"/>
-      <c r="F37" s="311"/>
+      <c r="E37" s="344"/>
+      <c r="F37" s="344"/>
       <c r="G37" s="150">
         <f>ROUND(G$34*$T38,1)</f>
         <v>6681.8</v>
@@ -33766,14 +33766,14 @@
       <c r="W37" s="184"/>
     </row>
     <row r="38" spans="1:24" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="369"/>
-      <c r="B38" s="370"/>
-      <c r="C38" s="314"/>
-      <c r="D38" s="374" t="s">
+      <c r="A38" s="366"/>
+      <c r="B38" s="367"/>
+      <c r="C38" s="357"/>
+      <c r="D38" s="371" t="s">
         <v>21</v>
       </c>
-      <c r="E38" s="374"/>
-      <c r="F38" s="374"/>
+      <c r="E38" s="371"/>
+      <c r="F38" s="371"/>
       <c r="G38" s="99">
         <f>G37-G33</f>
         <v>-23724.2</v>
@@ -33835,16 +33835,16 @@
       <c r="W38" s="184"/>
     </row>
     <row r="39" spans="1:24" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="369"/>
-      <c r="B39" s="370"/>
-      <c r="C39" s="315" t="s">
+      <c r="A39" s="366"/>
+      <c r="B39" s="367"/>
+      <c r="C39" s="345" t="s">
         <v>241</v>
       </c>
-      <c r="D39" s="329" t="s">
+      <c r="D39" s="320" t="s">
         <v>20</v>
       </c>
-      <c r="E39" s="329"/>
-      <c r="F39" s="329"/>
+      <c r="E39" s="320"/>
+      <c r="F39" s="320"/>
       <c r="G39" s="152">
         <f>ROUND(G$34*$T40,1)</f>
         <v>6695.7</v>
@@ -33905,14 +33905,14 @@
       <c r="W39" s="185"/>
     </row>
     <row r="40" spans="1:24" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="371"/>
-      <c r="B40" s="372"/>
-      <c r="C40" s="315"/>
-      <c r="D40" s="375" t="s">
+      <c r="A40" s="368"/>
+      <c r="B40" s="369"/>
+      <c r="C40" s="345"/>
+      <c r="D40" s="372" t="s">
         <v>21</v>
       </c>
-      <c r="E40" s="375"/>
-      <c r="F40" s="375"/>
+      <c r="E40" s="372"/>
+      <c r="F40" s="372"/>
       <c r="G40" s="101">
         <f>G39-G33</f>
         <v>-23710.3</v>
@@ -33974,43 +33974,43 @@
       <c r="W40" s="185"/>
     </row>
     <row r="41" spans="1:24" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="379"/>
-      <c r="B41" s="380"/>
-      <c r="C41" s="380"/>
-      <c r="D41" s="380"/>
-      <c r="E41" s="380"/>
-      <c r="F41" s="380"/>
-      <c r="G41" s="380"/>
-      <c r="H41" s="380"/>
-      <c r="I41" s="380"/>
-      <c r="J41" s="380"/>
-      <c r="K41" s="380"/>
-      <c r="L41" s="380"/>
-      <c r="M41" s="380"/>
-      <c r="N41" s="380"/>
-      <c r="O41" s="380"/>
-      <c r="P41" s="380"/>
-      <c r="Q41" s="380"/>
-      <c r="R41" s="380"/>
-      <c r="S41" s="380"/>
-      <c r="T41" s="381"/>
+      <c r="A41" s="361"/>
+      <c r="B41" s="362"/>
+      <c r="C41" s="362"/>
+      <c r="D41" s="362"/>
+      <c r="E41" s="362"/>
+      <c r="F41" s="362"/>
+      <c r="G41" s="362"/>
+      <c r="H41" s="362"/>
+      <c r="I41" s="362"/>
+      <c r="J41" s="362"/>
+      <c r="K41" s="362"/>
+      <c r="L41" s="362"/>
+      <c r="M41" s="362"/>
+      <c r="N41" s="362"/>
+      <c r="O41" s="362"/>
+      <c r="P41" s="362"/>
+      <c r="Q41" s="362"/>
+      <c r="R41" s="362"/>
+      <c r="S41" s="362"/>
+      <c r="T41" s="363"/>
       <c r="U41" s="185"/>
       <c r="V41" s="185"/>
       <c r="W41" s="185"/>
     </row>
     <row r="42" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A42" s="330" t="s">
+      <c r="A42" s="314" t="s">
         <v>240</v>
       </c>
-      <c r="B42" s="330"/>
+      <c r="B42" s="314"/>
       <c r="C42" s="201" t="s">
         <v>30</v>
       </c>
-      <c r="D42" s="319" t="s">
+      <c r="D42" s="346" t="s">
         <v>83</v>
       </c>
-      <c r="E42" s="320"/>
-      <c r="F42" s="321"/>
+      <c r="E42" s="347"/>
+      <c r="F42" s="348"/>
       <c r="G42" s="79"/>
       <c r="H42" s="79"/>
       <c r="I42" s="79"/>
@@ -34030,8 +34030,8 @@
       <c r="T42" s="16"/>
     </row>
     <row r="43" spans="1:24" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="332"/>
-      <c r="B43" s="332"/>
+      <c r="A43" s="316"/>
+      <c r="B43" s="316"/>
       <c r="C43" s="13" t="s">
         <v>90</v>
       </c>
@@ -34099,16 +34099,16 @@
       <c r="T43" s="16"/>
     </row>
     <row r="44" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A44" s="367" t="s">
+      <c r="A44" s="364" t="s">
         <v>91</v>
       </c>
-      <c r="B44" s="368"/>
-      <c r="C44" s="349" t="s">
+      <c r="B44" s="365"/>
+      <c r="C44" s="324" t="s">
         <v>65</v>
       </c>
-      <c r="D44" s="349"/>
-      <c r="E44" s="349"/>
-      <c r="F44" s="349"/>
+      <c r="D44" s="324"/>
+      <c r="E44" s="324"/>
+      <c r="F44" s="324"/>
       <c r="G44" s="113">
         <f>G43</f>
         <v>0</v>
@@ -34164,16 +34164,16 @@
       <c r="T44" s="16"/>
     </row>
     <row r="45" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A45" s="369"/>
-      <c r="B45" s="370"/>
-      <c r="C45" s="313" t="s">
+      <c r="A45" s="366"/>
+      <c r="B45" s="367"/>
+      <c r="C45" s="356" t="s">
         <v>28</v>
       </c>
-      <c r="D45" s="310" t="s">
+      <c r="D45" s="349" t="s">
         <v>20</v>
       </c>
-      <c r="E45" s="310"/>
-      <c r="F45" s="310"/>
+      <c r="E45" s="349"/>
+      <c r="F45" s="349"/>
       <c r="G45" s="130" t="e">
         <f t="shared" ref="G45" si="91">ROUND(G$34*$T46,1)</f>
         <v>#DIV/0!</v>
@@ -34226,14 +34226,14 @@
       <c r="T45" s="29"/>
     </row>
     <row r="46" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A46" s="369"/>
-      <c r="B46" s="370"/>
-      <c r="C46" s="313"/>
-      <c r="D46" s="373" t="s">
+      <c r="A46" s="366"/>
+      <c r="B46" s="367"/>
+      <c r="C46" s="356"/>
+      <c r="D46" s="370" t="s">
         <v>21</v>
       </c>
-      <c r="E46" s="373"/>
-      <c r="F46" s="373"/>
+      <c r="E46" s="370"/>
+      <c r="F46" s="370"/>
       <c r="G46" s="30" t="e">
         <f>G45-G43</f>
         <v>#DIV/0!</v>
@@ -34292,16 +34292,16 @@
       </c>
     </row>
     <row r="47" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A47" s="369"/>
-      <c r="B47" s="370"/>
-      <c r="C47" s="314" t="s">
+      <c r="A47" s="366"/>
+      <c r="B47" s="367"/>
+      <c r="C47" s="357" t="s">
         <v>29</v>
       </c>
-      <c r="D47" s="311" t="s">
+      <c r="D47" s="344" t="s">
         <v>20</v>
       </c>
-      <c r="E47" s="311"/>
-      <c r="F47" s="311"/>
+      <c r="E47" s="344"/>
+      <c r="F47" s="344"/>
       <c r="G47" s="150" t="e">
         <f>ROUND(G$34*$T48,1)</f>
         <v>#DIV/0!</v>
@@ -34354,14 +34354,14 @@
       <c r="T47" s="88"/>
     </row>
     <row r="48" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A48" s="369"/>
-      <c r="B48" s="370"/>
-      <c r="C48" s="314"/>
-      <c r="D48" s="374" t="s">
+      <c r="A48" s="366"/>
+      <c r="B48" s="367"/>
+      <c r="C48" s="357"/>
+      <c r="D48" s="371" t="s">
         <v>21</v>
       </c>
-      <c r="E48" s="374"/>
-      <c r="F48" s="374"/>
+      <c r="E48" s="371"/>
+      <c r="F48" s="371"/>
       <c r="G48" s="99" t="e">
         <f>G47-G43</f>
         <v>#DIV/0!</v>
@@ -34420,16 +34420,16 @@
       </c>
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A49" s="369"/>
-      <c r="B49" s="370"/>
-      <c r="C49" s="315" t="s">
+      <c r="A49" s="366"/>
+      <c r="B49" s="367"/>
+      <c r="C49" s="345" t="s">
         <v>241</v>
       </c>
-      <c r="D49" s="329" t="s">
+      <c r="D49" s="320" t="s">
         <v>20</v>
       </c>
-      <c r="E49" s="329"/>
-      <c r="F49" s="329"/>
+      <c r="E49" s="320"/>
+      <c r="F49" s="320"/>
       <c r="G49" s="152" t="e">
         <f>ROUND(G$34*$T50,1)</f>
         <v>#DIV/0!</v>
@@ -34482,14 +34482,14 @@
       <c r="T49" s="91"/>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A50" s="371"/>
-      <c r="B50" s="372"/>
-      <c r="C50" s="315"/>
-      <c r="D50" s="375" t="s">
+      <c r="A50" s="368"/>
+      <c r="B50" s="369"/>
+      <c r="C50" s="345"/>
+      <c r="D50" s="372" t="s">
         <v>21</v>
       </c>
-      <c r="E50" s="375"/>
-      <c r="F50" s="375"/>
+      <c r="E50" s="372"/>
+      <c r="F50" s="372"/>
       <c r="G50" s="101" t="e">
         <f>G49-G43</f>
         <v>#DIV/0!</v>
@@ -34549,35 +34549,22 @@
     </row>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="A41:T41"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="D42:F42"/>
-    <mergeCell ref="A44:B50"/>
-    <mergeCell ref="C44:F44"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="D45:F45"/>
-    <mergeCell ref="D46:F46"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="D47:F47"/>
-    <mergeCell ref="D48:F48"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="D49:F49"/>
-    <mergeCell ref="D50:F50"/>
-    <mergeCell ref="D39:F39"/>
-    <mergeCell ref="D40:F40"/>
-    <mergeCell ref="A34:B40"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="A31:T31"/>
+    <mergeCell ref="C1:Q1"/>
+    <mergeCell ref="D2:R2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="G4:S4"/>
+    <mergeCell ref="T4:T5"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="A6:T6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B11:B19"/>
+    <mergeCell ref="A7:A19"/>
     <mergeCell ref="D7:F7"/>
     <mergeCell ref="A22:B30"/>
     <mergeCell ref="C22:F22"/>
@@ -34594,22 +34581,35 @@
     <mergeCell ref="C23:F23"/>
     <mergeCell ref="C24:F24"/>
     <mergeCell ref="C14:C16"/>
-    <mergeCell ref="A31:T31"/>
-    <mergeCell ref="C1:Q1"/>
-    <mergeCell ref="D2:R2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="G4:S4"/>
-    <mergeCell ref="T4:T5"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="A6:T6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B11:B19"/>
-    <mergeCell ref="A7:A19"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="D40:F40"/>
+    <mergeCell ref="A34:B40"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="A41:T41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="D42:F42"/>
+    <mergeCell ref="A44:B50"/>
+    <mergeCell ref="C44:F44"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="D45:F45"/>
+    <mergeCell ref="D46:F46"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="D47:F47"/>
+    <mergeCell ref="D48:F48"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="D49:F49"/>
+    <mergeCell ref="D50:F50"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="8" scale="36" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -34660,23 +34660,23 @@
     <row r="1" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14"/>
       <c r="B1" s="14"/>
-      <c r="C1" s="308" t="s">
+      <c r="C1" s="353" t="s">
         <v>242</v>
       </c>
-      <c r="D1" s="309"/>
-      <c r="E1" s="309"/>
-      <c r="F1" s="309"/>
-      <c r="G1" s="309"/>
-      <c r="H1" s="309"/>
-      <c r="I1" s="309"/>
-      <c r="J1" s="309"/>
-      <c r="K1" s="309"/>
-      <c r="L1" s="309"/>
-      <c r="M1" s="309"/>
-      <c r="N1" s="309"/>
-      <c r="O1" s="309"/>
-      <c r="P1" s="309"/>
-      <c r="Q1" s="309"/>
+      <c r="D1" s="354"/>
+      <c r="E1" s="354"/>
+      <c r="F1" s="354"/>
+      <c r="G1" s="354"/>
+      <c r="H1" s="354"/>
+      <c r="I1" s="354"/>
+      <c r="J1" s="354"/>
+      <c r="K1" s="354"/>
+      <c r="L1" s="354"/>
+      <c r="M1" s="354"/>
+      <c r="N1" s="354"/>
+      <c r="O1" s="354"/>
+      <c r="P1" s="354"/>
+      <c r="Q1" s="354"/>
       <c r="R1" s="14"/>
       <c r="S1" s="14"/>
     </row>
@@ -34686,61 +34686,61 @@
       <c r="C2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="360" t="s">
+      <c r="D2" s="380" t="s">
         <v>40</v>
       </c>
-      <c r="E2" s="361"/>
-      <c r="F2" s="361"/>
-      <c r="G2" s="361"/>
-      <c r="H2" s="361"/>
-      <c r="I2" s="361"/>
-      <c r="J2" s="361"/>
-      <c r="K2" s="361"/>
-      <c r="L2" s="361"/>
-      <c r="M2" s="361"/>
-      <c r="N2" s="361"/>
-      <c r="O2" s="361"/>
-      <c r="P2" s="361"/>
-      <c r="Q2" s="361"/>
-      <c r="R2" s="361"/>
+      <c r="E2" s="381"/>
+      <c r="F2" s="381"/>
+      <c r="G2" s="381"/>
+      <c r="H2" s="381"/>
+      <c r="I2" s="381"/>
+      <c r="J2" s="381"/>
+      <c r="K2" s="381"/>
+      <c r="L2" s="381"/>
+      <c r="M2" s="381"/>
+      <c r="N2" s="381"/>
+      <c r="O2" s="381"/>
+      <c r="P2" s="381"/>
+      <c r="Q2" s="381"/>
+      <c r="R2" s="381"/>
       <c r="S2" s="14"/>
     </row>
     <row r="3" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="323" t="s">
+      <c r="A3" s="351" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="323" t="s">
+      <c r="B3" s="351" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="323" t="s">
+      <c r="C3" s="351" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="324" t="s">
+      <c r="D3" s="343" t="s">
         <v>55</v>
       </c>
-      <c r="E3" s="324"/>
-      <c r="F3" s="324"/>
-      <c r="G3" s="324"/>
-      <c r="H3" s="324"/>
-      <c r="I3" s="324"/>
-      <c r="J3" s="324"/>
-      <c r="K3" s="324"/>
-      <c r="L3" s="324"/>
-      <c r="M3" s="324"/>
-      <c r="N3" s="324"/>
-      <c r="O3" s="324"/>
-      <c r="P3" s="324"/>
-      <c r="Q3" s="324"/>
-      <c r="R3" s="324"/>
-      <c r="S3" s="324"/>
-      <c r="T3" s="353" t="s">
+      <c r="E3" s="343"/>
+      <c r="F3" s="343"/>
+      <c r="G3" s="343"/>
+      <c r="H3" s="343"/>
+      <c r="I3" s="343"/>
+      <c r="J3" s="343"/>
+      <c r="K3" s="343"/>
+      <c r="L3" s="343"/>
+      <c r="M3" s="343"/>
+      <c r="N3" s="343"/>
+      <c r="O3" s="343"/>
+      <c r="P3" s="343"/>
+      <c r="Q3" s="343"/>
+      <c r="R3" s="343"/>
+      <c r="S3" s="343"/>
+      <c r="T3" s="328" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="323"/>
-      <c r="B4" s="323"/>
-      <c r="C4" s="323"/>
+      <c r="A4" s="351"/>
+      <c r="B4" s="351"/>
+      <c r="C4" s="351"/>
       <c r="D4" s="263" t="s">
         <v>28</v>
       </c>
@@ -34789,45 +34789,45 @@
       <c r="S4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="T4" s="353"/>
+      <c r="T4" s="328"/>
     </row>
     <row r="5" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="363" t="s">
+      <c r="A5" s="383" t="s">
         <v>247</v>
       </c>
-      <c r="B5" s="364"/>
-      <c r="C5" s="364"/>
-      <c r="D5" s="364"/>
-      <c r="E5" s="364"/>
-      <c r="F5" s="364"/>
-      <c r="G5" s="364"/>
-      <c r="H5" s="364"/>
-      <c r="I5" s="364"/>
-      <c r="J5" s="364"/>
-      <c r="K5" s="364"/>
-      <c r="L5" s="364"/>
-      <c r="M5" s="364"/>
-      <c r="N5" s="364"/>
-      <c r="O5" s="364"/>
-      <c r="P5" s="364"/>
-      <c r="Q5" s="364"/>
-      <c r="R5" s="364"/>
-      <c r="S5" s="364"/>
-      <c r="T5" s="365"/>
+      <c r="B5" s="384"/>
+      <c r="C5" s="384"/>
+      <c r="D5" s="384"/>
+      <c r="E5" s="384"/>
+      <c r="F5" s="384"/>
+      <c r="G5" s="384"/>
+      <c r="H5" s="384"/>
+      <c r="I5" s="384"/>
+      <c r="J5" s="384"/>
+      <c r="K5" s="384"/>
+      <c r="L5" s="384"/>
+      <c r="M5" s="384"/>
+      <c r="N5" s="384"/>
+      <c r="O5" s="384"/>
+      <c r="P5" s="384"/>
+      <c r="Q5" s="384"/>
+      <c r="R5" s="384"/>
+      <c r="S5" s="384"/>
+      <c r="T5" s="385"/>
     </row>
     <row r="6" spans="1:21" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="353" t="s">
+      <c r="A6" s="328" t="s">
         <v>94</v>
       </c>
-      <c r="B6" s="353"/>
+      <c r="B6" s="328"/>
       <c r="C6" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="319" t="s">
+      <c r="D6" s="346" t="s">
         <v>41</v>
       </c>
-      <c r="E6" s="320"/>
-      <c r="F6" s="321"/>
+      <c r="E6" s="347"/>
+      <c r="F6" s="348"/>
       <c r="G6" s="79">
         <f>Лист1!F204</f>
         <v>303441.42</v>
@@ -34884,8 +34884,8 @@
       <c r="U6" s="187"/>
     </row>
     <row r="7" spans="1:21" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="353"/>
-      <c r="B7" s="353"/>
+      <c r="A7" s="328"/>
+      <c r="B7" s="328"/>
       <c r="C7" s="13" t="s">
         <v>70</v>
       </c>
@@ -34953,20 +34953,20 @@
       <c r="T7" s="158"/>
     </row>
     <row r="8" spans="1:21" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="330" t="s">
+      <c r="A8" s="314" t="s">
         <v>42</v>
       </c>
-      <c r="B8" s="353" t="s">
+      <c r="B8" s="328" t="s">
         <v>111</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="319" t="s">
+      <c r="D8" s="346" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="320"/>
-      <c r="F8" s="321"/>
+      <c r="E8" s="347"/>
+      <c r="F8" s="348"/>
       <c r="G8" s="79">
         <f>Лист1!F123</f>
         <v>253383.42709279183</v>
@@ -35023,8 +35023,8 @@
       <c r="U8" s="187"/>
     </row>
     <row r="9" spans="1:21" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="332"/>
-      <c r="B9" s="353"/>
+      <c r="A9" s="316"/>
+      <c r="B9" s="328"/>
       <c r="C9" s="13" t="s">
         <v>70</v>
       </c>
@@ -35092,18 +35092,18 @@
       <c r="T9" s="158"/>
     </row>
     <row r="10" spans="1:21" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="330" t="s">
+      <c r="A10" s="314" t="s">
         <v>44</v>
       </c>
-      <c r="B10" s="330"/>
+      <c r="B10" s="314"/>
       <c r="C10" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="319" t="s">
+      <c r="D10" s="346" t="s">
         <v>45</v>
       </c>
-      <c r="E10" s="320"/>
-      <c r="F10" s="321"/>
+      <c r="E10" s="347"/>
+      <c r="F10" s="348"/>
       <c r="G10" s="79">
         <f>Лист1!F205</f>
         <v>2366014.98</v>
@@ -35159,8 +35159,8 @@
       <c r="T10" s="158"/>
     </row>
     <row r="11" spans="1:21" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="332"/>
-      <c r="B11" s="332"/>
+      <c r="A11" s="316"/>
+      <c r="B11" s="316"/>
       <c r="C11" s="13" t="s">
         <v>70</v>
       </c>
@@ -35229,16 +35229,16 @@
       <c r="U11" s="187"/>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" s="367" t="s">
+      <c r="A12" s="364" t="s">
         <v>244</v>
       </c>
-      <c r="B12" s="368"/>
-      <c r="C12" s="349" t="s">
+      <c r="B12" s="365"/>
+      <c r="C12" s="324" t="s">
         <v>93</v>
       </c>
-      <c r="D12" s="349"/>
-      <c r="E12" s="349"/>
-      <c r="F12" s="349"/>
+      <c r="D12" s="324"/>
+      <c r="E12" s="324"/>
+      <c r="F12" s="324"/>
       <c r="G12" s="113">
         <f>G11+G9+G7</f>
         <v>152845.70000000001</v>
@@ -35294,16 +35294,16 @@
       <c r="T12" s="158"/>
     </row>
     <row r="13" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="369"/>
-      <c r="B13" s="370"/>
-      <c r="C13" s="313" t="s">
+      <c r="A13" s="366"/>
+      <c r="B13" s="367"/>
+      <c r="C13" s="356" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="310" t="s">
+      <c r="D13" s="349" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="310"/>
-      <c r="F13" s="310"/>
+      <c r="E13" s="349"/>
+      <c r="F13" s="349"/>
       <c r="G13" s="130">
         <f>ROUND(G$12*$T14,1)</f>
         <v>147692.6</v>
@@ -35362,14 +35362,14 @@
       </c>
     </row>
     <row r="14" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="369"/>
-      <c r="B14" s="370"/>
-      <c r="C14" s="313"/>
-      <c r="D14" s="373" t="s">
+      <c r="A14" s="366"/>
+      <c r="B14" s="367"/>
+      <c r="C14" s="356"/>
+      <c r="D14" s="370" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="373"/>
-      <c r="F14" s="373"/>
+      <c r="E14" s="370"/>
+      <c r="F14" s="370"/>
       <c r="G14" s="97">
         <f>G13-G12</f>
         <v>-5153.1000000000058</v>
@@ -35428,16 +35428,16 @@
       </c>
     </row>
     <row r="15" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="369"/>
-      <c r="B15" s="370"/>
-      <c r="C15" s="314" t="s">
+      <c r="A15" s="366"/>
+      <c r="B15" s="367"/>
+      <c r="C15" s="357" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="311" t="s">
+      <c r="D15" s="344" t="s">
         <v>20</v>
       </c>
-      <c r="E15" s="311"/>
-      <c r="F15" s="311"/>
+      <c r="E15" s="344"/>
+      <c r="F15" s="344"/>
       <c r="G15" s="98">
         <f>ROUND(G$12*$T16,1)</f>
         <v>149025.60000000001</v>
@@ -35496,14 +35496,14 @@
       </c>
     </row>
     <row r="16" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="369"/>
-      <c r="B16" s="370"/>
-      <c r="C16" s="314"/>
-      <c r="D16" s="374" t="s">
+      <c r="A16" s="366"/>
+      <c r="B16" s="367"/>
+      <c r="C16" s="357"/>
+      <c r="D16" s="371" t="s">
         <v>21</v>
       </c>
-      <c r="E16" s="374"/>
-      <c r="F16" s="374"/>
+      <c r="E16" s="371"/>
+      <c r="F16" s="371"/>
       <c r="G16" s="98">
         <f>G15-G12</f>
         <v>-3820.1000000000058</v>
@@ -35562,16 +35562,16 @@
       </c>
     </row>
     <row r="17" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="369"/>
-      <c r="B17" s="370"/>
-      <c r="C17" s="315" t="s">
+      <c r="A17" s="366"/>
+      <c r="B17" s="367"/>
+      <c r="C17" s="345" t="s">
         <v>241</v>
       </c>
-      <c r="D17" s="329" t="s">
+      <c r="D17" s="320" t="s">
         <v>20</v>
       </c>
-      <c r="E17" s="329"/>
-      <c r="F17" s="329"/>
+      <c r="E17" s="320"/>
+      <c r="F17" s="320"/>
       <c r="G17" s="100">
         <f>ROUND(G$12*$T18,1)</f>
         <v>150900.20000000001</v>
@@ -35630,14 +35630,14 @@
       </c>
     </row>
     <row r="18" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="371"/>
-      <c r="B18" s="372"/>
-      <c r="C18" s="315"/>
-      <c r="D18" s="375" t="s">
+      <c r="A18" s="368"/>
+      <c r="B18" s="369"/>
+      <c r="C18" s="345"/>
+      <c r="D18" s="372" t="s">
         <v>21</v>
       </c>
-      <c r="E18" s="375"/>
-      <c r="F18" s="375"/>
+      <c r="E18" s="372"/>
+      <c r="F18" s="372"/>
       <c r="G18" s="100">
         <f>G17-G12</f>
         <v>-1945.5</v>
@@ -35696,44 +35696,44 @@
       </c>
     </row>
     <row r="19" spans="1:21" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="382" t="s">
+      <c r="A19" s="386" t="s">
         <v>248</v>
       </c>
-      <c r="B19" s="383"/>
-      <c r="C19" s="383"/>
-      <c r="D19" s="383"/>
-      <c r="E19" s="383"/>
-      <c r="F19" s="383"/>
-      <c r="G19" s="383"/>
-      <c r="H19" s="383"/>
-      <c r="I19" s="383"/>
-      <c r="J19" s="383"/>
-      <c r="K19" s="383"/>
-      <c r="L19" s="383"/>
-      <c r="M19" s="383"/>
-      <c r="N19" s="383"/>
-      <c r="O19" s="383"/>
-      <c r="P19" s="383"/>
-      <c r="Q19" s="383"/>
-      <c r="R19" s="383"/>
-      <c r="S19" s="383"/>
-      <c r="T19" s="384"/>
+      <c r="B19" s="387"/>
+      <c r="C19" s="387"/>
+      <c r="D19" s="387"/>
+      <c r="E19" s="387"/>
+      <c r="F19" s="387"/>
+      <c r="G19" s="387"/>
+      <c r="H19" s="387"/>
+      <c r="I19" s="387"/>
+      <c r="J19" s="387"/>
+      <c r="K19" s="387"/>
+      <c r="L19" s="387"/>
+      <c r="M19" s="387"/>
+      <c r="N19" s="387"/>
+      <c r="O19" s="387"/>
+      <c r="P19" s="387"/>
+      <c r="Q19" s="387"/>
+      <c r="R19" s="387"/>
+      <c r="S19" s="387"/>
+      <c r="T19" s="388"/>
     </row>
     <row r="20" spans="1:21" ht="105" x14ac:dyDescent="0.25">
-      <c r="A20" s="330" t="s">
+      <c r="A20" s="314" t="s">
         <v>92</v>
       </c>
-      <c r="B20" s="353" t="s">
+      <c r="B20" s="328" t="s">
         <v>113</v>
       </c>
       <c r="C20" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D20" s="319" t="s">
+      <c r="D20" s="346" t="s">
         <v>36</v>
       </c>
-      <c r="E20" s="320"/>
-      <c r="F20" s="321"/>
+      <c r="E20" s="347"/>
+      <c r="F20" s="348"/>
       <c r="G20" s="79">
         <f>Лист1!F178</f>
         <v>253383.42709279183</v>
@@ -35789,8 +35789,8 @@
       <c r="T20" s="64"/>
     </row>
     <row r="21" spans="1:21" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="332"/>
-      <c r="B21" s="353"/>
+      <c r="A21" s="316"/>
+      <c r="B21" s="328"/>
       <c r="C21" s="13" t="s">
         <v>70</v>
       </c>
@@ -35858,16 +35858,16 @@
       <c r="T21" s="64"/>
     </row>
     <row r="22" spans="1:21" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="367" t="s">
+      <c r="A22" s="364" t="s">
         <v>243</v>
       </c>
-      <c r="B22" s="368"/>
-      <c r="C22" s="349" t="s">
+      <c r="B22" s="365"/>
+      <c r="C22" s="324" t="s">
         <v>93</v>
       </c>
-      <c r="D22" s="349"/>
-      <c r="E22" s="349"/>
-      <c r="F22" s="349"/>
+      <c r="D22" s="324"/>
+      <c r="E22" s="324"/>
+      <c r="F22" s="324"/>
       <c r="G22" s="163">
         <f>G21</f>
         <v>4054.1</v>
@@ -35923,16 +35923,16 @@
       <c r="T22" s="64"/>
     </row>
     <row r="23" spans="1:21" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="369"/>
-      <c r="B23" s="370"/>
-      <c r="C23" s="313" t="s">
+      <c r="A23" s="366"/>
+      <c r="B23" s="367"/>
+      <c r="C23" s="356" t="s">
         <v>28</v>
       </c>
-      <c r="D23" s="310" t="s">
+      <c r="D23" s="349" t="s">
         <v>20</v>
       </c>
-      <c r="E23" s="310"/>
-      <c r="F23" s="310"/>
+      <c r="E23" s="349"/>
+      <c r="F23" s="349"/>
       <c r="G23" s="130">
         <f>ROUND(G$22*$T24,1)</f>
         <v>413.9</v>
@@ -35991,14 +35991,14 @@
       </c>
     </row>
     <row r="24" spans="1:21" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="369"/>
-      <c r="B24" s="370"/>
-      <c r="C24" s="313"/>
-      <c r="D24" s="373" t="s">
+      <c r="A24" s="366"/>
+      <c r="B24" s="367"/>
+      <c r="C24" s="356"/>
+      <c r="D24" s="370" t="s">
         <v>21</v>
       </c>
-      <c r="E24" s="373"/>
-      <c r="F24" s="373"/>
+      <c r="E24" s="370"/>
+      <c r="F24" s="370"/>
       <c r="G24" s="10">
         <f>G23-G21</f>
         <v>-3640.2</v>
@@ -36057,16 +36057,16 @@
       </c>
     </row>
     <row r="25" spans="1:21" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="369"/>
-      <c r="B25" s="370"/>
-      <c r="C25" s="314" t="s">
+      <c r="A25" s="366"/>
+      <c r="B25" s="367"/>
+      <c r="C25" s="357" t="s">
         <v>29</v>
       </c>
-      <c r="D25" s="311" t="s">
+      <c r="D25" s="344" t="s">
         <v>20</v>
       </c>
-      <c r="E25" s="311"/>
-      <c r="F25" s="311"/>
+      <c r="E25" s="344"/>
+      <c r="F25" s="344"/>
       <c r="G25" s="65">
         <f>ROUND(G$22*$T26,1)</f>
         <v>417.2</v>
@@ -36125,14 +36125,14 @@
       </c>
     </row>
     <row r="26" spans="1:21" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="369"/>
-      <c r="B26" s="370"/>
-      <c r="C26" s="314"/>
-      <c r="D26" s="374" t="s">
+      <c r="A26" s="366"/>
+      <c r="B26" s="367"/>
+      <c r="C26" s="357"/>
+      <c r="D26" s="371" t="s">
         <v>21</v>
       </c>
-      <c r="E26" s="374"/>
-      <c r="F26" s="374"/>
+      <c r="E26" s="371"/>
+      <c r="F26" s="371"/>
       <c r="G26" s="65">
         <f>G25-G21</f>
         <v>-3636.9</v>
@@ -36191,16 +36191,16 @@
       </c>
     </row>
     <row r="27" spans="1:21" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="369"/>
-      <c r="B27" s="370"/>
-      <c r="C27" s="315" t="s">
+      <c r="A27" s="366"/>
+      <c r="B27" s="367"/>
+      <c r="C27" s="345" t="s">
         <v>241</v>
       </c>
-      <c r="D27" s="329" t="s">
+      <c r="D27" s="320" t="s">
         <v>20</v>
       </c>
-      <c r="E27" s="329"/>
-      <c r="F27" s="329"/>
+      <c r="E27" s="320"/>
+      <c r="F27" s="320"/>
       <c r="G27" s="67">
         <f>ROUND(G$22*$T28,1)</f>
         <v>420.5</v>
@@ -36259,14 +36259,14 @@
       </c>
     </row>
     <row r="28" spans="1:21" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="371"/>
-      <c r="B28" s="372"/>
-      <c r="C28" s="315"/>
-      <c r="D28" s="375" t="s">
+      <c r="A28" s="368"/>
+      <c r="B28" s="369"/>
+      <c r="C28" s="345"/>
+      <c r="D28" s="372" t="s">
         <v>21</v>
       </c>
-      <c r="E28" s="375"/>
-      <c r="F28" s="375"/>
+      <c r="E28" s="372"/>
+      <c r="F28" s="372"/>
       <c r="G28" s="67">
         <f>G27-G21</f>
         <v>-3633.6</v>
@@ -36331,27 +36331,13 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="A22:B28"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="A12:B18"/>
     <mergeCell ref="C1:Q1"/>
     <mergeCell ref="D2:R2"/>
     <mergeCell ref="D3:F3"/>
@@ -36368,13 +36354,27 @@
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="A5:T5"/>
-    <mergeCell ref="A22:B28"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="A12:B18"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="A20:A21"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" scale="41" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -36418,23 +36418,23 @@
     <row r="1" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="172"/>
       <c r="B1" s="172"/>
-      <c r="C1" s="308" t="s">
+      <c r="C1" s="353" t="s">
         <v>242</v>
       </c>
-      <c r="D1" s="309"/>
-      <c r="E1" s="309"/>
-      <c r="F1" s="309"/>
-      <c r="G1" s="309"/>
-      <c r="H1" s="309"/>
-      <c r="I1" s="309"/>
-      <c r="J1" s="309"/>
-      <c r="K1" s="309"/>
-      <c r="L1" s="309"/>
-      <c r="M1" s="309"/>
-      <c r="N1" s="309"/>
-      <c r="O1" s="309"/>
-      <c r="P1" s="309"/>
-      <c r="Q1" s="309"/>
+      <c r="D1" s="354"/>
+      <c r="E1" s="354"/>
+      <c r="F1" s="354"/>
+      <c r="G1" s="354"/>
+      <c r="H1" s="354"/>
+      <c r="I1" s="354"/>
+      <c r="J1" s="354"/>
+      <c r="K1" s="354"/>
+      <c r="L1" s="354"/>
+      <c r="M1" s="354"/>
+      <c r="N1" s="354"/>
+      <c r="O1" s="354"/>
+      <c r="P1" s="354"/>
+      <c r="Q1" s="354"/>
       <c r="R1" s="172"/>
       <c r="S1" s="172"/>
       <c r="T1" s="172"/>
@@ -36445,22 +36445,22 @@
       <c r="C2" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="412" t="s">
+      <c r="D2" s="402" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="412"/>
-      <c r="F2" s="412"/>
-      <c r="G2" s="413"/>
-      <c r="H2" s="413"/>
-      <c r="I2" s="413"/>
-      <c r="J2" s="413"/>
-      <c r="K2" s="413"/>
-      <c r="L2" s="413"/>
-      <c r="M2" s="413"/>
-      <c r="N2" s="413"/>
-      <c r="O2" s="413"/>
-      <c r="P2" s="413"/>
-      <c r="Q2" s="413"/>
+      <c r="E2" s="402"/>
+      <c r="F2" s="402"/>
+      <c r="G2" s="403"/>
+      <c r="H2" s="403"/>
+      <c r="I2" s="403"/>
+      <c r="J2" s="403"/>
+      <c r="K2" s="403"/>
+      <c r="L2" s="403"/>
+      <c r="M2" s="403"/>
+      <c r="N2" s="403"/>
+      <c r="O2" s="403"/>
+      <c r="P2" s="403"/>
+      <c r="Q2" s="403"/>
       <c r="R2" s="42"/>
       <c r="S2" s="42"/>
       <c r="T2" s="42"/>
@@ -36488,41 +36488,41 @@
       <c r="T3" s="42"/>
     </row>
     <row r="4" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="401" t="s">
+      <c r="A4" s="390" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="401" t="s">
+      <c r="B4" s="390" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="401" t="s">
+      <c r="C4" s="390" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="402" t="s">
+      <c r="D4" s="391" t="s">
         <v>55</v>
       </c>
-      <c r="E4" s="402"/>
-      <c r="F4" s="402"/>
-      <c r="G4" s="402"/>
-      <c r="H4" s="402"/>
-      <c r="I4" s="402"/>
-      <c r="J4" s="402"/>
-      <c r="K4" s="402"/>
-      <c r="L4" s="402"/>
-      <c r="M4" s="402"/>
-      <c r="N4" s="402"/>
-      <c r="O4" s="402"/>
-      <c r="P4" s="402"/>
-      <c r="Q4" s="402"/>
-      <c r="R4" s="402"/>
-      <c r="S4" s="402"/>
-      <c r="T4" s="400" t="s">
+      <c r="E4" s="391"/>
+      <c r="F4" s="391"/>
+      <c r="G4" s="391"/>
+      <c r="H4" s="391"/>
+      <c r="I4" s="391"/>
+      <c r="J4" s="391"/>
+      <c r="K4" s="391"/>
+      <c r="L4" s="391"/>
+      <c r="M4" s="391"/>
+      <c r="N4" s="391"/>
+      <c r="O4" s="391"/>
+      <c r="P4" s="391"/>
+      <c r="Q4" s="391"/>
+      <c r="R4" s="391"/>
+      <c r="S4" s="391"/>
+      <c r="T4" s="389" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="401"/>
-      <c r="B5" s="401"/>
-      <c r="C5" s="401"/>
+      <c r="A5" s="390"/>
+      <c r="B5" s="390"/>
+      <c r="C5" s="390"/>
       <c r="D5" s="263" t="s">
         <v>28</v>
       </c>
@@ -36571,47 +36571,47 @@
       <c r="S5" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="T5" s="400"/>
+      <c r="T5" s="389"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A6" s="415" t="s">
+      <c r="A6" s="405" t="s">
         <v>81</v>
       </c>
-      <c r="B6" s="416"/>
-      <c r="C6" s="416"/>
-      <c r="D6" s="416"/>
-      <c r="E6" s="416"/>
-      <c r="F6" s="416"/>
-      <c r="G6" s="416"/>
-      <c r="H6" s="416"/>
-      <c r="I6" s="416"/>
-      <c r="J6" s="416"/>
-      <c r="K6" s="416"/>
-      <c r="L6" s="416"/>
-      <c r="M6" s="416"/>
-      <c r="N6" s="416"/>
-      <c r="O6" s="416"/>
-      <c r="P6" s="416"/>
-      <c r="Q6" s="416"/>
-      <c r="R6" s="416"/>
-      <c r="S6" s="416"/>
-      <c r="T6" s="417"/>
+      <c r="B6" s="406"/>
+      <c r="C6" s="406"/>
+      <c r="D6" s="406"/>
+      <c r="E6" s="406"/>
+      <c r="F6" s="406"/>
+      <c r="G6" s="406"/>
+      <c r="H6" s="406"/>
+      <c r="I6" s="406"/>
+      <c r="J6" s="406"/>
+      <c r="K6" s="406"/>
+      <c r="L6" s="406"/>
+      <c r="M6" s="406"/>
+      <c r="N6" s="406"/>
+      <c r="O6" s="406"/>
+      <c r="P6" s="406"/>
+      <c r="Q6" s="406"/>
+      <c r="R6" s="406"/>
+      <c r="S6" s="406"/>
+      <c r="T6" s="407"/>
     </row>
     <row r="7" spans="1:21" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="403" t="s">
+      <c r="A7" s="392" t="s">
         <v>47</v>
       </c>
-      <c r="B7" s="406" t="s">
+      <c r="B7" s="395" t="s">
         <v>48</v>
       </c>
       <c r="C7" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="D7" s="385" t="s">
+      <c r="D7" s="408" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="386"/>
-      <c r="F7" s="387"/>
+      <c r="E7" s="409"/>
+      <c r="F7" s="410"/>
       <c r="G7" s="21">
         <f>Лист1!F15</f>
         <v>1325.2</v>
@@ -36667,9 +36667,9 @@
       <c r="T7" s="39"/>
     </row>
     <row r="8" spans="1:21" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="404"/>
-      <c r="B8" s="407"/>
-      <c r="C8" s="409" t="s">
+      <c r="A8" s="393"/>
+      <c r="B8" s="396"/>
+      <c r="C8" s="398" t="s">
         <v>49</v>
       </c>
       <c r="D8" s="166">
@@ -36732,9 +36732,9 @@
       <c r="T8" s="39"/>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A9" s="404"/>
-      <c r="B9" s="407"/>
-      <c r="C9" s="410"/>
+      <c r="A9" s="393"/>
+      <c r="B9" s="396"/>
+      <c r="C9" s="399"/>
       <c r="D9" s="166"/>
       <c r="E9" s="166">
         <v>87900</v>
@@ -36795,9 +36795,9 @@
       <c r="T9" s="39"/>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A10" s="405"/>
-      <c r="B10" s="408"/>
-      <c r="C10" s="411"/>
+      <c r="A10" s="394"/>
+      <c r="B10" s="397"/>
+      <c r="C10" s="400"/>
       <c r="D10" s="166"/>
       <c r="E10" s="166"/>
       <c r="F10" s="166">
@@ -36858,16 +36858,16 @@
       <c r="T10" s="39"/>
     </row>
     <row r="11" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="388" t="s">
+      <c r="A11" s="411" t="s">
         <v>73</v>
       </c>
-      <c r="B11" s="389"/>
-      <c r="C11" s="394" t="s">
+      <c r="B11" s="412"/>
+      <c r="C11" s="401" t="s">
         <v>66</v>
       </c>
-      <c r="D11" s="394"/>
-      <c r="E11" s="394"/>
-      <c r="F11" s="394"/>
+      <c r="D11" s="401"/>
+      <c r="E11" s="401"/>
+      <c r="F11" s="401"/>
       <c r="G11" s="39">
         <f t="shared" ref="G11:R11" si="4">G8</f>
         <v>114550.3</v>
@@ -36923,14 +36923,14 @@
       <c r="T11" s="39"/>
     </row>
     <row r="12" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="390"/>
-      <c r="B12" s="391"/>
-      <c r="C12" s="394" t="s">
+      <c r="A12" s="413"/>
+      <c r="B12" s="414"/>
+      <c r="C12" s="401" t="s">
         <v>67</v>
       </c>
-      <c r="D12" s="394"/>
-      <c r="E12" s="394"/>
-      <c r="F12" s="394"/>
+      <c r="D12" s="401"/>
+      <c r="E12" s="401"/>
+      <c r="F12" s="401"/>
       <c r="G12" s="39">
         <f>G9</f>
         <v>116485.1</v>
@@ -36986,14 +36986,14 @@
       <c r="T12" s="39"/>
     </row>
     <row r="13" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="390"/>
-      <c r="B13" s="391"/>
-      <c r="C13" s="394" t="s">
+      <c r="A13" s="413"/>
+      <c r="B13" s="414"/>
+      <c r="C13" s="401" t="s">
         <v>238</v>
       </c>
-      <c r="D13" s="394"/>
-      <c r="E13" s="394"/>
-      <c r="F13" s="394"/>
+      <c r="D13" s="401"/>
+      <c r="E13" s="401"/>
+      <c r="F13" s="401"/>
       <c r="G13" s="39">
         <f>G10</f>
         <v>116485.1</v>
@@ -37049,16 +37049,16 @@
       <c r="T13" s="39"/>
     </row>
     <row r="14" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="390"/>
-      <c r="B14" s="391"/>
-      <c r="C14" s="313" t="s">
+      <c r="A14" s="413"/>
+      <c r="B14" s="414"/>
+      <c r="C14" s="356" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="395" t="s">
+      <c r="D14" s="417" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="395"/>
-      <c r="F14" s="395"/>
+      <c r="E14" s="417"/>
+      <c r="F14" s="417"/>
       <c r="G14" s="130">
         <f>ROUND(G$11*$T15,1)</f>
         <v>103052.2</v>
@@ -37117,14 +37117,14 @@
       </c>
     </row>
     <row r="15" spans="1:21" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="390"/>
-      <c r="B15" s="391"/>
-      <c r="C15" s="313"/>
-      <c r="D15" s="396" t="s">
+      <c r="A15" s="413"/>
+      <c r="B15" s="414"/>
+      <c r="C15" s="356"/>
+      <c r="D15" s="418" t="s">
         <v>21</v>
       </c>
-      <c r="E15" s="396"/>
-      <c r="F15" s="396"/>
+      <c r="E15" s="418"/>
+      <c r="F15" s="418"/>
       <c r="G15" s="31">
         <f t="shared" ref="G15:Q15" si="10">G14-G11</f>
         <v>-11498.100000000006</v>
@@ -37183,16 +37183,16 @@
       </c>
     </row>
     <row r="16" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="390"/>
-      <c r="B16" s="391"/>
-      <c r="C16" s="314" t="s">
+      <c r="A16" s="413"/>
+      <c r="B16" s="414"/>
+      <c r="C16" s="357" t="s">
         <v>29</v>
       </c>
-      <c r="D16" s="397" t="s">
+      <c r="D16" s="419" t="s">
         <v>20</v>
       </c>
-      <c r="E16" s="397"/>
-      <c r="F16" s="397"/>
+      <c r="E16" s="419"/>
+      <c r="F16" s="419"/>
       <c r="G16" s="86">
         <f>ROUND(G$12*$T17,1)</f>
         <v>104995.9</v>
@@ -37251,14 +37251,14 @@
       </c>
     </row>
     <row r="17" spans="1:256" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="390"/>
-      <c r="B17" s="391"/>
-      <c r="C17" s="314"/>
-      <c r="D17" s="398" t="s">
+      <c r="A17" s="413"/>
+      <c r="B17" s="414"/>
+      <c r="C17" s="357"/>
+      <c r="D17" s="420" t="s">
         <v>21</v>
       </c>
-      <c r="E17" s="398"/>
-      <c r="F17" s="398"/>
+      <c r="E17" s="420"/>
+      <c r="F17" s="420"/>
       <c r="G17" s="86">
         <f>G16-G12</f>
         <v>-11489.200000000012</v>
@@ -37317,16 +37317,16 @@
       </c>
     </row>
     <row r="18" spans="1:256" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="390"/>
-      <c r="B18" s="391"/>
-      <c r="C18" s="315" t="s">
+      <c r="A18" s="413"/>
+      <c r="B18" s="414"/>
+      <c r="C18" s="345" t="s">
         <v>241</v>
       </c>
-      <c r="D18" s="399" t="s">
+      <c r="D18" s="421" t="s">
         <v>20</v>
       </c>
-      <c r="E18" s="399"/>
-      <c r="F18" s="399"/>
+      <c r="E18" s="421"/>
+      <c r="F18" s="421"/>
       <c r="G18" s="89">
         <f>ROUND(G$13*$T19,1)</f>
         <v>106796.8</v>
@@ -37385,14 +37385,14 @@
       </c>
     </row>
     <row r="19" spans="1:256" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="392"/>
-      <c r="B19" s="393"/>
-      <c r="C19" s="315"/>
-      <c r="D19" s="414" t="s">
+      <c r="A19" s="415"/>
+      <c r="B19" s="416"/>
+      <c r="C19" s="345"/>
+      <c r="D19" s="404" t="s">
         <v>21</v>
       </c>
-      <c r="E19" s="414"/>
-      <c r="F19" s="414"/>
+      <c r="E19" s="404"/>
+      <c r="F19" s="404"/>
       <c r="G19" s="89">
         <f>G18-G13</f>
         <v>-9688.3000000000029</v>
@@ -37752,6 +37752,16 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="A11:B19"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C16:C17"/>
     <mergeCell ref="C1:Q1"/>
     <mergeCell ref="C18:C19"/>
     <mergeCell ref="T4:T5"/>
@@ -37768,16 +37778,6 @@
     <mergeCell ref="D2:Q2"/>
     <mergeCell ref="D19:F19"/>
     <mergeCell ref="A6:T6"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="A11:B19"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="C16:C17"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="42" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -37822,23 +37822,23 @@
     <row r="1" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="46"/>
       <c r="B1" s="46"/>
-      <c r="C1" s="308" t="s">
+      <c r="C1" s="353" t="s">
         <v>242</v>
       </c>
-      <c r="D1" s="309"/>
-      <c r="E1" s="309"/>
-      <c r="F1" s="309"/>
-      <c r="G1" s="309"/>
-      <c r="H1" s="309"/>
-      <c r="I1" s="309"/>
-      <c r="J1" s="309"/>
-      <c r="K1" s="309"/>
-      <c r="L1" s="309"/>
-      <c r="M1" s="309"/>
-      <c r="N1" s="309"/>
-      <c r="O1" s="309"/>
-      <c r="P1" s="309"/>
-      <c r="Q1" s="309"/>
+      <c r="D1" s="354"/>
+      <c r="E1" s="354"/>
+      <c r="F1" s="354"/>
+      <c r="G1" s="354"/>
+      <c r="H1" s="354"/>
+      <c r="I1" s="354"/>
+      <c r="J1" s="354"/>
+      <c r="K1" s="354"/>
+      <c r="L1" s="354"/>
+      <c r="M1" s="354"/>
+      <c r="N1" s="354"/>
+      <c r="O1" s="354"/>
+      <c r="P1" s="354"/>
+      <c r="Q1" s="354"/>
       <c r="R1" s="46"/>
       <c r="S1" s="46"/>
       <c r="T1" s="46"/>
@@ -37849,25 +37849,25 @@
       <c r="C2" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="418" t="s">
+      <c r="D2" s="422" t="s">
         <v>50</v>
       </c>
-      <c r="E2" s="418"/>
-      <c r="F2" s="418"/>
-      <c r="G2" s="419"/>
-      <c r="H2" s="419"/>
-      <c r="I2" s="419"/>
-      <c r="J2" s="419"/>
-      <c r="K2" s="419"/>
-      <c r="L2" s="419"/>
-      <c r="M2" s="419"/>
-      <c r="N2" s="419"/>
-      <c r="O2" s="419"/>
-      <c r="P2" s="419"/>
-      <c r="Q2" s="419"/>
-      <c r="R2" s="419"/>
-      <c r="S2" s="419"/>
-      <c r="T2" s="419"/>
+      <c r="E2" s="422"/>
+      <c r="F2" s="422"/>
+      <c r="G2" s="423"/>
+      <c r="H2" s="423"/>
+      <c r="I2" s="423"/>
+      <c r="J2" s="423"/>
+      <c r="K2" s="423"/>
+      <c r="L2" s="423"/>
+      <c r="M2" s="423"/>
+      <c r="N2" s="423"/>
+      <c r="O2" s="423"/>
+      <c r="P2" s="423"/>
+      <c r="Q2" s="423"/>
+      <c r="R2" s="423"/>
+      <c r="S2" s="423"/>
+      <c r="T2" s="423"/>
     </row>
     <row r="3" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="46"/>
@@ -37892,41 +37892,41 @@
       <c r="T3" s="49"/>
     </row>
     <row r="4" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="401" t="s">
+      <c r="A4" s="390" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="401" t="s">
+      <c r="B4" s="390" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="401" t="s">
+      <c r="C4" s="390" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="402" t="s">
+      <c r="D4" s="391" t="s">
         <v>55</v>
       </c>
-      <c r="E4" s="402"/>
-      <c r="F4" s="402"/>
-      <c r="G4" s="402"/>
-      <c r="H4" s="402"/>
-      <c r="I4" s="402"/>
-      <c r="J4" s="402"/>
-      <c r="K4" s="402"/>
-      <c r="L4" s="402"/>
-      <c r="M4" s="402"/>
-      <c r="N4" s="402"/>
-      <c r="O4" s="402"/>
-      <c r="P4" s="402"/>
-      <c r="Q4" s="402"/>
-      <c r="R4" s="402"/>
-      <c r="S4" s="402"/>
-      <c r="T4" s="400" t="s">
+      <c r="E4" s="391"/>
+      <c r="F4" s="391"/>
+      <c r="G4" s="391"/>
+      <c r="H4" s="391"/>
+      <c r="I4" s="391"/>
+      <c r="J4" s="391"/>
+      <c r="K4" s="391"/>
+      <c r="L4" s="391"/>
+      <c r="M4" s="391"/>
+      <c r="N4" s="391"/>
+      <c r="O4" s="391"/>
+      <c r="P4" s="391"/>
+      <c r="Q4" s="391"/>
+      <c r="R4" s="391"/>
+      <c r="S4" s="391"/>
+      <c r="T4" s="389" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="401"/>
-      <c r="B5" s="401"/>
-      <c r="C5" s="401"/>
+      <c r="A5" s="390"/>
+      <c r="B5" s="390"/>
+      <c r="C5" s="390"/>
       <c r="D5" s="263" t="s">
         <v>28</v>
       </c>
@@ -37975,47 +37975,47 @@
       <c r="S5" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="T5" s="400"/>
+      <c r="T5" s="389"/>
     </row>
     <row r="6" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="415" t="s">
+      <c r="A6" s="405" t="s">
         <v>81</v>
       </c>
-      <c r="B6" s="416"/>
-      <c r="C6" s="416"/>
-      <c r="D6" s="416"/>
-      <c r="E6" s="416"/>
-      <c r="F6" s="416"/>
-      <c r="G6" s="416"/>
-      <c r="H6" s="416"/>
-      <c r="I6" s="416"/>
-      <c r="J6" s="416"/>
-      <c r="K6" s="416"/>
-      <c r="L6" s="416"/>
-      <c r="M6" s="416"/>
-      <c r="N6" s="416"/>
-      <c r="O6" s="416"/>
-      <c r="P6" s="416"/>
-      <c r="Q6" s="416"/>
-      <c r="R6" s="416"/>
-      <c r="S6" s="416"/>
-      <c r="T6" s="417"/>
+      <c r="B6" s="406"/>
+      <c r="C6" s="406"/>
+      <c r="D6" s="406"/>
+      <c r="E6" s="406"/>
+      <c r="F6" s="406"/>
+      <c r="G6" s="406"/>
+      <c r="H6" s="406"/>
+      <c r="I6" s="406"/>
+      <c r="J6" s="406"/>
+      <c r="K6" s="406"/>
+      <c r="L6" s="406"/>
+      <c r="M6" s="406"/>
+      <c r="N6" s="406"/>
+      <c r="O6" s="406"/>
+      <c r="P6" s="406"/>
+      <c r="Q6" s="406"/>
+      <c r="R6" s="406"/>
+      <c r="S6" s="406"/>
+      <c r="T6" s="407"/>
     </row>
     <row r="7" spans="1:21" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="403" t="s">
+      <c r="A7" s="392" t="s">
         <v>47</v>
       </c>
-      <c r="B7" s="406" t="s">
+      <c r="B7" s="395" t="s">
         <v>114</v>
       </c>
       <c r="C7" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="D7" s="385" t="s">
+      <c r="D7" s="408" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="386"/>
-      <c r="F7" s="387"/>
+      <c r="E7" s="409"/>
+      <c r="F7" s="410"/>
       <c r="G7" s="175">
         <f>Лист1!F15</f>
         <v>1325.2</v>
@@ -38071,9 +38071,9 @@
       <c r="T7" s="34"/>
     </row>
     <row r="8" spans="1:21" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="404"/>
-      <c r="B8" s="407"/>
-      <c r="C8" s="409" t="s">
+      <c r="A8" s="393"/>
+      <c r="B8" s="396"/>
+      <c r="C8" s="398" t="s">
         <v>49</v>
       </c>
       <c r="D8" s="166">
@@ -38136,9 +38136,9 @@
       <c r="T8" s="34"/>
     </row>
     <row r="9" spans="1:21" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="404"/>
-      <c r="B9" s="407"/>
-      <c r="C9" s="410"/>
+      <c r="A9" s="393"/>
+      <c r="B9" s="396"/>
+      <c r="C9" s="399"/>
       <c r="D9" s="166"/>
       <c r="E9" s="166">
         <v>69423</v>
@@ -38199,9 +38199,9 @@
       <c r="T9" s="34"/>
     </row>
     <row r="10" spans="1:21" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="405"/>
-      <c r="B10" s="408"/>
-      <c r="C10" s="411"/>
+      <c r="A10" s="394"/>
+      <c r="B10" s="397"/>
+      <c r="C10" s="400"/>
       <c r="D10" s="166"/>
       <c r="E10" s="166"/>
       <c r="F10" s="166">
@@ -38262,16 +38262,16 @@
       <c r="T10" s="34"/>
     </row>
     <row r="11" spans="1:21" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="388" t="s">
+      <c r="A11" s="411" t="s">
         <v>91</v>
       </c>
-      <c r="B11" s="389"/>
-      <c r="C11" s="394" t="s">
+      <c r="B11" s="412"/>
+      <c r="C11" s="401" t="s">
         <v>66</v>
       </c>
-      <c r="D11" s="394"/>
-      <c r="E11" s="394"/>
-      <c r="F11" s="394"/>
+      <c r="D11" s="401"/>
+      <c r="E11" s="401"/>
+      <c r="F11" s="401"/>
       <c r="G11" s="39">
         <f t="shared" ref="G11:R13" si="4">G8</f>
         <v>90753.7</v>
@@ -38327,14 +38327,14 @@
       <c r="T11" s="28"/>
     </row>
     <row r="12" spans="1:21" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="390"/>
-      <c r="B12" s="391"/>
-      <c r="C12" s="394" t="s">
+      <c r="A12" s="413"/>
+      <c r="B12" s="414"/>
+      <c r="C12" s="401" t="s">
         <v>67</v>
       </c>
-      <c r="D12" s="394"/>
-      <c r="E12" s="394"/>
-      <c r="F12" s="394"/>
+      <c r="D12" s="401"/>
+      <c r="E12" s="401"/>
+      <c r="F12" s="401"/>
       <c r="G12" s="39">
         <f>G9</f>
         <v>91999.4</v>
@@ -38390,14 +38390,14 @@
       <c r="T12" s="28"/>
     </row>
     <row r="13" spans="1:21" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="390"/>
-      <c r="B13" s="391"/>
-      <c r="C13" s="394" t="s">
+      <c r="A13" s="413"/>
+      <c r="B13" s="414"/>
+      <c r="C13" s="401" t="s">
         <v>238</v>
       </c>
-      <c r="D13" s="394"/>
-      <c r="E13" s="394"/>
-      <c r="F13" s="394"/>
+      <c r="D13" s="401"/>
+      <c r="E13" s="401"/>
+      <c r="F13" s="401"/>
       <c r="G13" s="39">
         <f>G10</f>
         <v>91999.4</v>
@@ -38453,16 +38453,16 @@
       <c r="T13" s="28"/>
     </row>
     <row r="14" spans="1:21" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="390"/>
-      <c r="B14" s="391"/>
-      <c r="C14" s="313" t="s">
+      <c r="A14" s="413"/>
+      <c r="B14" s="414"/>
+      <c r="C14" s="356" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="395" t="s">
+      <c r="D14" s="417" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="395"/>
-      <c r="F14" s="395"/>
+      <c r="E14" s="417"/>
+      <c r="F14" s="417"/>
       <c r="G14" s="130">
         <f>ROUND(G$11*$T15,1)</f>
         <v>81631.899999999994</v>
@@ -38521,14 +38521,14 @@
       </c>
     </row>
     <row r="15" spans="1:21" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="390"/>
-      <c r="B15" s="391"/>
-      <c r="C15" s="313"/>
-      <c r="D15" s="396" t="s">
+      <c r="A15" s="413"/>
+      <c r="B15" s="414"/>
+      <c r="C15" s="356"/>
+      <c r="D15" s="418" t="s">
         <v>21</v>
       </c>
-      <c r="E15" s="396"/>
-      <c r="F15" s="396"/>
+      <c r="E15" s="418"/>
+      <c r="F15" s="418"/>
       <c r="G15" s="31">
         <f t="shared" ref="G15:Q15" si="7">G14-G11</f>
         <v>-9121.8000000000029</v>
@@ -38587,16 +38587,16 @@
       </c>
     </row>
     <row r="16" spans="1:21" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="390"/>
-      <c r="B16" s="391"/>
-      <c r="C16" s="314" t="s">
+      <c r="A16" s="413"/>
+      <c r="B16" s="414"/>
+      <c r="C16" s="357" t="s">
         <v>29</v>
       </c>
-      <c r="D16" s="397" t="s">
+      <c r="D16" s="419" t="s">
         <v>20</v>
       </c>
-      <c r="E16" s="397"/>
-      <c r="F16" s="397"/>
+      <c r="E16" s="419"/>
+      <c r="F16" s="419"/>
       <c r="G16" s="86">
         <f>ROUND(G$12*$T17,1)</f>
         <v>82883.600000000006</v>
@@ -38655,14 +38655,14 @@
       </c>
     </row>
     <row r="17" spans="1:21" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="390"/>
-      <c r="B17" s="391"/>
-      <c r="C17" s="314"/>
-      <c r="D17" s="398" t="s">
+      <c r="A17" s="413"/>
+      <c r="B17" s="414"/>
+      <c r="C17" s="357"/>
+      <c r="D17" s="420" t="s">
         <v>21</v>
       </c>
-      <c r="E17" s="398"/>
-      <c r="F17" s="398"/>
+      <c r="E17" s="420"/>
+      <c r="F17" s="420"/>
       <c r="G17" s="86">
         <f>G16-G12</f>
         <v>-9115.7999999999884</v>
@@ -38721,16 +38721,16 @@
       </c>
     </row>
     <row r="18" spans="1:21" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="390"/>
-      <c r="B18" s="391"/>
-      <c r="C18" s="315" t="s">
+      <c r="A18" s="413"/>
+      <c r="B18" s="414"/>
+      <c r="C18" s="345" t="s">
         <v>241</v>
       </c>
-      <c r="D18" s="399" t="s">
+      <c r="D18" s="421" t="s">
         <v>20</v>
       </c>
-      <c r="E18" s="399"/>
-      <c r="F18" s="399"/>
+      <c r="E18" s="421"/>
+      <c r="F18" s="421"/>
       <c r="G18" s="89">
         <f>ROUND(G$13*$T19,1)</f>
         <v>84043.199999999997</v>
@@ -38789,14 +38789,14 @@
       </c>
     </row>
     <row r="19" spans="1:21" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="392"/>
-      <c r="B19" s="393"/>
-      <c r="C19" s="315"/>
-      <c r="D19" s="414" t="s">
+      <c r="A19" s="415"/>
+      <c r="B19" s="416"/>
+      <c r="C19" s="345"/>
+      <c r="D19" s="404" t="s">
         <v>21</v>
       </c>
-      <c r="E19" s="414"/>
-      <c r="F19" s="414"/>
+      <c r="E19" s="404"/>
+      <c r="F19" s="404"/>
       <c r="G19" s="89">
         <f>G18-G13</f>
         <v>-7956.1999999999971</v>
@@ -38861,18 +38861,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="A11:B19"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="C13:F13"/>
     <mergeCell ref="C1:Q1"/>
     <mergeCell ref="D2:T2"/>
     <mergeCell ref="D14:F14"/>
@@ -38887,6 +38875,18 @@
     <mergeCell ref="A7:A10"/>
     <mergeCell ref="B7:B10"/>
     <mergeCell ref="C8:C10"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="A11:B19"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="C13:F13"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="41" fitToHeight="0" orientation="landscape" r:id="rId1"/>
